--- a/static/output/Excel/LRcountsxl2-sol3.xlsx
+++ b/static/output/Excel/LRcountsxl2-sol3.xlsx
@@ -5,21 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adolphus\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adolphus\Documents\GitHub\ACTL20004-ACTL90021-Tutorials\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECF9C94-BF83-42D2-9B50-518CFB591186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DD77B7-65E7-4A97-BB72-9D0A2F6A2BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="CL" sheetId="2" r:id="rId2"/>
     <sheet name="CL IBNR" sheetId="3" r:id="rId3"/>
-    <sheet name="comparison" sheetId="6" r:id="rId4"/>
-    <sheet name="CL quarter" sheetId="4" r:id="rId5"/>
-    <sheet name="CL quarter IBNR" sheetId="5" r:id="rId6"/>
-    <sheet name="comparison quarter" sheetId="7" r:id="rId7"/>
+    <sheet name="CL quarter" sheetId="4" r:id="rId4"/>
+    <sheet name="CL quarter IBNR" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -82,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="53">
   <si>
     <t>Period</t>
   </si>
@@ -255,30 +253,6 @@
   <si>
     <t>12 &amp; later</t>
   </si>
-  <si>
-    <t>True rectangle:</t>
-  </si>
-  <si>
-    <t>A/E</t>
-  </si>
-  <si>
-    <t>Ultimate</t>
-  </si>
-  <si>
-    <t>Frequency for 14 was estimated too high (11.85) as compared to true (10)</t>
-  </si>
-  <si>
-    <t>Stability of those last few years is the focus of many variations of the methods</t>
-  </si>
-  <si>
-    <t>Heatmap of A/E:</t>
-  </si>
-  <si>
-    <t>(average)</t>
-  </si>
-  <si>
-    <t>the quarter based pattern is obvious here!</t>
-  </si>
 </sst>
 </file>
 
@@ -385,7 +359,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -437,12 +411,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,7 +466,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -551,11 +519,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10527,1452 +10490,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59ED9C81-6137-4963-9730-31CE48555951}">
-  <dimension ref="A1:AB35"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="S1" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C2" s="33">
-        <v>91</v>
-      </c>
-      <c r="D2" s="33">
-        <v>377</v>
-      </c>
-      <c r="E2" s="33">
-        <v>301</v>
-      </c>
-      <c r="F2" s="33">
-        <v>170</v>
-      </c>
-      <c r="G2" s="33">
-        <v>72</v>
-      </c>
-      <c r="H2" s="33">
-        <v>44</v>
-      </c>
-      <c r="I2" s="33">
-        <v>11</v>
-      </c>
-      <c r="J2" s="33">
-        <v>6</v>
-      </c>
-      <c r="K2" s="33">
-        <v>3</v>
-      </c>
-      <c r="L2" s="33">
-        <v>1</v>
-      </c>
-      <c r="M2" s="33">
-        <v>1</v>
-      </c>
-      <c r="N2" s="33">
-        <v>1</v>
-      </c>
-      <c r="O2" s="33">
-        <v>1</v>
-      </c>
-      <c r="P2" s="35">
-        <f>SUM(C2:N2)</f>
-        <v>1078</v>
-      </c>
-      <c r="Q2" s="37">
-        <f t="shared" ref="Q2:Q17" si="0">S2-P2</f>
-        <v>1</v>
-      </c>
-      <c r="R2" s="46" t="e">
-        <f>Q2/'CL IBNR'!R4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S2" s="47">
-        <f t="shared" ref="S2:S16" si="1">SUM(C2:O2)</f>
-        <v>1079</v>
-      </c>
-      <c r="T2" s="46">
-        <f>S2/'CL IBNR'!S4</f>
-        <v>1.0009276437847867</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="33">
-        <v>63</v>
-      </c>
-      <c r="D3" s="33">
-        <v>550</v>
-      </c>
-      <c r="E3" s="33">
-        <v>555</v>
-      </c>
-      <c r="F3" s="33">
-        <v>404</v>
-      </c>
-      <c r="G3" s="33">
-        <v>236</v>
-      </c>
-      <c r="H3" s="33">
-        <v>104</v>
-      </c>
-      <c r="I3" s="33">
-        <v>56</v>
-      </c>
-      <c r="J3" s="33">
-        <v>26</v>
-      </c>
-      <c r="K3" s="33">
-        <v>13</v>
-      </c>
-      <c r="L3" s="33">
-        <v>5</v>
-      </c>
-      <c r="M3" s="33">
-        <v>0</v>
-      </c>
-      <c r="N3" s="33">
-        <v>1</v>
-      </c>
-      <c r="O3" s="33">
-        <v>0</v>
-      </c>
-      <c r="P3" s="35">
-        <f>SUM(C3:N3)</f>
-        <v>2013</v>
-      </c>
-      <c r="Q3" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R3" s="46" t="e">
-        <f>Q3/'CL IBNR'!R5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S3" s="47">
-        <f t="shared" si="1"/>
-        <v>2013</v>
-      </c>
-      <c r="T3" s="46">
-        <f>S3/'CL IBNR'!S5</f>
-        <v>0.99990881745620819</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="33">
-        <v>12</v>
-      </c>
-      <c r="D4" s="33">
-        <v>169</v>
-      </c>
-      <c r="E4" s="33">
-        <v>274</v>
-      </c>
-      <c r="F4" s="33">
-        <v>225</v>
-      </c>
-      <c r="G4" s="33">
-        <v>166</v>
-      </c>
-      <c r="H4" s="33">
-        <v>72</v>
-      </c>
-      <c r="I4" s="33">
-        <v>47</v>
-      </c>
-      <c r="J4" s="33">
-        <v>19</v>
-      </c>
-      <c r="K4" s="33">
-        <v>11</v>
-      </c>
-      <c r="L4" s="33">
-        <v>6</v>
-      </c>
-      <c r="M4" s="33">
-        <v>4</v>
-      </c>
-      <c r="N4" s="33">
-        <v>0</v>
-      </c>
-      <c r="O4" s="33">
-        <v>1</v>
-      </c>
-      <c r="P4" s="35">
-        <f>SUM(C4:N4)</f>
-        <v>1005</v>
-      </c>
-      <c r="Q4" s="37">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="R4" s="46" t="e">
-        <f>Q4/'CL IBNR'!R6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S4" s="47">
-        <f t="shared" si="1"/>
-        <v>1006</v>
-      </c>
-      <c r="T4" s="46">
-        <f>S4/'CL IBNR'!S6</f>
-        <v>1.0004065316567792</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="33">
-        <v>385</v>
-      </c>
-      <c r="D5" s="33">
-        <v>906</v>
-      </c>
-      <c r="E5" s="33">
-        <v>441</v>
-      </c>
-      <c r="F5" s="33">
-        <v>235</v>
-      </c>
-      <c r="G5" s="33">
-        <v>80</v>
-      </c>
-      <c r="H5" s="33">
-        <v>41</v>
-      </c>
-      <c r="I5" s="33">
-        <v>16</v>
-      </c>
-      <c r="J5" s="33">
-        <v>2</v>
-      </c>
-      <c r="K5" s="33">
-        <v>3</v>
-      </c>
-      <c r="L5" s="33">
-        <v>2</v>
-      </c>
-      <c r="M5" s="33">
-        <v>1</v>
-      </c>
-      <c r="N5" s="33">
-        <v>0</v>
-      </c>
-      <c r="O5" s="33">
-        <v>0</v>
-      </c>
-      <c r="P5" s="35">
-        <f>SUM(C5:N5)</f>
-        <v>2112</v>
-      </c>
-      <c r="Q5" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R5" s="46" t="e">
-        <f>Q5/'CL IBNR'!R7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S5" s="47">
-        <f t="shared" si="1"/>
-        <v>2112</v>
-      </c>
-      <c r="T5" s="46">
-        <f>S5/'CL IBNR'!S7</f>
-        <v>0.99941209176447632</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="33">
-        <v>92</v>
-      </c>
-      <c r="D6" s="33">
-        <v>361</v>
-      </c>
-      <c r="E6" s="33">
-        <v>265</v>
-      </c>
-      <c r="F6" s="33">
-        <v>158</v>
-      </c>
-      <c r="G6" s="33">
-        <v>69</v>
-      </c>
-      <c r="H6" s="33">
-        <v>29</v>
-      </c>
-      <c r="I6" s="33">
-        <v>17</v>
-      </c>
-      <c r="J6" s="33">
-        <v>9</v>
-      </c>
-      <c r="K6" s="33">
-        <v>2</v>
-      </c>
-      <c r="L6" s="33">
-        <v>0</v>
-      </c>
-      <c r="M6" s="33">
-        <v>0</v>
-      </c>
-      <c r="N6" s="33">
-        <v>0</v>
-      </c>
-      <c r="O6" s="33">
-        <v>0</v>
-      </c>
-      <c r="P6" s="35">
-        <f>SUM(C6:N6)</f>
-        <v>1002</v>
-      </c>
-      <c r="Q6" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="46" t="e">
-        <f>Q6/'CL IBNR'!R8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S6" s="47">
-        <f t="shared" si="1"/>
-        <v>1002</v>
-      </c>
-      <c r="T6" s="46">
-        <f>S6/'CL IBNR'!S8</f>
-        <v>0.99941209176447632</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C7" s="33">
-        <v>69</v>
-      </c>
-      <c r="D7" s="33">
-        <v>550</v>
-      </c>
-      <c r="E7" s="33">
-        <v>637</v>
-      </c>
-      <c r="F7" s="33">
-        <v>370</v>
-      </c>
-      <c r="G7" s="33">
-        <v>235</v>
-      </c>
-      <c r="H7" s="33">
-        <v>122</v>
-      </c>
-      <c r="I7" s="33">
-        <v>53</v>
-      </c>
-      <c r="J7" s="33">
-        <v>19</v>
-      </c>
-      <c r="K7" s="33">
-        <v>7</v>
-      </c>
-      <c r="L7" s="33">
-        <v>4</v>
-      </c>
-      <c r="M7" s="33">
-        <v>1</v>
-      </c>
-      <c r="N7" s="33">
-        <v>2</v>
-      </c>
-      <c r="O7" s="33">
-        <v>1</v>
-      </c>
-      <c r="P7" s="35">
-        <f>SUM(C7:M7)</f>
-        <v>2067</v>
-      </c>
-      <c r="Q7" s="37">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="R7" s="46">
-        <f>Q7/'CL IBNR'!R9</f>
-        <v>2.4672652034247262</v>
-      </c>
-      <c r="S7" s="47">
-        <f t="shared" si="1"/>
-        <v>2070</v>
-      </c>
-      <c r="T7" s="46">
-        <f>S7/'CL IBNR'!S9</f>
-        <v>1.0008626172967905</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="33">
-        <v>6</v>
-      </c>
-      <c r="D8" s="33">
-        <v>143</v>
-      </c>
-      <c r="E8" s="33">
-        <v>212</v>
-      </c>
-      <c r="F8" s="33">
-        <v>200</v>
-      </c>
-      <c r="G8" s="33">
-        <v>120</v>
-      </c>
-      <c r="H8" s="33">
-        <v>85</v>
-      </c>
-      <c r="I8" s="33">
-        <v>38</v>
-      </c>
-      <c r="J8" s="33">
-        <v>22</v>
-      </c>
-      <c r="K8" s="33">
-        <v>6</v>
-      </c>
-      <c r="L8" s="33">
-        <v>2</v>
-      </c>
-      <c r="M8" s="33">
-        <v>3</v>
-      </c>
-      <c r="N8" s="33">
-        <v>1</v>
-      </c>
-      <c r="O8" s="33">
-        <v>0</v>
-      </c>
-      <c r="P8" s="35">
-        <f>SUM(C8:L8)</f>
-        <v>834</v>
-      </c>
-      <c r="Q8" s="37">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="R8" s="46">
-        <f>Q8/'CL IBNR'!R10</f>
-        <v>3.5165044636021325</v>
-      </c>
-      <c r="S8" s="47">
-        <f t="shared" si="1"/>
-        <v>838</v>
-      </c>
-      <c r="T8" s="46">
-        <f>S8/'CL IBNR'!S10</f>
-        <v>1.0034275874321132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="33">
-        <v>315</v>
-      </c>
-      <c r="D9" s="33">
-        <v>711</v>
-      </c>
-      <c r="E9" s="33">
-        <v>421</v>
-      </c>
-      <c r="F9" s="33">
-        <v>175</v>
-      </c>
-      <c r="G9" s="33">
-        <v>87</v>
-      </c>
-      <c r="H9" s="33">
-        <v>38</v>
-      </c>
-      <c r="I9" s="33">
-        <v>13</v>
-      </c>
-      <c r="J9" s="33">
-        <v>4</v>
-      </c>
-      <c r="K9" s="33">
-        <v>2</v>
-      </c>
-      <c r="L9" s="33">
-        <v>0</v>
-      </c>
-      <c r="M9" s="33">
-        <v>1</v>
-      </c>
-      <c r="N9" s="33">
-        <v>0</v>
-      </c>
-      <c r="O9" s="33">
-        <v>0</v>
-      </c>
-      <c r="P9" s="35">
-        <f>SUM(C9:K9)</f>
-        <v>1766</v>
-      </c>
-      <c r="Q9" s="37">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="R9" s="46">
-        <f>Q9/'CL IBNR'!R11</f>
-        <v>0.17901932100046647</v>
-      </c>
-      <c r="S9" s="47">
-        <f t="shared" si="1"/>
-        <v>1767</v>
-      </c>
-      <c r="T9" s="46">
-        <f>S9/'CL IBNR'!S11</f>
-        <v>0.99741136514791928</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C10" s="33">
-        <v>78</v>
-      </c>
-      <c r="D10" s="33">
-        <v>288</v>
-      </c>
-      <c r="E10" s="33">
-        <v>239</v>
-      </c>
-      <c r="F10" s="33">
-        <v>99</v>
-      </c>
-      <c r="G10" s="33">
-        <v>66</v>
-      </c>
-      <c r="H10" s="33">
-        <v>32</v>
-      </c>
-      <c r="I10" s="33">
-        <v>11</v>
-      </c>
-      <c r="J10" s="33">
-        <v>6</v>
-      </c>
-      <c r="K10" s="33">
-        <v>3</v>
-      </c>
-      <c r="L10" s="33">
-        <v>0</v>
-      </c>
-      <c r="M10" s="33">
-        <v>0</v>
-      </c>
-      <c r="N10" s="33">
-        <v>1</v>
-      </c>
-      <c r="O10" s="33">
-        <v>0</v>
-      </c>
-      <c r="P10" s="35">
-        <f>SUM(C10:J10)</f>
-        <v>819</v>
-      </c>
-      <c r="Q10" s="37">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="R10" s="46">
-        <f>Q10/'CL IBNR'!R12</f>
-        <v>0.66533602423676097</v>
-      </c>
-      <c r="S10" s="47">
-        <f t="shared" si="1"/>
-        <v>823</v>
-      </c>
-      <c r="T10" s="46">
-        <f>S10/'CL IBNR'!S12</f>
-        <v>0.99756124791693801</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C11" s="33">
-        <v>85</v>
-      </c>
-      <c r="D11" s="33">
-        <v>499</v>
-      </c>
-      <c r="E11" s="33">
-        <v>555</v>
-      </c>
-      <c r="F11" s="33">
-        <v>350</v>
-      </c>
-      <c r="G11" s="33">
-        <v>226</v>
-      </c>
-      <c r="H11" s="33">
-        <v>113</v>
-      </c>
-      <c r="I11" s="33">
-        <v>65</v>
-      </c>
-      <c r="J11" s="33">
-        <v>23</v>
-      </c>
-      <c r="K11" s="33">
-        <v>15</v>
-      </c>
-      <c r="L11" s="33">
-        <v>4</v>
-      </c>
-      <c r="M11" s="33">
-        <v>3</v>
-      </c>
-      <c r="N11" s="33">
-        <v>0</v>
-      </c>
-      <c r="O11" s="33">
-        <v>0</v>
-      </c>
-      <c r="P11" s="35">
-        <f>SUM(C11:I11)</f>
-        <v>1893</v>
-      </c>
-      <c r="Q11" s="37">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="R11" s="46">
-        <f>Q11/'CL IBNR'!R13</f>
-        <v>1.393119489483539</v>
-      </c>
-      <c r="S11" s="47">
-        <f t="shared" si="1"/>
-        <v>1938</v>
-      </c>
-      <c r="T11" s="46">
-        <f>S11/'CL IBNR'!S13</f>
-        <v>1.0065955337552226</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="33">
-        <v>18</v>
-      </c>
-      <c r="D12" s="33">
-        <v>144</v>
-      </c>
-      <c r="E12" s="33">
-        <v>262</v>
-      </c>
-      <c r="F12" s="33">
-        <v>222</v>
-      </c>
-      <c r="G12" s="33">
-        <v>150</v>
-      </c>
-      <c r="H12" s="33">
-        <v>84</v>
-      </c>
-      <c r="I12" s="33">
-        <v>35</v>
-      </c>
-      <c r="J12" s="33">
-        <v>31</v>
-      </c>
-      <c r="K12" s="33">
-        <v>9</v>
-      </c>
-      <c r="L12" s="33">
-        <v>2</v>
-      </c>
-      <c r="M12" s="33">
-        <v>2</v>
-      </c>
-      <c r="N12" s="33">
-        <v>3</v>
-      </c>
-      <c r="O12" s="33">
-        <v>0</v>
-      </c>
-      <c r="P12" s="35">
-        <f>SUM(C12:H12)</f>
-        <v>880</v>
-      </c>
-      <c r="Q12" s="37">
-        <f t="shared" si="0"/>
-        <v>82</v>
-      </c>
-      <c r="R12" s="46">
-        <f>Q12/'CL IBNR'!R14</f>
-        <v>2.3402430879028433</v>
-      </c>
-      <c r="S12" s="47">
-        <f t="shared" si="1"/>
-        <v>962</v>
-      </c>
-      <c r="T12" s="46">
-        <f>S12/'CL IBNR'!S14</f>
-        <v>1.0513212005943267</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="33">
-        <v>331</v>
-      </c>
-      <c r="D13" s="33">
-        <v>747</v>
-      </c>
-      <c r="E13" s="33">
-        <v>378</v>
-      </c>
-      <c r="F13" s="33">
-        <v>156</v>
-      </c>
-      <c r="G13" s="33">
-        <v>71</v>
-      </c>
-      <c r="H13" s="33">
-        <v>27</v>
-      </c>
-      <c r="I13" s="33">
-        <v>11</v>
-      </c>
-      <c r="J13" s="33">
-        <v>6</v>
-      </c>
-      <c r="K13" s="33">
-        <v>3</v>
-      </c>
-      <c r="L13" s="33">
-        <v>0</v>
-      </c>
-      <c r="M13" s="33">
-        <v>1</v>
-      </c>
-      <c r="N13" s="33">
-        <v>0</v>
-      </c>
-      <c r="O13" s="33">
-        <v>0</v>
-      </c>
-      <c r="P13" s="35">
-        <f>SUM(C13:G13)</f>
-        <v>1683</v>
-      </c>
-      <c r="Q13" s="37">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="R13" s="46">
-        <f>Q13/'CL IBNR'!R15</f>
-        <v>0.29769130539397398</v>
-      </c>
-      <c r="S13" s="47">
-        <f t="shared" si="1"/>
-        <v>1731</v>
-      </c>
-      <c r="T13" s="46">
-        <f>S13/'CL IBNR'!S15</f>
-        <v>0.9385975791737442</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C14" s="33">
-        <v>67</v>
-      </c>
-      <c r="D14" s="33">
-        <v>272</v>
-      </c>
-      <c r="E14" s="33">
-        <v>182</v>
-      </c>
-      <c r="F14" s="33">
-        <v>125</v>
-      </c>
-      <c r="G14" s="33">
-        <v>57</v>
-      </c>
-      <c r="H14" s="33">
-        <v>27</v>
-      </c>
-      <c r="I14" s="33">
-        <v>11</v>
-      </c>
-      <c r="J14" s="33">
-        <v>2</v>
-      </c>
-      <c r="K14" s="33">
-        <v>2</v>
-      </c>
-      <c r="L14" s="33">
-        <v>2</v>
-      </c>
-      <c r="M14" s="33">
-        <v>1</v>
-      </c>
-      <c r="N14" s="33">
-        <v>0</v>
-      </c>
-      <c r="O14" s="33">
-        <v>0</v>
-      </c>
-      <c r="P14" s="35">
-        <f>SUM(C14:F14)</f>
-        <v>646</v>
-      </c>
-      <c r="Q14" s="37">
-        <f t="shared" si="0"/>
-        <v>102</v>
-      </c>
-      <c r="R14" s="46">
-        <f>Q14/'CL IBNR'!R16</f>
-        <v>0.72837019474125708</v>
-      </c>
-      <c r="S14" s="47">
-        <f t="shared" si="1"/>
-        <v>748</v>
-      </c>
-      <c r="T14" s="46">
-        <f>S14/'CL IBNR'!S16</f>
-        <v>0.9516071153315544</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C15" s="33">
-        <v>60</v>
-      </c>
-      <c r="D15" s="33">
-        <v>419</v>
-      </c>
-      <c r="E15" s="33">
-        <v>437</v>
-      </c>
-      <c r="F15" s="33">
-        <v>319</v>
-      </c>
-      <c r="G15" s="33">
-        <v>200</v>
-      </c>
-      <c r="H15" s="33">
-        <v>86</v>
-      </c>
-      <c r="I15" s="33">
-        <v>41</v>
-      </c>
-      <c r="J15" s="33">
-        <v>24</v>
-      </c>
-      <c r="K15" s="33">
-        <v>9</v>
-      </c>
-      <c r="L15" s="33">
-        <v>4</v>
-      </c>
-      <c r="M15" s="33">
-        <v>1</v>
-      </c>
-      <c r="N15" s="33">
-        <v>0</v>
-      </c>
-      <c r="O15" s="33">
-        <v>0</v>
-      </c>
-      <c r="P15" s="35">
-        <f>SUM(C15:E15)</f>
-        <v>916</v>
-      </c>
-      <c r="Q15" s="37">
-        <f t="shared" si="0"/>
-        <v>684</v>
-      </c>
-      <c r="R15" s="46">
-        <f>Q15/'CL IBNR'!R17</f>
-        <v>1.4685497707522677</v>
-      </c>
-      <c r="S15" s="47">
-        <f t="shared" si="1"/>
-        <v>1600</v>
-      </c>
-      <c r="T15" s="46">
-        <f>S15/'CL IBNR'!S17</f>
-        <v>1.1579387795477298</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C16" s="33">
-        <v>11</v>
-      </c>
-      <c r="D16" s="33">
-        <v>169</v>
-      </c>
-      <c r="E16" s="33">
-        <v>247</v>
-      </c>
-      <c r="F16" s="33">
-        <v>202</v>
-      </c>
-      <c r="G16" s="33">
-        <v>139</v>
-      </c>
-      <c r="H16" s="33">
-        <v>82</v>
-      </c>
-      <c r="I16" s="33">
-        <v>38</v>
-      </c>
-      <c r="J16" s="33">
-        <v>21</v>
-      </c>
-      <c r="K16" s="33">
-        <v>12</v>
-      </c>
-      <c r="L16" s="33">
-        <v>5</v>
-      </c>
-      <c r="M16" s="33">
-        <v>4</v>
-      </c>
-      <c r="N16" s="33">
-        <v>0</v>
-      </c>
-      <c r="O16" s="33">
-        <v>1</v>
-      </c>
-      <c r="P16" s="35">
-        <f>SUM(C16:D16)</f>
-        <v>180</v>
-      </c>
-      <c r="Q16" s="37">
-        <f t="shared" si="0"/>
-        <v>751</v>
-      </c>
-      <c r="R16" s="46">
-        <f>Q16/'CL IBNR'!R18</f>
-        <v>2.7719125488087917</v>
-      </c>
-      <c r="S16" s="47">
-        <f t="shared" si="1"/>
-        <v>931</v>
-      </c>
-      <c r="T16" s="49">
-        <f>S16/'CL IBNR'!S18</f>
-        <v>2.0646125335607257</v>
-      </c>
-      <c r="U16" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="V16" s="50"/>
-      <c r="W16" s="50"/>
-      <c r="X16" s="50"/>
-      <c r="Y16" s="50"/>
-      <c r="Z16" s="50"/>
-      <c r="AA16" s="50"/>
-      <c r="AB16" s="50"/>
-    </row>
-    <row r="17" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C17" s="33">
-        <v>323</v>
-      </c>
-      <c r="D17" s="33">
-        <v>713</v>
-      </c>
-      <c r="E17" s="33">
-        <v>344</v>
-      </c>
-      <c r="F17" s="33">
-        <v>160</v>
-      </c>
-      <c r="G17" s="33">
-        <v>66</v>
-      </c>
-      <c r="H17" s="33">
-        <v>29</v>
-      </c>
-      <c r="I17" s="33">
-        <v>9</v>
-      </c>
-      <c r="J17" s="33">
-        <v>5</v>
-      </c>
-      <c r="K17" s="33">
-        <v>1</v>
-      </c>
-      <c r="L17" s="33">
-        <v>1</v>
-      </c>
-      <c r="M17" s="33">
-        <v>1</v>
-      </c>
-      <c r="N17" s="33">
-        <v>0</v>
-      </c>
-      <c r="O17" s="33">
-        <v>0</v>
-      </c>
-      <c r="P17" s="35">
-        <f>SUM(C17)</f>
-        <v>323</v>
-      </c>
-      <c r="Q17" s="37">
-        <f t="shared" si="0"/>
-        <v>1329</v>
-      </c>
-      <c r="R17" s="46">
-        <f>Q17/'CL IBNR'!R19</f>
-        <v>0.37781821695477591</v>
-      </c>
-      <c r="S17" s="47">
-        <f>SUM(C17:O17)</f>
-        <v>1652</v>
-      </c>
-      <c r="T17" s="49">
-        <f>S17/'CL IBNR'!S19</f>
-        <v>0.43014508417455538</v>
-      </c>
-      <c r="U17" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="V17" s="50"/>
-      <c r="W17" s="50"/>
-      <c r="X17" s="50"/>
-      <c r="Y17" s="50"/>
-      <c r="Z17" s="50"/>
-      <c r="AA17" s="50"/>
-      <c r="AB17" s="50"/>
-    </row>
-    <row r="18" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="46"/>
-      <c r="S18" s="3"/>
-    </row>
-    <row r="19" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="37">
-        <f>SUM(Q2:Q17)</f>
-        <v>3055</v>
-      </c>
-      <c r="R19" s="46">
-        <f>Q19/'CL IBNR'!R21</f>
-        <v>0.65885473142909612</v>
-      </c>
-      <c r="S19" s="3"/>
-      <c r="T19" s="48">
-        <f>AVERAGE(T2:T17)</f>
-        <v>1.0375092387723965</v>
-      </c>
-      <c r="U19" s="48" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="N20">
-        <f>IF('CL IBNR'!N4&gt;0,N2/'CL IBNR'!N4,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="N21">
-        <f>IF('CL IBNR'!N5&gt;0,N3/'CL IBNR'!N5,"")</f>
-        <v>0.8449034419281497</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="N22">
-        <f>IF('CL IBNR'!N6&gt;0,N4/'CL IBNR'!N6,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="N23">
-        <f>IF('CL IBNR'!N7&gt;0,N5/'CL IBNR'!N7,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="N24">
-        <f>IF('CL IBNR'!N8&gt;0,N6/'CL IBNR'!N8,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="M25">
-        <f>IF('CL IBNR'!M9&gt;0,M7/'CL IBNR'!M9,"")</f>
-        <v>1</v>
-      </c>
-      <c r="N25">
-        <f>IF('CL IBNR'!N9&gt;0,N7/'CL IBNR'!N9,"")</f>
-        <v>1.6448434689496247</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="L26">
-        <f>IF('CL IBNR'!L10&gt;0,L8/'CL IBNR'!L10,"")</f>
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <f>IF('CL IBNR'!M10&gt;0,M8/'CL IBNR'!M10,"")</f>
-        <v>4.6403065304219888</v>
-      </c>
-      <c r="N26">
-        <f>IF('CL IBNR'!N10&gt;0,N8/'CL IBNR'!N10,"")</f>
-        <v>2.0367253763122912</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="K27">
-        <f>IF('CL IBNR'!K11&gt;0,K9/'CL IBNR'!K11,"")</f>
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <f>IF('CL IBNR'!L11&gt;0,L9/'CL IBNR'!L11,"")</f>
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <f>IF('CL IBNR'!M11&gt;0,M9/'CL IBNR'!M11,"")</f>
-        <v>0.72915718592566769</v>
-      </c>
-      <c r="N27">
-        <f>IF('CL IBNR'!N11&gt;0,N9/'CL IBNR'!N11,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="J28">
-        <f>IF('CL IBNR'!J12&gt;0,J10/'CL IBNR'!J12,"")</f>
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <f>IF('CL IBNR'!K12&gt;0,K10/'CL IBNR'!K12,"")</f>
-        <v>0.87959677123238955</v>
-      </c>
-      <c r="L28">
-        <f>IF('CL IBNR'!L12&gt;0,L10/'CL IBNR'!L12,"")</f>
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <f>IF('CL IBNR'!M12&gt;0,M10/'CL IBNR'!M12,"")</f>
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <f>IF('CL IBNR'!N12&gt;0,N10/'CL IBNR'!N12,"")</f>
-        <v>2.0617224061106065</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="I29">
-        <f>IF('CL IBNR'!I13&gt;0,I11/'CL IBNR'!I13,"")</f>
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <f>IF('CL IBNR'!J13&gt;0,J11/'CL IBNR'!J13,"")</f>
-        <v>1.2587830875993105</v>
-      </c>
-      <c r="K29">
-        <f>IF('CL IBNR'!K13&gt;0,K11/'CL IBNR'!K13,"")</f>
-        <v>1.8845823638282204</v>
-      </c>
-      <c r="L29">
-        <f>IF('CL IBNR'!L13&gt;0,L11/'CL IBNR'!L13,"")</f>
-        <v>1.1599830020677444</v>
-      </c>
-      <c r="M29">
-        <f>IF('CL IBNR'!M13&gt;0,M11/'CL IBNR'!M13,"")</f>
-        <v>2.0128243528155871</v>
-      </c>
-      <c r="N29">
-        <f>IF('CL IBNR'!N13&gt;0,N11/'CL IBNR'!N13,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="H30">
-        <f>IF('CL IBNR'!H14&gt;0,H12/'CL IBNR'!H14,"")</f>
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <f>IF('CL IBNR'!I14&gt;0,I12/'CL IBNR'!I14,"")</f>
-        <v>1.7778145374182661</v>
-      </c>
-      <c r="J30">
-        <f>IF('CL IBNR'!J14&gt;0,J12/'CL IBNR'!J14,"")</f>
-        <v>3.5697999656991142</v>
-      </c>
-      <c r="K30">
-        <f>IF('CL IBNR'!K14&gt;0,K12/'CL IBNR'!K14,"")</f>
-        <v>2.3791701200015223</v>
-      </c>
-      <c r="L30">
-        <f>IF('CL IBNR'!L14&gt;0,L12/'CL IBNR'!L14,"")</f>
-        <v>1.2203397382179884</v>
-      </c>
-      <c r="M30">
-        <f>IF('CL IBNR'!M14&gt;0,M12/'CL IBNR'!M14,"")</f>
-        <v>2.8234086642249059</v>
-      </c>
-      <c r="N30">
-        <f>IF('CL IBNR'!N14&gt;0,N12/'CL IBNR'!N14,"")</f>
-        <v>5.5766329581717473</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="G31">
-        <f>IF('CL IBNR'!G15&gt;0,G13/'CL IBNR'!G15,"")</f>
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <f>IF('CL IBNR'!H15&gt;0,H13/'CL IBNR'!H15,"")</f>
-        <v>0.29794635607693859</v>
-      </c>
-      <c r="I31">
-        <f>IF('CL IBNR'!I15&gt;0,I13/'CL IBNR'!I15,"")</f>
-        <v>0.27722545538243848</v>
-      </c>
-      <c r="J31">
-        <f>IF('CL IBNR'!J15&gt;0,J13/'CL IBNR'!J15,"")</f>
-        <v>0.34281155269554736</v>
-      </c>
-      <c r="K31">
-        <f>IF('CL IBNR'!K15&gt;0,K13/'CL IBNR'!K15,"")</f>
-        <v>0.393483253572323</v>
-      </c>
-      <c r="L31">
-        <f>IF('CL IBNR'!L15&gt;0,L13/'CL IBNR'!L15,"")</f>
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <f>IF('CL IBNR'!M15&gt;0,M13/'CL IBNR'!M15,"")</f>
-        <v>0.70043164506630051</v>
-      </c>
-      <c r="N31">
-        <f>IF('CL IBNR'!N15&gt;0,N13/'CL IBNR'!N15,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="F32">
-        <f>IF('CL IBNR'!F16&gt;0,F14/'CL IBNR'!F16,"")</f>
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <f>IF('CL IBNR'!G16&gt;0,G14/'CL IBNR'!G16,"")</f>
-        <v>0.79926191008722913</v>
-      </c>
-      <c r="H32">
-        <f>IF('CL IBNR'!H16&gt;0,H14/'CL IBNR'!H16,"")</f>
-        <v>0.69905572899414448</v>
-      </c>
-      <c r="I32">
-        <f>IF('CL IBNR'!I16&gt;0,I14/'CL IBNR'!I16,"")</f>
-        <v>0.65043937895337223</v>
-      </c>
-      <c r="J32">
-        <f>IF('CL IBNR'!J16&gt;0,J14/'CL IBNR'!J16,"")</f>
-        <v>0.26810685322977751</v>
-      </c>
-      <c r="K32">
-        <f>IF('CL IBNR'!K16&gt;0,K14/'CL IBNR'!K16,"")</f>
-        <v>0.61547258885747802</v>
-      </c>
-      <c r="L32">
-        <f>IF('CL IBNR'!L16&gt;0,L14/'CL IBNR'!L16,"")</f>
-        <v>1.4206152945666231</v>
-      </c>
-      <c r="M32">
-        <f>IF('CL IBNR'!M16&gt;0,M14/'CL IBNR'!M16,"")</f>
-        <v>1.6433856104148854</v>
-      </c>
-      <c r="N32">
-        <f>IF('CL IBNR'!N16&gt;0,N14/'CL IBNR'!N16,"")</f>
-        <v>0</v>
-      </c>
-      <c r="P32" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q32" s="50"/>
-      <c r="R32" s="50"/>
-      <c r="S32" s="50"/>
-    </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="E33">
-        <f>IF('CL IBNR'!E17&gt;0,E15/'CL IBNR'!E17,"")</f>
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <f>IF('CL IBNR'!F17&gt;0,F15/'CL IBNR'!F17,"")</f>
-        <v>1.4526826647077227</v>
-      </c>
-      <c r="G33">
-        <f>IF('CL IBNR'!G17&gt;0,G15/'CL IBNR'!G17,"")</f>
-        <v>1.5953419669346025</v>
-      </c>
-      <c r="H33">
-        <f>IF('CL IBNR'!H17&gt;0,H15/'CL IBNR'!H17,"")</f>
-        <v>1.2666482272398238</v>
-      </c>
-      <c r="I33">
-        <f>IF('CL IBNR'!I17&gt;0,I15/'CL IBNR'!I17,"")</f>
-        <v>1.3791373851795103</v>
-      </c>
-      <c r="J33">
-        <f>IF('CL IBNR'!J17&gt;0,J15/'CL IBNR'!J17,"")</f>
-        <v>1.83020060558719</v>
-      </c>
-      <c r="K33">
-        <f>IF('CL IBNR'!K17&gt;0,K15/'CL IBNR'!K17,"")</f>
-        <v>1.575544821886564</v>
-      </c>
-      <c r="L33">
-        <f>IF('CL IBNR'!L17&gt;0,L15/'CL IBNR'!L17,"")</f>
-        <v>1.6162778267327318</v>
-      </c>
-      <c r="M33">
-        <f>IF('CL IBNR'!M17&gt;0,M15/'CL IBNR'!M17,"")</f>
-        <v>0.93486524221024703</v>
-      </c>
-      <c r="N33">
-        <f>IF('CL IBNR'!N17&gt;0,N15/'CL IBNR'!N17,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D34">
-        <f>IF('CL IBNR'!D18&gt;0,D16/'CL IBNR'!D18,"")</f>
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <f>IF('CL IBNR'!E18&gt;0,E16/'CL IBNR'!E18,"")</f>
-        <v>2.076819366371605</v>
-      </c>
-      <c r="F34">
-        <f>IF('CL IBNR'!F18&gt;0,F16/'CL IBNR'!F18,"")</f>
-        <v>2.8187379508485777</v>
-      </c>
-      <c r="G34">
-        <f>IF('CL IBNR'!G18&gt;0,G16/'CL IBNR'!G18,"")</f>
-        <v>3.3975187082359461</v>
-      </c>
-      <c r="H34">
-        <f>IF('CL IBNR'!H18&gt;0,H16/'CL IBNR'!H18,"")</f>
-        <v>3.7007920557220952</v>
-      </c>
-      <c r="I34">
-        <f>IF('CL IBNR'!I18&gt;0,I16/'CL IBNR'!I18,"")</f>
-        <v>3.9167922211415984</v>
-      </c>
-      <c r="J34">
-        <f>IF('CL IBNR'!J18&gt;0,J16/'CL IBNR'!J18,"")</f>
-        <v>4.9071576447188425</v>
-      </c>
-      <c r="K34">
-        <f>IF('CL IBNR'!K18&gt;0,K16/'CL IBNR'!K18,"")</f>
-        <v>6.437137140644718</v>
-      </c>
-      <c r="L34">
-        <f>IF('CL IBNR'!L18&gt;0,L16/'CL IBNR'!L18,"")</f>
-        <v>6.1908358720182433</v>
-      </c>
-      <c r="M34">
-        <f>IF('CL IBNR'!M18&gt;0,M16/'CL IBNR'!M18,"")</f>
-        <v>11.458618673108131</v>
-      </c>
-      <c r="N34">
-        <f>IF('CL IBNR'!N18&gt;0,N16/'CL IBNR'!N18,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C35">
-        <f>IF('CL IBNR'!C19&gt;0,C17/'CL IBNR'!C19,"")</f>
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <f>IF('CL IBNR'!D19&gt;0,D17/'CL IBNR'!D19,"")</f>
-        <v>0.58923160399014984</v>
-      </c>
-      <c r="E35">
-        <f>IF('CL IBNR'!E19&gt;0,E17/'CL IBNR'!E19,"")</f>
-        <v>0.33960670553580341</v>
-      </c>
-      <c r="F35">
-        <f>IF('CL IBNR'!F19&gt;0,F17/'CL IBNR'!F19,"")</f>
-        <v>0.26214365990946636</v>
-      </c>
-      <c r="G35">
-        <f>IF('CL IBNR'!G19&gt;0,G17/'CL IBNR'!G19,"")</f>
-        <v>0.18941180149296552</v>
-      </c>
-      <c r="H35">
-        <f>IF('CL IBNR'!H19&gt;0,H17/'CL IBNR'!H19,"")</f>
-        <v>0.15367204517913455</v>
-      </c>
-      <c r="I35">
-        <f>IF('CL IBNR'!I19&gt;0,I17/'CL IBNR'!I19,"")</f>
-        <v>0.10891946236992081</v>
-      </c>
-      <c r="J35">
-        <f>IF('CL IBNR'!J19&gt;0,J17/'CL IBNR'!J19,"")</f>
-        <v>0.13718188377316881</v>
-      </c>
-      <c r="K35">
-        <f>IF('CL IBNR'!K19&gt;0,K17/'CL IBNR'!K19,"")</f>
-        <v>6.2983611297587214E-2</v>
-      </c>
-      <c r="L35">
-        <f>IF('CL IBNR'!L19&gt;0,L17/'CL IBNR'!L19,"")</f>
-        <v>0.14537687483773701</v>
-      </c>
-      <c r="M35">
-        <f>IF('CL IBNR'!M19&gt;0,M17/'CL IBNR'!M19,"")</f>
-        <v>0.33634758841351975</v>
-      </c>
-      <c r="N35">
-        <f>IF('CL IBNR'!N19&gt;0,N17/'CL IBNR'!N19,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C20:O35">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E739E852-3E62-41BB-B97E-37D430093FE9}">
   <dimension ref="A1:R46"/>
   <sheetViews>
@@ -13784,11 +12301,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18DA5D59-91E8-4115-A0FD-0EEDB6DE2D11}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15268,1488 +13785,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EFC019E-9F74-4987-AF5F-69FCC1A6956A}">
-  <dimension ref="A1:AB35"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="U25" sqref="U25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="S1" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C2" s="33">
-        <v>91</v>
-      </c>
-      <c r="D2" s="33">
-        <v>377</v>
-      </c>
-      <c r="E2" s="33">
-        <v>301</v>
-      </c>
-      <c r="F2" s="33">
-        <v>170</v>
-      </c>
-      <c r="G2" s="33">
-        <v>72</v>
-      </c>
-      <c r="H2" s="33">
-        <v>44</v>
-      </c>
-      <c r="I2" s="33">
-        <v>11</v>
-      </c>
-      <c r="J2" s="33">
-        <v>6</v>
-      </c>
-      <c r="K2" s="33">
-        <v>3</v>
-      </c>
-      <c r="L2" s="33">
-        <v>1</v>
-      </c>
-      <c r="M2" s="33">
-        <v>1</v>
-      </c>
-      <c r="N2" s="33">
-        <v>1</v>
-      </c>
-      <c r="O2" s="33">
-        <v>1</v>
-      </c>
-      <c r="P2" s="35">
-        <f>SUM(C2:N2)</f>
-        <v>1078</v>
-      </c>
-      <c r="Q2" s="37">
-        <f t="shared" ref="Q2:Q17" si="0">S2-P2</f>
-        <v>1</v>
-      </c>
-      <c r="R2" s="46">
-        <f>Q2/'CL quarter IBNR'!R4</f>
-        <v>2.9668426791002824</v>
-      </c>
-      <c r="S2" s="47">
-        <f t="shared" ref="S2:S16" si="1">SUM(C2:O2)</f>
-        <v>1079</v>
-      </c>
-      <c r="T2" s="46">
-        <f>S2/'CL quarter IBNR'!S4</f>
-        <v>1.0006147811954487</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="33">
-        <v>63</v>
-      </c>
-      <c r="D3" s="33">
-        <v>550</v>
-      </c>
-      <c r="E3" s="33">
-        <v>555</v>
-      </c>
-      <c r="F3" s="33">
-        <v>404</v>
-      </c>
-      <c r="G3" s="33">
-        <v>236</v>
-      </c>
-      <c r="H3" s="33">
-        <v>104</v>
-      </c>
-      <c r="I3" s="33">
-        <v>56</v>
-      </c>
-      <c r="J3" s="33">
-        <v>26</v>
-      </c>
-      <c r="K3" s="33">
-        <v>13</v>
-      </c>
-      <c r="L3" s="33">
-        <v>5</v>
-      </c>
-      <c r="M3" s="33">
-        <v>0</v>
-      </c>
-      <c r="N3" s="33">
-        <v>1</v>
-      </c>
-      <c r="O3" s="33">
-        <v>0</v>
-      </c>
-      <c r="P3" s="35">
-        <f>SUM(C3:N3)</f>
-        <v>2013</v>
-      </c>
-      <c r="Q3" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R3" s="46">
-        <f>Q3/'CL quarter IBNR'!R5</f>
-        <v>0</v>
-      </c>
-      <c r="S3" s="47">
-        <f t="shared" si="1"/>
-        <v>2013</v>
-      </c>
-      <c r="T3" s="46">
-        <f>S3/'CL quarter IBNR'!S5</f>
-        <v>0.99984305215532276</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="33">
-        <v>12</v>
-      </c>
-      <c r="D4" s="33">
-        <v>169</v>
-      </c>
-      <c r="E4" s="33">
-        <v>274</v>
-      </c>
-      <c r="F4" s="33">
-        <v>225</v>
-      </c>
-      <c r="G4" s="33">
-        <v>166</v>
-      </c>
-      <c r="H4" s="33">
-        <v>72</v>
-      </c>
-      <c r="I4" s="33">
-        <v>47</v>
-      </c>
-      <c r="J4" s="33">
-        <v>19</v>
-      </c>
-      <c r="K4" s="33">
-        <v>11</v>
-      </c>
-      <c r="L4" s="33">
-        <v>6</v>
-      </c>
-      <c r="M4" s="33">
-        <v>4</v>
-      </c>
-      <c r="N4" s="33">
-        <v>0</v>
-      </c>
-      <c r="O4" s="33">
-        <v>1</v>
-      </c>
-      <c r="P4" s="35">
-        <f>SUM(C4:N4)</f>
-        <v>1005</v>
-      </c>
-      <c r="Q4" s="37">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="R4" s="46">
-        <f>Q4/'CL quarter IBNR'!R6</f>
-        <v>1.2933033401383613</v>
-      </c>
-      <c r="S4" s="47">
-        <f t="shared" si="1"/>
-        <v>1006</v>
-      </c>
-      <c r="T4" s="46">
-        <f>S4/'CL quarter IBNR'!S6</f>
-        <v>1.0002254844226257</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="33">
-        <v>385</v>
-      </c>
-      <c r="D5" s="33">
-        <v>906</v>
-      </c>
-      <c r="E5" s="33">
-        <v>441</v>
-      </c>
-      <c r="F5" s="33">
-        <v>235</v>
-      </c>
-      <c r="G5" s="33">
-        <v>80</v>
-      </c>
-      <c r="H5" s="33">
-        <v>41</v>
-      </c>
-      <c r="I5" s="33">
-        <v>16</v>
-      </c>
-      <c r="J5" s="33">
-        <v>2</v>
-      </c>
-      <c r="K5" s="33">
-        <v>3</v>
-      </c>
-      <c r="L5" s="33">
-        <v>2</v>
-      </c>
-      <c r="M5" s="33">
-        <v>1</v>
-      </c>
-      <c r="N5" s="33">
-        <v>0</v>
-      </c>
-      <c r="O5" s="33">
-        <v>0</v>
-      </c>
-      <c r="P5" s="35">
-        <f>SUM(C5:N5)</f>
-        <v>2112</v>
-      </c>
-      <c r="Q5" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R5" s="46">
-        <f>Q5/'CL quarter IBNR'!R7</f>
-        <v>0</v>
-      </c>
-      <c r="S5" s="47">
-        <f t="shared" si="1"/>
-        <v>2112</v>
-      </c>
-      <c r="T5" s="46">
-        <f>S5/'CL quarter IBNR'!S7</f>
-        <v>0.99986863606010201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="33">
-        <v>92</v>
-      </c>
-      <c r="D6" s="33">
-        <v>361</v>
-      </c>
-      <c r="E6" s="33">
-        <v>265</v>
-      </c>
-      <c r="F6" s="33">
-        <v>158</v>
-      </c>
-      <c r="G6" s="33">
-        <v>69</v>
-      </c>
-      <c r="H6" s="33">
-        <v>29</v>
-      </c>
-      <c r="I6" s="33">
-        <v>17</v>
-      </c>
-      <c r="J6" s="33">
-        <v>9</v>
-      </c>
-      <c r="K6" s="33">
-        <v>2</v>
-      </c>
-      <c r="L6" s="33">
-        <v>0</v>
-      </c>
-      <c r="M6" s="33">
-        <v>0</v>
-      </c>
-      <c r="N6" s="33">
-        <v>0</v>
-      </c>
-      <c r="O6" s="33">
-        <v>0</v>
-      </c>
-      <c r="P6" s="35">
-        <f>SUM(C6:N6)</f>
-        <v>1002</v>
-      </c>
-      <c r="Q6" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="46">
-        <f>Q6/'CL quarter IBNR'!R8</f>
-        <v>0</v>
-      </c>
-      <c r="S6" s="47">
-        <f t="shared" si="1"/>
-        <v>1002</v>
-      </c>
-      <c r="T6" s="46">
-        <f>S6/'CL quarter IBNR'!S8</f>
-        <v>0.99968742736672267</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C7" s="33">
-        <v>69</v>
-      </c>
-      <c r="D7" s="33">
-        <v>550</v>
-      </c>
-      <c r="E7" s="33">
-        <v>637</v>
-      </c>
-      <c r="F7" s="33">
-        <v>370</v>
-      </c>
-      <c r="G7" s="33">
-        <v>235</v>
-      </c>
-      <c r="H7" s="33">
-        <v>122</v>
-      </c>
-      <c r="I7" s="33">
-        <v>53</v>
-      </c>
-      <c r="J7" s="33">
-        <v>19</v>
-      </c>
-      <c r="K7" s="33">
-        <v>7</v>
-      </c>
-      <c r="L7" s="33">
-        <v>4</v>
-      </c>
-      <c r="M7" s="33">
-        <v>1</v>
-      </c>
-      <c r="N7" s="33">
-        <v>2</v>
-      </c>
-      <c r="O7" s="33">
-        <v>1</v>
-      </c>
-      <c r="P7" s="35">
-        <f>SUM(C7:M7)</f>
-        <v>2067</v>
-      </c>
-      <c r="Q7" s="37">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="R7" s="46">
-        <f>Q7/'CL quarter IBNR'!R9</f>
-        <v>2.7326597043240635</v>
-      </c>
-      <c r="S7" s="47">
-        <f t="shared" si="1"/>
-        <v>2070</v>
-      </c>
-      <c r="T7" s="46">
-        <f>S7/'CL quarter IBNR'!S9</f>
-        <v>1.0009197671576269</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="33">
-        <v>6</v>
-      </c>
-      <c r="D8" s="33">
-        <v>143</v>
-      </c>
-      <c r="E8" s="33">
-        <v>212</v>
-      </c>
-      <c r="F8" s="33">
-        <v>200</v>
-      </c>
-      <c r="G8" s="33">
-        <v>120</v>
-      </c>
-      <c r="H8" s="33">
-        <v>85</v>
-      </c>
-      <c r="I8" s="33">
-        <v>38</v>
-      </c>
-      <c r="J8" s="33">
-        <v>22</v>
-      </c>
-      <c r="K8" s="33">
-        <v>6</v>
-      </c>
-      <c r="L8" s="33">
-        <v>2</v>
-      </c>
-      <c r="M8" s="33">
-        <v>3</v>
-      </c>
-      <c r="N8" s="33">
-        <v>1</v>
-      </c>
-      <c r="O8" s="33">
-        <v>0</v>
-      </c>
-      <c r="P8" s="35">
-        <f>SUM(C8:L8)</f>
-        <v>834</v>
-      </c>
-      <c r="Q8" s="37">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="R8" s="46">
-        <f>Q8/'CL quarter IBNR'!R10</f>
-        <v>0.91394554019497987</v>
-      </c>
-      <c r="S8" s="47">
-        <f t="shared" si="1"/>
-        <v>838</v>
-      </c>
-      <c r="T8" s="46">
-        <f>S8/'CL quarter IBNR'!S10</f>
-        <v>0.99955076468106341</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="33">
-        <v>315</v>
-      </c>
-      <c r="D9" s="33">
-        <v>711</v>
-      </c>
-      <c r="E9" s="33">
-        <v>421</v>
-      </c>
-      <c r="F9" s="33">
-        <v>175</v>
-      </c>
-      <c r="G9" s="33">
-        <v>87</v>
-      </c>
-      <c r="H9" s="33">
-        <v>38</v>
-      </c>
-      <c r="I9" s="33">
-        <v>13</v>
-      </c>
-      <c r="J9" s="33">
-        <v>4</v>
-      </c>
-      <c r="K9" s="33">
-        <v>2</v>
-      </c>
-      <c r="L9" s="33">
-        <v>0</v>
-      </c>
-      <c r="M9" s="33">
-        <v>1</v>
-      </c>
-      <c r="N9" s="33">
-        <v>0</v>
-      </c>
-      <c r="O9" s="33">
-        <v>0</v>
-      </c>
-      <c r="P9" s="35">
-        <f>SUM(C9:K9)</f>
-        <v>1766</v>
-      </c>
-      <c r="Q9" s="37">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="R9" s="46">
-        <f>Q9/'CL quarter IBNR'!R11</f>
-        <v>0.35073642428243162</v>
-      </c>
-      <c r="S9" s="47">
-        <f t="shared" si="1"/>
-        <v>1767</v>
-      </c>
-      <c r="T9" s="46">
-        <f>S9/'CL quarter IBNR'!S11</f>
-        <v>0.99895347674726476</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C10" s="33">
-        <v>78</v>
-      </c>
-      <c r="D10" s="33">
-        <v>288</v>
-      </c>
-      <c r="E10" s="33">
-        <v>239</v>
-      </c>
-      <c r="F10" s="33">
-        <v>99</v>
-      </c>
-      <c r="G10" s="33">
-        <v>66</v>
-      </c>
-      <c r="H10" s="33">
-        <v>32</v>
-      </c>
-      <c r="I10" s="33">
-        <v>11</v>
-      </c>
-      <c r="J10" s="33">
-        <v>6</v>
-      </c>
-      <c r="K10" s="33">
-        <v>3</v>
-      </c>
-      <c r="L10" s="33">
-        <v>0</v>
-      </c>
-      <c r="M10" s="33">
-        <v>0</v>
-      </c>
-      <c r="N10" s="33">
-        <v>1</v>
-      </c>
-      <c r="O10" s="33">
-        <v>0</v>
-      </c>
-      <c r="P10" s="35">
-        <f>SUM(C10:J10)</f>
-        <v>819</v>
-      </c>
-      <c r="Q10" s="37">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="R10" s="46">
-        <f>Q10/'CL quarter IBNR'!R12</f>
-        <v>0.80148433987803935</v>
-      </c>
-      <c r="S10" s="47">
-        <f t="shared" si="1"/>
-        <v>823</v>
-      </c>
-      <c r="T10" s="46">
-        <f>S10/'CL quarter IBNR'!S12</f>
-        <v>0.99879763205006111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C11" s="33">
-        <v>85</v>
-      </c>
-      <c r="D11" s="33">
-        <v>499</v>
-      </c>
-      <c r="E11" s="33">
-        <v>555</v>
-      </c>
-      <c r="F11" s="33">
-        <v>350</v>
-      </c>
-      <c r="G11" s="33">
-        <v>226</v>
-      </c>
-      <c r="H11" s="33">
-        <v>113</v>
-      </c>
-      <c r="I11" s="33">
-        <v>65</v>
-      </c>
-      <c r="J11" s="33">
-        <v>23</v>
-      </c>
-      <c r="K11" s="33">
-        <v>15</v>
-      </c>
-      <c r="L11" s="33">
-        <v>4</v>
-      </c>
-      <c r="M11" s="33">
-        <v>3</v>
-      </c>
-      <c r="N11" s="33">
-        <v>0</v>
-      </c>
-      <c r="O11" s="33">
-        <v>0</v>
-      </c>
-      <c r="P11" s="35">
-        <f>SUM(C11:I11)</f>
-        <v>1893</v>
-      </c>
-      <c r="Q11" s="37">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="R11" s="46">
-        <f>Q11/'CL quarter IBNR'!R13</f>
-        <v>1.1426931626909136</v>
-      </c>
-      <c r="S11" s="47">
-        <f t="shared" si="1"/>
-        <v>1938</v>
-      </c>
-      <c r="T11" s="46">
-        <f>S11/'CL quarter IBNR'!S13</f>
-        <v>1.0029079930803571</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="33">
-        <v>18</v>
-      </c>
-      <c r="D12" s="33">
-        <v>144</v>
-      </c>
-      <c r="E12" s="33">
-        <v>262</v>
-      </c>
-      <c r="F12" s="33">
-        <v>222</v>
-      </c>
-      <c r="G12" s="33">
-        <v>150</v>
-      </c>
-      <c r="H12" s="33">
-        <v>84</v>
-      </c>
-      <c r="I12" s="33">
-        <v>35</v>
-      </c>
-      <c r="J12" s="33">
-        <v>31</v>
-      </c>
-      <c r="K12" s="33">
-        <v>9</v>
-      </c>
-      <c r="L12" s="33">
-        <v>2</v>
-      </c>
-      <c r="M12" s="33">
-        <v>2</v>
-      </c>
-      <c r="N12" s="33">
-        <v>3</v>
-      </c>
-      <c r="O12" s="33">
-        <v>0</v>
-      </c>
-      <c r="P12" s="35">
-        <f>SUM(C12:H12)</f>
-        <v>880</v>
-      </c>
-      <c r="Q12" s="37">
-        <f t="shared" si="0"/>
-        <v>82</v>
-      </c>
-      <c r="R12" s="46">
-        <f>Q12/'CL quarter IBNR'!R14</f>
-        <v>0.94846852036867513</v>
-      </c>
-      <c r="S12" s="47">
-        <f t="shared" si="1"/>
-        <v>962</v>
-      </c>
-      <c r="T12" s="46">
-        <f>S12/'CL quarter IBNR'!S14</f>
-        <v>0.99539020265444533</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="33">
-        <v>331</v>
-      </c>
-      <c r="D13" s="33">
-        <v>747</v>
-      </c>
-      <c r="E13" s="33">
-        <v>378</v>
-      </c>
-      <c r="F13" s="33">
-        <v>156</v>
-      </c>
-      <c r="G13" s="33">
-        <v>71</v>
-      </c>
-      <c r="H13" s="33">
-        <v>27</v>
-      </c>
-      <c r="I13" s="33">
-        <v>11</v>
-      </c>
-      <c r="J13" s="33">
-        <v>6</v>
-      </c>
-      <c r="K13" s="33">
-        <v>3</v>
-      </c>
-      <c r="L13" s="33">
-        <v>0</v>
-      </c>
-      <c r="M13" s="33">
-        <v>1</v>
-      </c>
-      <c r="N13" s="33">
-        <v>0</v>
-      </c>
-      <c r="O13" s="33">
-        <v>0</v>
-      </c>
-      <c r="P13" s="35">
-        <f>SUM(C13:G13)</f>
-        <v>1683</v>
-      </c>
-      <c r="Q13" s="37">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="R13" s="46">
-        <f>Q13/'CL quarter IBNR'!R15</f>
-        <v>0.821992088717725</v>
-      </c>
-      <c r="S13" s="47">
-        <f t="shared" si="1"/>
-        <v>1731</v>
-      </c>
-      <c r="T13" s="46">
-        <f>S13/'CL quarter IBNR'!S15</f>
-        <v>0.9940308061894203</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C14" s="33">
-        <v>67</v>
-      </c>
-      <c r="D14" s="33">
-        <v>272</v>
-      </c>
-      <c r="E14" s="33">
-        <v>182</v>
-      </c>
-      <c r="F14" s="33">
-        <v>125</v>
-      </c>
-      <c r="G14" s="33">
-        <v>57</v>
-      </c>
-      <c r="H14" s="33">
-        <v>27</v>
-      </c>
-      <c r="I14" s="33">
-        <v>11</v>
-      </c>
-      <c r="J14" s="33">
-        <v>2</v>
-      </c>
-      <c r="K14" s="33">
-        <v>2</v>
-      </c>
-      <c r="L14" s="33">
-        <v>2</v>
-      </c>
-      <c r="M14" s="33">
-        <v>1</v>
-      </c>
-      <c r="N14" s="33">
-        <v>0</v>
-      </c>
-      <c r="O14" s="33">
-        <v>0</v>
-      </c>
-      <c r="P14" s="35">
-        <f>SUM(C14:F14)</f>
-        <v>646</v>
-      </c>
-      <c r="Q14" s="37">
-        <f t="shared" si="0"/>
-        <v>102</v>
-      </c>
-      <c r="R14" s="46">
-        <f>Q14/'CL quarter IBNR'!R16</f>
-        <v>1.0412053869815348</v>
-      </c>
-      <c r="S14" s="47">
-        <f t="shared" si="1"/>
-        <v>748</v>
-      </c>
-      <c r="T14" s="46">
-        <f>S14/'CL quarter IBNR'!S16</f>
-        <v>1.0054258302577603</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C15" s="33">
-        <v>60</v>
-      </c>
-      <c r="D15" s="33">
-        <v>419</v>
-      </c>
-      <c r="E15" s="33">
-        <v>437</v>
-      </c>
-      <c r="F15" s="33">
-        <v>319</v>
-      </c>
-      <c r="G15" s="33">
-        <v>200</v>
-      </c>
-      <c r="H15" s="33">
-        <v>86</v>
-      </c>
-      <c r="I15" s="33">
-        <v>41</v>
-      </c>
-      <c r="J15" s="33">
-        <v>24</v>
-      </c>
-      <c r="K15" s="33">
-        <v>9</v>
-      </c>
-      <c r="L15" s="33">
-        <v>4</v>
-      </c>
-      <c r="M15" s="33">
-        <v>1</v>
-      </c>
-      <c r="N15" s="33">
-        <v>0</v>
-      </c>
-      <c r="O15" s="33">
-        <v>0</v>
-      </c>
-      <c r="P15" s="35">
-        <f>SUM(C15:E15)</f>
-        <v>916</v>
-      </c>
-      <c r="Q15" s="37">
-        <f t="shared" si="0"/>
-        <v>684</v>
-      </c>
-      <c r="R15" s="46">
-        <f>Q15/'CL quarter IBNR'!R17</f>
-        <v>1.0829998037980855</v>
-      </c>
-      <c r="S15" s="47">
-        <f t="shared" si="1"/>
-        <v>1600</v>
-      </c>
-      <c r="T15" s="46">
-        <f>S15/'CL quarter IBNR'!S17</f>
-        <v>1.0338728660174856</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C16" s="33">
-        <v>11</v>
-      </c>
-      <c r="D16" s="33">
-        <v>169</v>
-      </c>
-      <c r="E16" s="33">
-        <v>247</v>
-      </c>
-      <c r="F16" s="33">
-        <v>202</v>
-      </c>
-      <c r="G16" s="33">
-        <v>139</v>
-      </c>
-      <c r="H16" s="33">
-        <v>82</v>
-      </c>
-      <c r="I16" s="33">
-        <v>38</v>
-      </c>
-      <c r="J16" s="33">
-        <v>21</v>
-      </c>
-      <c r="K16" s="33">
-        <v>12</v>
-      </c>
-      <c r="L16" s="33">
-        <v>5</v>
-      </c>
-      <c r="M16" s="33">
-        <v>4</v>
-      </c>
-      <c r="N16" s="33">
-        <v>0</v>
-      </c>
-      <c r="O16" s="33">
-        <v>1</v>
-      </c>
-      <c r="P16" s="35">
-        <f>SUM(C16:D16)</f>
-        <v>180</v>
-      </c>
-      <c r="Q16" s="37">
-        <f t="shared" si="0"/>
-        <v>751</v>
-      </c>
-      <c r="R16" s="46">
-        <f>Q16/'CL quarter IBNR'!R18</f>
-        <v>0.88331438549843888</v>
-      </c>
-      <c r="S16" s="47">
-        <f t="shared" si="1"/>
-        <v>931</v>
-      </c>
-      <c r="T16" s="49">
-        <f>S16/'CL quarter IBNR'!S18</f>
-        <v>0.90370195063100045</v>
-      </c>
-      <c r="U16" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="V16" s="50"/>
-      <c r="W16" s="50"/>
-      <c r="X16" s="50"/>
-      <c r="Y16" s="50"/>
-      <c r="Z16" s="50"/>
-      <c r="AA16" s="50"/>
-      <c r="AB16" s="50"/>
-    </row>
-    <row r="17" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C17" s="33">
-        <v>323</v>
-      </c>
-      <c r="D17" s="33">
-        <v>713</v>
-      </c>
-      <c r="E17" s="33">
-        <v>344</v>
-      </c>
-      <c r="F17" s="33">
-        <v>160</v>
-      </c>
-      <c r="G17" s="33">
-        <v>66</v>
-      </c>
-      <c r="H17" s="33">
-        <v>29</v>
-      </c>
-      <c r="I17" s="33">
-        <v>9</v>
-      </c>
-      <c r="J17" s="33">
-        <v>5</v>
-      </c>
-      <c r="K17" s="33">
-        <v>1</v>
-      </c>
-      <c r="L17" s="33">
-        <v>1</v>
-      </c>
-      <c r="M17" s="33">
-        <v>1</v>
-      </c>
-      <c r="N17" s="33">
-        <v>0</v>
-      </c>
-      <c r="O17" s="33">
-        <v>0</v>
-      </c>
-      <c r="P17" s="35">
-        <f>SUM(C17)</f>
-        <v>323</v>
-      </c>
-      <c r="Q17" s="37">
-        <f t="shared" si="0"/>
-        <v>1329</v>
-      </c>
-      <c r="R17" s="46">
-        <f>Q17/'CL quarter IBNR'!R19</f>
-        <v>0.9228549772146637</v>
-      </c>
-      <c r="S17" s="47">
-        <f>SUM(C17:O17)</f>
-        <v>1652</v>
-      </c>
-      <c r="T17" s="49">
-        <f>S17/'CL quarter IBNR'!S19</f>
-        <v>0.93698797887969032</v>
-      </c>
-      <c r="U17" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="V17" s="50"/>
-      <c r="W17" s="50"/>
-      <c r="X17" s="50"/>
-      <c r="Y17" s="50"/>
-      <c r="Z17" s="50"/>
-      <c r="AA17" s="50"/>
-      <c r="AB17" s="50"/>
-    </row>
-    <row r="18" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="46"/>
-      <c r="S18" s="3"/>
-    </row>
-    <row r="19" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="37">
-        <f>SUM(Q2:Q17)</f>
-        <v>3055</v>
-      </c>
-      <c r="R19" s="46">
-        <f>Q19/'CL quarter IBNR'!R21</f>
-        <v>0.94893177562302988</v>
-      </c>
-      <c r="S19" s="3"/>
-      <c r="T19" s="48">
-        <f>AVERAGE(T2:T17)</f>
-        <v>0.9919236655966498</v>
-      </c>
-      <c r="U19" s="48" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="O20">
-        <f>IF('CL quarter IBNR'!O4&gt;0,O2/'CL quarter IBNR'!O4,"")</f>
-        <v>2.9668426791011231</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="O21">
-        <f>IF('CL quarter IBNR'!O5&gt;0,O3/'CL quarter IBNR'!O5,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="O22">
-        <f>IF('CL quarter IBNR'!O6&gt;0,O4/'CL quarter IBNR'!O6,"")</f>
-        <v>1.2933033401384271</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="O23">
-        <f>IF('CL quarter IBNR'!O7&gt;0,O5/'CL quarter IBNR'!O7,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="O24">
-        <f>IF('CL quarter IBNR'!O8&gt;0,O6/'CL quarter IBNR'!O8,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="M25">
-        <f>IF('CL quarter IBNR'!M9&gt;0,M7/'CL quarter IBNR'!M9,"")</f>
-        <v>1</v>
-      </c>
-      <c r="N25">
-        <f>IF('CL quarter IBNR'!N9&gt;0,N7/'CL quarter IBNR'!N9,"")</f>
-        <v>2.5864921736419957</v>
-      </c>
-      <c r="O25">
-        <f>IF('CL quarter IBNR'!O9&gt;0,O7/'CL quarter IBNR'!O9,"")</f>
-        <v>3.0808713582153486</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="L26">
-        <f>IF('CL quarter IBNR'!L10&gt;0,L8/'CL quarter IBNR'!L10,"")</f>
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <f>IF('CL quarter IBNR'!M10&gt;0,M8/'CL quarter IBNR'!M10,"")</f>
-        <v>1.2147876787041185</v>
-      </c>
-      <c r="N26">
-        <f>IF('CL quarter IBNR'!N10&gt;0,N8/'CL quarter IBNR'!N10,"")</f>
-        <v>0.79205560684596821</v>
-      </c>
-      <c r="O26">
-        <f>IF('CL quarter IBNR'!O10&gt;0,O8/'CL quarter IBNR'!O10,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="K27">
-        <f>IF('CL quarter IBNR'!K11&gt;0,K9/'CL quarter IBNR'!K11,"")</f>
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <f>IF('CL quarter IBNR'!L11&gt;0,L9/'CL quarter IBNR'!L11,"")</f>
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <f>IF('CL quarter IBNR'!M11&gt;0,M9/'CL quarter IBNR'!M11,"")</f>
-        <v>1.2883891040587243</v>
-      </c>
-      <c r="N27">
-        <f>IF('CL quarter IBNR'!N11&gt;0,N9/'CL quarter IBNR'!N11,"")</f>
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <f>IF('CL quarter IBNR'!O11&gt;0,O9/'CL quarter IBNR'!O11,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="J28">
-        <f>IF('CL quarter IBNR'!J12&gt;0,J10/'CL quarter IBNR'!J12,"")</f>
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <f>IF('CL quarter IBNR'!K12&gt;0,K10/'CL quarter IBNR'!K12,"")</f>
-        <v>1.3451585589427733</v>
-      </c>
-      <c r="L28">
-        <f>IF('CL quarter IBNR'!L12&gt;0,L10/'CL quarter IBNR'!L12,"")</f>
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <f>IF('CL quarter IBNR'!M12&gt;0,M10/'CL quarter IBNR'!M12,"")</f>
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <f>IF('CL quarter IBNR'!N12&gt;0,N10/'CL quarter IBNR'!N12,"")</f>
-        <v>2.2613388295135302</v>
-      </c>
-      <c r="O28">
-        <f>IF('CL quarter IBNR'!O12&gt;0,O10/'CL quarter IBNR'!O12,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="I29">
-        <f>IF('CL quarter IBNR'!I13&gt;0,I11/'CL quarter IBNR'!I13,"")</f>
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <f>IF('CL quarter IBNR'!J13&gt;0,J11/'CL quarter IBNR'!J13,"")</f>
-        <v>1.0068842832391796</v>
-      </c>
-      <c r="K29">
-        <f>IF('CL quarter IBNR'!K13&gt;0,K11/'CL quarter IBNR'!K13,"")</f>
-        <v>1.5462815280376265</v>
-      </c>
-      <c r="L29">
-        <f>IF('CL quarter IBNR'!L13&gt;0,L11/'CL quarter IBNR'!L13,"")</f>
-        <v>0.97772938171642465</v>
-      </c>
-      <c r="M29">
-        <f>IF('CL quarter IBNR'!M13&gt;0,M11/'CL quarter IBNR'!M13,"")</f>
-        <v>1.7438656009336477</v>
-      </c>
-      <c r="N29">
-        <f>IF('CL quarter IBNR'!N13&gt;0,N11/'CL quarter IBNR'!N13,"")</f>
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <f>IF('CL quarter IBNR'!O13&gt;0,O11/'CL quarter IBNR'!O13,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="H30">
-        <f>IF('CL quarter IBNR'!H14&gt;0,H12/'CL quarter IBNR'!H14,"")</f>
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <f>IF('CL quarter IBNR'!I14&gt;0,I12/'CL quarter IBNR'!I14,"")</f>
-        <v>0.78796791443850267</v>
-      </c>
-      <c r="J30">
-        <f>IF('CL quarter IBNR'!J14&gt;0,J12/'CL quarter IBNR'!J14,"")</f>
-        <v>1.4998800207273739</v>
-      </c>
-      <c r="K30">
-        <f>IF('CL quarter IBNR'!K14&gt;0,K12/'CL quarter IBNR'!K14,"")</f>
-        <v>0.83559319827774325</v>
-      </c>
-      <c r="L30">
-        <f>IF('CL quarter IBNR'!L14&gt;0,L12/'CL quarter IBNR'!L14,"")</f>
-        <v>0.36018160361122081</v>
-      </c>
-      <c r="M30">
-        <f>IF('CL quarter IBNR'!M14&gt;0,M12/'CL quarter IBNR'!M14,"")</f>
-        <v>0.70253274568912394</v>
-      </c>
-      <c r="N30">
-        <f>IF('CL quarter IBNR'!N14&gt;0,N12/'CL quarter IBNR'!N14,"")</f>
-        <v>2.0612676148007969</v>
-      </c>
-      <c r="O30">
-        <f>IF('CL quarter IBNR'!O14&gt;0,O12/'CL quarter IBNR'!O14,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="G31">
-        <f>IF('CL quarter IBNR'!G15&gt;0,G13/'CL quarter IBNR'!G15,"")</f>
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <f>IF('CL quarter IBNR'!H15&gt;0,H13/'CL quarter IBNR'!H15,"")</f>
-        <v>0.76274284167061712</v>
-      </c>
-      <c r="I31">
-        <f>IF('CL quarter IBNR'!I15&gt;0,I13/'CL quarter IBNR'!I15,"")</f>
-        <v>0.84651791751184391</v>
-      </c>
-      <c r="J31">
-        <f>IF('CL quarter IBNR'!J15&gt;0,J13/'CL quarter IBNR'!J15,"")</f>
-        <v>1.2912821843532873</v>
-      </c>
-      <c r="K31">
-        <f>IF('CL quarter IBNR'!K15&gt;0,K13/'CL quarter IBNR'!K15,"")</f>
-        <v>1.1772466181809889</v>
-      </c>
-      <c r="L31">
-        <f>IF('CL quarter IBNR'!L15&gt;0,L13/'CL quarter IBNR'!L15,"")</f>
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <f>IF('CL quarter IBNR'!M15&gt;0,M13/'CL quarter IBNR'!M15,"")</f>
-        <v>1.3087030245727789</v>
-      </c>
-      <c r="N31">
-        <f>IF('CL quarter IBNR'!N15&gt;0,N13/'CL quarter IBNR'!N15,"")</f>
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <f>IF('CL quarter IBNR'!O15&gt;0,O13/'CL quarter IBNR'!O15,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="F32">
-        <f>IF('CL quarter IBNR'!F16&gt;0,F14/'CL quarter IBNR'!F16,"")</f>
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <f>IF('CL quarter IBNR'!G16&gt;0,G14/'CL quarter IBNR'!G16,"")</f>
-        <v>1.0737425404944598</v>
-      </c>
-      <c r="H32">
-        <f>IF('CL quarter IBNR'!H16&gt;0,H14/'CL quarter IBNR'!H16,"")</f>
-        <v>1.002697921273771</v>
-      </c>
-      <c r="I32">
-        <f>IF('CL quarter IBNR'!I16&gt;0,I14/'CL quarter IBNR'!I16,"")</f>
-        <v>1.0998253552433142</v>
-      </c>
-      <c r="J32">
-        <f>IF('CL quarter IBNR'!J16&gt;0,J14/'CL quarter IBNR'!J16,"")</f>
-        <v>0.58087888038891611</v>
-      </c>
-      <c r="K32">
-        <f>IF('CL quarter IBNR'!K16&gt;0,K14/'CL quarter IBNR'!K16,"")</f>
-        <v>0.99323723435758382</v>
-      </c>
-      <c r="L32">
-        <f>IF('CL quarter IBNR'!L16&gt;0,L14/'CL quarter IBNR'!L16,"")</f>
-        <v>1.7016344104181462</v>
-      </c>
-      <c r="M32">
-        <f>IF('CL quarter IBNR'!M16&gt;0,M14/'CL quarter IBNR'!M16,"")</f>
-        <v>1.4592935942859477</v>
-      </c>
-      <c r="N32">
-        <f>IF('CL quarter IBNR'!N16&gt;0,N14/'CL quarter IBNR'!N16,"")</f>
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <f>IF('CL quarter IBNR'!O16&gt;0,O14/'CL quarter IBNR'!O16,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="E33">
-        <f>IF('CL quarter IBNR'!E17&gt;0,E15/'CL quarter IBNR'!E17,"")</f>
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <f>IF('CL quarter IBNR'!F17&gt;0,F15/'CL quarter IBNR'!F17,"")</f>
-        <v>1.103938095386098</v>
-      </c>
-      <c r="G33">
-        <f>IF('CL quarter IBNR'!G17&gt;0,G15/'CL quarter IBNR'!G17,"")</f>
-        <v>1.1161371567478844</v>
-      </c>
-      <c r="H33">
-        <f>IF('CL quarter IBNR'!H17&gt;0,H15/'CL quarter IBNR'!H17,"")</f>
-        <v>0.98677718952480331</v>
-      </c>
-      <c r="I33">
-        <f>IF('CL quarter IBNR'!I17&gt;0,I15/'CL quarter IBNR'!I17,"")</f>
-        <v>0.91654745771219426</v>
-      </c>
-      <c r="J33">
-        <f>IF('CL quarter IBNR'!J17&gt;0,J15/'CL quarter IBNR'!J17,"")</f>
-        <v>1.3119062541226449</v>
-      </c>
-      <c r="K33">
-        <f>IF('CL quarter IBNR'!K17&gt;0,K15/'CL quarter IBNR'!K17,"")</f>
-        <v>1.1584562929376643</v>
-      </c>
-      <c r="L33">
-        <f>IF('CL quarter IBNR'!L17&gt;0,L15/'CL quarter IBNR'!L17,"")</f>
-        <v>1.2208393000689959</v>
-      </c>
-      <c r="M33">
-        <f>IF('CL quarter IBNR'!M17&gt;0,M15/'CL quarter IBNR'!M17,"")</f>
-        <v>0.72582444572435922</v>
-      </c>
-      <c r="N33">
-        <f>IF('CL quarter IBNR'!N17&gt;0,N15/'CL quarter IBNR'!N17,"")</f>
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <f>IF('CL quarter IBNR'!O17&gt;0,O15/'CL quarter IBNR'!O17,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D34">
-        <f>IF('CL quarter IBNR'!D18&gt;0,D16/'CL quarter IBNR'!D18,"")</f>
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <f>IF('CL quarter IBNR'!E18&gt;0,E16/'CL quarter IBNR'!E18,"")</f>
-        <v>0.90258467023172895</v>
-      </c>
-      <c r="F34">
-        <f>IF('CL quarter IBNR'!F18&gt;0,F16/'CL quarter IBNR'!F18,"")</f>
-        <v>0.85337454920144262</v>
-      </c>
-      <c r="G34">
-        <f>IF('CL quarter IBNR'!G18&gt;0,G16/'CL quarter IBNR'!G18,"")</f>
-        <v>0.87140672782874595</v>
-      </c>
-      <c r="H34">
-        <f>IF('CL quarter IBNR'!H18&gt;0,H16/'CL quarter IBNR'!H18,"")</f>
-        <v>0.93001383125864412</v>
-      </c>
-      <c r="I34">
-        <f>IF('CL quarter IBNR'!I18&gt;0,I16/'CL quarter IBNR'!I18,"")</f>
-        <v>0.80256706738857775</v>
-      </c>
-      <c r="J34">
-        <f>IF('CL quarter IBNR'!J18&gt;0,J16/'CL quarter IBNR'!J18,"")</f>
-        <v>0.95317220581476914</v>
-      </c>
-      <c r="K34">
-        <f>IF('CL quarter IBNR'!K18&gt;0,K16/'CL quarter IBNR'!K18,"")</f>
-        <v>1.0451794971003978</v>
-      </c>
-      <c r="L34">
-        <f>IF('CL quarter IBNR'!L18&gt;0,L16/'CL quarter IBNR'!L18,"")</f>
-        <v>0.84473168605647708</v>
-      </c>
-      <c r="M34">
-        <f>IF('CL quarter IBNR'!M18&gt;0,M16/'CL quarter IBNR'!M18,"")</f>
-        <v>1.3181165608145391</v>
-      </c>
-      <c r="N34">
-        <f>IF('CL quarter IBNR'!N18&gt;0,N16/'CL quarter IBNR'!N18,"")</f>
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <f>IF('CL quarter IBNR'!O18&gt;0,O16/'CL quarter IBNR'!O18,"")</f>
-        <v>1.262629706710547</v>
-      </c>
-    </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C35">
-        <f>IF('CL quarter IBNR'!C19&gt;0,C17/'CL quarter IBNR'!C19,"")</f>
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <f>IF('CL quarter IBNR'!D19&gt;0,D17/'CL quarter IBNR'!D19,"")</f>
-        <v>0.96271602416013147</v>
-      </c>
-      <c r="E35">
-        <f>IF('CL quarter IBNR'!E19&gt;0,E17/'CL quarter IBNR'!E19,"")</f>
-        <v>0.88550883850993689</v>
-      </c>
-      <c r="F35">
-        <f>IF('CL quarter IBNR'!F19&gt;0,F17/'CL quarter IBNR'!F19,"")</f>
-        <v>0.90231815247951463</v>
-      </c>
-      <c r="G35">
-        <f>IF('CL quarter IBNR'!G19&gt;0,G17/'CL quarter IBNR'!G19,"")</f>
-        <v>0.88516273382417754</v>
-      </c>
-      <c r="H35">
-        <f>IF('CL quarter IBNR'!H19&gt;0,H17/'CL quarter IBNR'!H19,"")</f>
-        <v>0.80915845099946604</v>
-      </c>
-      <c r="I35">
-        <f>IF('CL quarter IBNR'!I19&gt;0,I17/'CL quarter IBNR'!I19,"")</f>
-        <v>0.68408045025044806</v>
-      </c>
-      <c r="J35">
-        <f>IF('CL quarter IBNR'!J19&gt;0,J17/'CL quarter IBNR'!J19,"")</f>
-        <v>1.0628234137044317</v>
-      </c>
-      <c r="K35">
-        <f>IF('CL quarter IBNR'!K19&gt;0,K17/'CL quarter IBNR'!K19,"")</f>
-        <v>0.38758538905537743</v>
-      </c>
-      <c r="L35">
-        <f>IF('CL quarter IBNR'!L19&gt;0,L17/'CL quarter IBNR'!L19,"")</f>
-        <v>0.70757195501286685</v>
-      </c>
-      <c r="M35">
-        <f>IF('CL quarter IBNR'!M19&gt;0,M17/'CL quarter IBNR'!M19,"")</f>
-        <v>1.2925945076505831</v>
-      </c>
-      <c r="N35">
-        <f>IF('CL quarter IBNR'!N19&gt;0,N17/'CL quarter IBNR'!N19,"")</f>
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <f>IF('CL quarter IBNR'!O19&gt;0,O17/'CL quarter IBNR'!O19,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C20:O35">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/static/output/Excel/LRcountsxl2-sol3.xlsx
+++ b/static/output/Excel/LRcountsxl2-sol3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adolphus\Documents\GitHub\ACTL20004-ACTL90021-Tutorials\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bavanzi/Dropbox/Mac (3)/Documents/GitHub/ACTL20004-ACTL90021-Tutorials/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DD77B7-65E7-4A97-BB72-9D0A2F6A2BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17279DF1-FABA-9E40-89FA-B12FB71E5253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2300" yWindow="800" windowWidth="23880" windowHeight="22480" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -42,15 +42,42 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={49782FAA-CB5F-4AD8-9F78-A825FBB60185}</author>
+    <author>tc={1CC8D7CF-DEC3-7142-95CA-D9630CB0251D}</author>
+    <author>tc={0932442E-06BB-EC44-9AB7-34F29338293D}</author>
   </authors>
   <commentList>
-    <comment ref="N4" authorId="0" shapeId="0" xr:uid="{49782FAA-CB5F-4AD8-9F78-A825FBB60185}">
+    <comment ref="N4" authorId="0" shapeId="0" xr:uid="{1CC8D7CF-DEC3-7142-95CA-D9630CB0251D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Here, the projection is less than the actual claims we had. To be conservative, we choose the larger one.</t>
+      </text>
+    </comment>
+    <comment ref="N6" authorId="1" shapeId="0" xr:uid="{0932442E-06BB-EC44-9AB7-34F29338293D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Same comment</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={DC35D0F1-C677-4741-A963-F0107669627A}</author>
+  </authors>
+  <commentList>
+    <comment ref="O4" authorId="0" shapeId="0" xr:uid="{DC35D0F1-C677-4741-A963-F0107669627A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Manual adjustment to match the actual data</t>
       </text>
     </comment>
   </commentList>
@@ -80,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
   <si>
     <t>Period</t>
   </si>
@@ -253,6 +280,9 @@
   <si>
     <t>12 &amp; later</t>
   </si>
+  <si>
+    <t>Note I have chosen to fit each time from one before blue, to the last amount that is more than 1 with three decimals.</t>
+  </si>
 </sst>
 </file>
 
@@ -263,7 +293,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,8 +388,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -411,6 +447,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,7 +508,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -519,10 +561,12 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -540,7 +584,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1255,7 +1299,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1843,7 +1887,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2022,19 +2066,19 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="1">
-                  <c:v>9.9318223696333155E-2</c:v>
+                  <c:v>9.9226091763405203E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19803104143210479</c:v>
+                  <c:v>0.19791461735195751</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.9899780980062941E-2</c:v>
+                  <c:v>9.9841049076097754E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.20413856188236776</c:v>
+                  <c:v>0.20401854714064915</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10225287410332369</c:v>
+                  <c:v>0.10219275879653238</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.19926732864166585</c:v>
@@ -2181,52 +2225,52 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="1">
-                  <c:v>9.9318223696333155E-2</c:v>
+                  <c:v>9.9410355629261107E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19803104143210479</c:v>
+                  <c:v>0.19803017006429433</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.9899780980062941E-2</c:v>
+                  <c:v>9.9940393403536665E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.20413856188236776</c:v>
+                  <c:v>0.2041376636405042</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10225287410332369</c:v>
+                  <c:v>0.10225242417455305</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.19938454845974149</c:v>
+                  <c:v>0.19938367113628669</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.9468496096252787E-2</c:v>
+                  <c:v>9.9467919473011646E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.20509214971465525</c:v>
+                  <c:v>0.20509149232464571</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.9363121731048984E-2</c:v>
+                  <c:v>9.9364741660844316E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.19914166407258768</c:v>
+                  <c:v>0.19916009116736999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.8380721970887541E-2</c:v>
+                  <c:v>9.8414055048444582E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.21918717054413117</c:v>
+                  <c:v>0.21926143492041228</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.10162103156364463</c:v>
+                  <c:v>0.10165546251371979</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.16269464544472143</c:v>
+                  <c:v>0.16274976918366216</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.1855113650141081E-2</c:v>
+                  <c:v>5.18726830528696E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.43782086630014561</c:v>
+                  <c:v>0.43796920752594781</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2459,7 +2503,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2797,19 +2841,19 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="1">
-                  <c:v>9.9349277561634794E-2</c:v>
+                  <c:v>9.9410355629261107E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.19804406704747146</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.9917863481779473E-2</c:v>
+                  <c:v>9.9940393403536665E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.20404535134191928</c:v>
+                  <c:v>0.20404072694569139</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10222471144377437</c:v>
+                  <c:v>0.10220095110648901</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.19937316413147535</c:v>
@@ -2818,10 +2862,10 @@
                   <c:v>9.9854291137689941E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.20477554339577092</c:v>
+                  <c:v>0.20474235186236217</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.9240122854015511E-2</c:v>
+                  <c:v>9.9077114768141572E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.19987387778650234</c:v>
@@ -2830,10 +2874,10 @@
                   <c:v>0.1039087369575771</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.20696395562157352</c:v>
+                  <c:v>0.20691913639022155</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.6181432576190065E-2</c:v>
+                  <c:v>9.6172964654499551E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.18221818695261624</c:v>
@@ -2842,7 +2886,7 @@
                   <c:v>0.11846905663592197</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.20099136555970062</c:v>
+                  <c:v>0.20094783972697425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5465,6 +5509,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Benjamin Avanzi" id="{679CD76F-C179-9D43-A605-8BCAD7F4457B}" userId="Benjamin Avanzi" providerId="None"/>
   <person displayName="Ho Ming Lee" id="{AE1747F7-33D9-4667-86CC-B4BF91D86900}" userId="S::homingl@student.unimelb.edu.au::bfa24eb6-4300-4edd-94be-5063054271f5" providerId="AD"/>
 </personList>
 </file>
@@ -5732,8 +5777,19 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="N4" dT="2024-07-07T17:45:43.52" personId="{AE1747F7-33D9-4667-86CC-B4BF91D86900}" id="{49782FAA-CB5F-4AD8-9F78-A825FBB60185}">
+  <threadedComment ref="N4" dT="2024-07-07T17:45:43.52" personId="{AE1747F7-33D9-4667-86CC-B4BF91D86900}" id="{1CC8D7CF-DEC3-7142-95CA-D9630CB0251D}">
     <text>Here, the projection is less than the actual claims we had. To be conservative, we choose the larger one.</text>
+  </threadedComment>
+  <threadedComment ref="N6" dT="2024-08-15T22:48:26.71" personId="{679CD76F-C179-9D43-A605-8BCAD7F4457B}" id="{0932442E-06BB-EC44-9AB7-34F29338293D}">
+    <text>Same comment</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="O4" dT="2024-08-15T22:53:52.76" personId="{679CD76F-C179-9D43-A605-8BCAD7F4457B}" id="{DC35D0F1-C677-4741-A963-F0107669627A}">
+    <text>Manual adjustment to match the actual data</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -5746,9 +5802,9 @@
       <selection activeCell="L18" sqref="L18:AB35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>10854</v>
       </c>
@@ -5801,7 +5857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10166</v>
       </c>
@@ -5851,7 +5907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10066</v>
       </c>
@@ -5898,7 +5954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10352</v>
       </c>
@@ -5942,7 +5998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>9805</v>
       </c>
@@ -5983,7 +6039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10373</v>
       </c>
@@ -6021,7 +6077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>8396</v>
       </c>
@@ -6056,7 +6112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8638</v>
       </c>
@@ -6088,7 +6144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8303</v>
       </c>
@@ -6117,7 +6173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9668</v>
       </c>
@@ -6143,7 +6199,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9301</v>
       </c>
@@ -6166,7 +6222,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8414</v>
       </c>
@@ -6186,7 +6242,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>7735</v>
       </c>
@@ -6203,7 +6259,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>8493</v>
       </c>
@@ -6217,7 +6273,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>8696</v>
       </c>
@@ -6228,7 +6284,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>8772</v>
       </c>
@@ -6245,19 +6301,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFCE99A-CC1A-4781-B2C6-ABF038B08394}">
   <dimension ref="A1:R77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53:H53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="4"/>
-    <col min="2" max="2" width="16.85546875" style="4" customWidth="1"/>
-    <col min="3" max="18" width="9.140625" style="4" customWidth="1"/>
-    <col min="19" max="16384" width="11.42578125" style="4"/>
+    <col min="1" max="1" width="11.5" style="4"/>
+    <col min="2" max="2" width="16.83203125" style="4" customWidth="1"/>
+    <col min="3" max="18" width="9.1640625" style="4" customWidth="1"/>
+    <col min="19" max="16384" width="11.5" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6277,7 +6333,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -6331,7 +6387,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -6347,7 +6403,7 @@
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
     </row>
-    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>0</v>
       </c>
@@ -6414,7 +6470,7 @@
       </c>
       <c r="R4" s="11"/>
     </row>
-    <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -6478,7 +6534,7 @@
       <c r="Q5" s="10"/>
       <c r="R5" s="11"/>
     </row>
-    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -6539,7 +6595,7 @@
       <c r="Q6" s="10"/>
       <c r="R6" s="11"/>
     </row>
-    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>3</v>
       </c>
@@ -6597,7 +6653,7 @@
       <c r="Q7" s="10"/>
       <c r="R7" s="11"/>
     </row>
-    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -6652,7 +6708,7 @@
       <c r="Q8" s="10"/>
       <c r="R8" s="11"/>
     </row>
-    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>5</v>
       </c>
@@ -6704,7 +6760,7 @@
       <c r="Q9" s="10"/>
       <c r="R9" s="11"/>
     </row>
-    <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>6</v>
       </c>
@@ -6753,7 +6809,7 @@
       <c r="Q10" s="10"/>
       <c r="R10" s="11"/>
     </row>
-    <row r="11" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>7</v>
       </c>
@@ -6799,7 +6855,7 @@
       <c r="Q11" s="10"/>
       <c r="R11" s="11"/>
     </row>
-    <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>8</v>
       </c>
@@ -6842,7 +6898,7 @@
       <c r="Q12" s="10"/>
       <c r="R12" s="11"/>
     </row>
-    <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>9</v>
       </c>
@@ -6882,7 +6938,7 @@
       <c r="Q13" s="10"/>
       <c r="R13" s="11"/>
     </row>
-    <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>10</v>
       </c>
@@ -6919,7 +6975,7 @@
       <c r="Q14" s="10"/>
       <c r="R14" s="11"/>
     </row>
-    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>11</v>
       </c>
@@ -6953,7 +7009,7 @@
       <c r="Q15" s="10"/>
       <c r="R15" s="11"/>
     </row>
-    <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>12</v>
       </c>
@@ -6984,7 +7040,7 @@
       <c r="Q16" s="10"/>
       <c r="R16" s="11"/>
     </row>
-    <row r="17" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>13</v>
       </c>
@@ -7012,7 +7068,7 @@
       <c r="Q17" s="10"/>
       <c r="R17" s="11"/>
     </row>
-    <row r="18" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>14</v>
       </c>
@@ -7037,7 +7093,7 @@
       <c r="Q18" s="10"/>
       <c r="R18" s="11"/>
     </row>
-    <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>15</v>
       </c>
@@ -7059,7 +7115,7 @@
       <c r="Q19" s="10"/>
       <c r="R19" s="11"/>
     </row>
-    <row r="20" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -7074,7 +7130,7 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -7094,7 +7150,7 @@
       <c r="Q21" s="12"/>
       <c r="R21" s="12"/>
     </row>
-    <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>3</v>
       </c>
@@ -7111,7 +7167,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -7126,7 +7182,7 @@
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
     </row>
-    <row r="24" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>4</v>
       </c>
@@ -7195,7 +7251,7 @@
       </c>
       <c r="R24" s="13"/>
     </row>
-    <row r="25" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="14"/>
@@ -7215,7 +7271,7 @@
       <c r="Q25" s="15"/>
       <c r="R25" s="15"/>
     </row>
-    <row r="26" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="B26" s="7" t="s">
         <v>6</v>
       </c>
@@ -7281,10 +7337,10 @@
       </c>
       <c r="R26" s="16"/>
     </row>
-    <row r="27" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="B27" s="7"/>
     </row>
-    <row r="28" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
         <v>7</v>
       </c>
@@ -7350,7 +7406,7 @@
       </c>
       <c r="R28" s="16"/>
     </row>
-    <row r="30" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>8</v>
       </c>
@@ -7400,13 +7456,13 @@
       <c r="M30" s="14"/>
       <c r="N30" s="14"/>
     </row>
-    <row r="31" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="O31" s="14"/>
       <c r="P31" s="14"/>
       <c r="Q31" s="14"/>
       <c r="R31" s="14"/>
     </row>
-    <row r="32" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
       <c r="B32" s="7" t="s">
         <v>6</v>
@@ -7458,7 +7514,7 @@
       <c r="Q32" s="15"/>
       <c r="R32" s="15"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B34" s="4" t="s">
         <v>7</v>
       </c>
@@ -7503,7 +7559,7 @@
         <v>1.0007552870090635</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>9</v>
       </c>
@@ -7563,7 +7619,7 @@
         <v>1.0002440810349036</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="14"/>
@@ -7580,7 +7636,7 @@
       <c r="N37" s="14"/>
       <c r="O37" s="15"/>
     </row>
-    <row r="38" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
         <v>6</v>
       </c>
@@ -7637,12 +7693,12 @@
         <v>1.0002440810349036</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="P39" s="14"/>
       <c r="Q39" s="15"/>
       <c r="R39" s="15"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B40" s="4" t="s">
         <v>7</v>
       </c>
@@ -7702,15 +7758,15 @@
       <c r="Q40" s="15"/>
       <c r="R40" s="15"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R41" s="15"/>
     </row>
-    <row r="42" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="P42" s="15"/>
       <c r="Q42" s="15"/>
       <c r="R42" s="14"/>
     </row>
-    <row r="43" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="21"/>
@@ -7729,7 +7785,7 @@
       <c r="P43" s="14"/>
       <c r="Q43" s="14"/>
     </row>
-    <row r="44" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>10</v>
       </c>
@@ -7799,7 +7855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>11</v>
       </c>
@@ -7821,7 +7877,7 @@
       <c r="Q45"/>
       <c r="R45"/>
     </row>
-    <row r="46" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -7841,7 +7897,7 @@
       <c r="Q46"/>
       <c r="R46"/>
     </row>
-    <row r="47" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>10</v>
       </c>
@@ -7868,27 +7924,27 @@
       </c>
       <c r="H47" s="24">
         <f>H56</f>
-        <v>1.0223716965046787</v>
+        <v>1.0226234675847377</v>
       </c>
       <c r="I47" s="24">
         <f t="shared" ref="I47:L47" si="2">I56</f>
-        <v>1.0096522002343333</v>
+        <v>1.0097291642267632</v>
       </c>
       <c r="J47" s="24">
         <f t="shared" si="2"/>
-        <v>1.004164412356666</v>
+        <v>1.004184002129505</v>
       </c>
       <c r="K47" s="24">
         <f t="shared" si="2"/>
-        <v>1.0017967230118854</v>
+        <v>1.0017993193877379</v>
       </c>
       <c r="L47" s="24">
         <f t="shared" si="2"/>
-        <v>1.0007751906643614</v>
+        <v>1.0007737926891238</v>
       </c>
       <c r="M47" s="25">
         <f>B63</f>
-        <v>1.0005882540749389</v>
+        <v>1.000583851328835</v>
       </c>
       <c r="N47" s="14"/>
       <c r="O47" s="14"/>
@@ -7896,7 +7952,7 @@
       <c r="Q47" s="14"/>
       <c r="R47" s="14"/>
     </row>
-    <row r="48" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>12</v>
       </c>
@@ -7918,7 +7974,7 @@
       <c r="Q48"/>
       <c r="R48"/>
     </row>
-    <row r="49" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -7938,7 +7994,7 @@
       <c r="Q49"/>
       <c r="R49"/>
     </row>
-    <row r="50" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
@@ -7958,7 +8014,7 @@
       <c r="Q50"/>
       <c r="R50"/>
     </row>
-    <row r="51" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>13</v>
       </c>
@@ -7980,7 +8036,7 @@
       <c r="Q51"/>
       <c r="R51"/>
     </row>
-    <row r="52" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -8002,7 +8058,7 @@
       <c r="Q52"/>
       <c r="R52"/>
     </row>
-    <row r="53" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>15</v>
       </c>
@@ -8012,10 +8068,13 @@
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="10">
-        <f t="shared" ref="G53" si="3">LN(G44-1)</f>
+        <f t="shared" ref="G53:H53" si="3">LN(G44-1)</f>
         <v>-2.9216545063407944</v>
       </c>
-      <c r="H53" s="10"/>
+      <c r="H53" s="10">
+        <f t="shared" si="3"/>
+        <v>-3.7620531760993106</v>
+      </c>
       <c r="I53" s="10">
         <f>LN(I44-1)</f>
         <v>-4.7066559478365573</v>
@@ -8039,7 +8098,7 @@
       <c r="Q53"/>
       <c r="R53"/>
     </row>
-    <row r="54" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -8061,13 +8120,13 @@
       <c r="Q54"/>
       <c r="R54"/>
     </row>
-    <row r="55" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B55" s="7">
         <f>SLOPE(G53:L53,G2:L2)</f>
-        <v>-0.84061071809183696</v>
+        <v>-0.84385976025221632</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -8077,27 +8136,27 @@
       </c>
       <c r="G55" s="7">
         <f>_xlfn.FORECAST.LINEAR(G2,$G$53:$L$53,$G$2:$L$2)</f>
-        <v>-2.9593479498785662</v>
+        <v>-2.9449077624991022</v>
       </c>
       <c r="H55" s="7">
         <f t="shared" ref="H55:L55" si="5">_xlfn.FORECAST.LINEAR(H2,$G$53:$L$53,$G$2:$L$2)</f>
-        <v>-3.7999586679704027</v>
+        <v>-3.7887675227513187</v>
       </c>
       <c r="I55" s="7">
         <f t="shared" si="5"/>
-        <v>-4.6405693860622401</v>
+        <v>-4.6326272830035347</v>
       </c>
       <c r="J55" s="7">
         <f t="shared" si="5"/>
-        <v>-5.4811801041540775</v>
+        <v>-5.4764870432557515</v>
       </c>
       <c r="K55" s="7">
         <f t="shared" si="5"/>
-        <v>-6.321790822245914</v>
+        <v>-6.3203468035079675</v>
       </c>
       <c r="L55" s="7">
         <f t="shared" si="5"/>
-        <v>-7.1624015403377506</v>
+        <v>-7.1642065637601835</v>
       </c>
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
@@ -8106,13 +8165,13 @@
       <c r="Q55"/>
       <c r="R55"/>
     </row>
-    <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B56" s="7">
         <f>INTERCEPT(G53:L53,G2:L2)</f>
-        <v>0.40309492248878165</v>
+        <v>0.43053127850976303</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -8122,27 +8181,27 @@
       </c>
       <c r="G56" s="26">
         <f t="shared" ref="G56:L56" si="6">EXP(G55)+1</f>
-        <v>1.0518527167222635</v>
+        <v>1.0526069119225829</v>
       </c>
       <c r="H56" s="26">
         <f t="shared" si="6"/>
-        <v>1.0223716965046787</v>
+        <v>1.0226234675847377</v>
       </c>
       <c r="I56" s="26">
         <f t="shared" si="6"/>
-        <v>1.0096522002343333</v>
+        <v>1.0097291642267632</v>
       </c>
       <c r="J56" s="26">
         <f t="shared" si="6"/>
-        <v>1.004164412356666</v>
+        <v>1.004184002129505</v>
       </c>
       <c r="K56" s="26">
         <f t="shared" si="6"/>
-        <v>1.0017967230118854</v>
+        <v>1.0017993193877379</v>
       </c>
       <c r="L56" s="26">
         <f t="shared" si="6"/>
-        <v>1.0007751906643614</v>
+        <v>1.0007737926891238</v>
       </c>
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
@@ -8151,7 +8210,7 @@
       <c r="Q56"/>
       <c r="R56"/>
     </row>
-    <row r="57" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -8171,7 +8230,7 @@
       <c r="Q57"/>
       <c r="R57"/>
     </row>
-    <row r="58" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -8191,7 +8250,7 @@
       <c r="Q58"/>
       <c r="R58"/>
     </row>
-    <row r="59" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>21</v>
       </c>
@@ -8213,13 +8272,13 @@
       <c r="Q59"/>
       <c r="R59"/>
     </row>
-    <row r="60" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B60" s="7">
         <f>EXP(B56)</f>
-        <v>1.4964489315790048</v>
+        <v>1.5380744524236765</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -8238,13 +8297,13 @@
       <c r="Q60"/>
       <c r="R60"/>
     </row>
-    <row r="61" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B61" s="7">
         <f>EXP(B55)</f>
-        <v>0.43144695049455717</v>
+        <v>0.43004743593447631</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -8263,13 +8322,13 @@
       <c r="Q61"/>
       <c r="R61"/>
     </row>
-    <row r="62" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B62" s="27">
         <f>B60*B61^(10)/(1-B61)</f>
-        <v>5.8825407493896798E-4</v>
+        <v>5.8385132883501795E-4</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -8288,13 +8347,13 @@
       <c r="Q62"/>
       <c r="R62"/>
     </row>
-    <row r="63" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B63" s="7">
         <f>1+(L47-1)*B61/(1-B61)</f>
-        <v>1.0005882540749389</v>
+        <v>1.000583851328835</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>25</v>
@@ -8315,7 +8374,7 @@
       <c r="Q63"/>
       <c r="R63"/>
     </row>
-    <row r="64" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -8335,7 +8394,7 @@
       <c r="Q64"/>
       <c r="R64"/>
     </row>
-    <row r="65" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
@@ -8355,7 +8414,7 @@
       <c r="Q65"/>
       <c r="R65"/>
     </row>
-    <row r="66" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>26</v>
       </c>
@@ -8377,7 +8436,7 @@
       <c r="Q66"/>
       <c r="R66"/>
     </row>
-    <row r="67" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="3">
@@ -8421,54 +8480,54 @@
       <c r="Q67"/>
       <c r="R67"/>
     </row>
-    <row r="68" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="28">
         <f>PRODUCT(C47:$M47)</f>
-        <v>11.890293000572377</v>
+        <v>11.894321635967851</v>
       </c>
       <c r="D68" s="7">
         <f>PRODUCT(D47:$M47)</f>
-        <v>2.5051781572312608</v>
+        <v>2.5060269545986338</v>
       </c>
       <c r="E68" s="7">
         <f>PRODUCT(E47:$M47)</f>
-        <v>1.5084777551987107</v>
+        <v>1.5089888533589981</v>
       </c>
       <c r="F68" s="7">
         <f>PRODUCT(F47:$M47)</f>
-        <v>1.2167781410910081</v>
+        <v>1.217190406414276</v>
       </c>
       <c r="G68" s="7">
         <f>PRODUCT(G47:$M47)</f>
-        <v>1.0958056167310279</v>
+        <v>1.0961768944862442</v>
       </c>
       <c r="H68" s="7">
         <f>PRODUCT(H47:$M47)</f>
-        <v>1.0398171534673011</v>
+        <v>1.0401694613699803</v>
       </c>
       <c r="I68" s="7">
         <f>PRODUCT(I47:$M47)</f>
-        <v>1.0170637127595232</v>
+        <v>1.0171578243032926</v>
       </c>
       <c r="J68" s="7">
         <f>PRODUCT(J47:$M47)</f>
-        <v>1.0073406590145297</v>
+        <v>1.0073570818192801</v>
       </c>
       <c r="K68" s="7">
         <f>PRODUCT(K47:$M47)</f>
-        <v>1.0031630743121134</v>
+        <v>1.0031598588336859</v>
       </c>
       <c r="L68" s="7">
         <f>PRODUCT(L47:$M47)</f>
-        <v>1.0013639007483675</v>
+        <v>1.0013580957978485</v>
       </c>
       <c r="M68" s="7">
         <f>PRODUCT(M47:$M47)</f>
-        <v>1.0005882540749389</v>
+        <v>1.000583851328835</v>
       </c>
       <c r="N68" s="7">
         <v>1</v>
@@ -8478,65 +8537,65 @@
       <c r="Q68"/>
       <c r="R68"/>
     </row>
-    <row r="69" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B69" s="7"/>
       <c r="C69" s="22">
         <f>1/C68</f>
-        <v>8.4102216821054093E-2</v>
+        <v>8.407373119758664E-2</v>
       </c>
       <c r="D69" s="23">
         <f>1/D68-1/C68</f>
-        <v>0.31507099052688414</v>
+        <v>0.31496427522328219</v>
       </c>
       <c r="E69" s="23">
         <f t="shared" ref="E69:N69" si="7">1/E68-1/D68</f>
-        <v>0.26374674394313713</v>
+        <v>0.26365741228551021</v>
       </c>
       <c r="F69" s="23">
         <f t="shared" si="7"/>
-        <v>0.1589225574043579</v>
+        <v>0.15886872995126788</v>
       </c>
       <c r="G69" s="23">
         <f t="shared" si="7"/>
-        <v>9.0728101211794421E-2</v>
+        <v>9.0697371385319858E-2</v>
       </c>
       <c r="H69" s="23">
         <f t="shared" si="7"/>
-        <v>4.9136933255981674E-2</v>
+        <v>4.9120290458300797E-2</v>
       </c>
       <c r="I69" s="23">
         <f t="shared" si="7"/>
-        <v>2.1515029281907627E-2</v>
+        <v>2.1749790226431753E-2</v>
       </c>
       <c r="J69" s="23">
         <f t="shared" si="7"/>
-        <v>9.4902611441565199E-3</v>
+        <v>9.5650488000001976E-3</v>
       </c>
       <c r="K69" s="23">
         <f t="shared" si="7"/>
-        <v>4.1340655908200796E-3</v>
+        <v>4.1534448955764525E-3</v>
       </c>
       <c r="L69" s="23">
         <f t="shared" si="7"/>
-        <v>1.7910577630834146E-3</v>
+        <v>1.7936517015642028E-3</v>
       </c>
       <c r="M69" s="23">
         <f t="shared" si="7"/>
-        <v>7.7413482129928823E-4</v>
+        <v>7.727432297904846E-4</v>
       </c>
       <c r="N69" s="23">
         <f t="shared" si="7"/>
-        <v>5.8790823552368199E-4</v>
+        <v>5.8351064536932284E-4</v>
       </c>
       <c r="O69"/>
       <c r="P69"/>
       <c r="Q69"/>
       <c r="R69"/>
     </row>
-    <row r="70" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="29" t="s">
@@ -8558,7 +8617,7 @@
       <c r="Q70"/>
       <c r="R70"/>
     </row>
-    <row r="71" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71" s="29" t="s">
@@ -8580,7 +8639,7 @@
       <c r="Q71"/>
       <c r="R71"/>
     </row>
-    <row r="72" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
@@ -8600,7 +8659,7 @@
       <c r="Q72"/>
       <c r="R72"/>
     </row>
-    <row r="73" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
@@ -8620,7 +8679,7 @@
       <c r="Q73"/>
       <c r="R73"/>
     </row>
-    <row r="74" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
@@ -8640,7 +8699,7 @@
       <c r="Q74"/>
       <c r="R74"/>
     </row>
-    <row r="75" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
@@ -8660,7 +8719,7 @@
       <c r="Q75"/>
       <c r="R75"/>
     </row>
-    <row r="76" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
@@ -8680,7 +8739,7 @@
       <c r="Q76"/>
       <c r="R76"/>
     </row>
-    <row r="77" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
@@ -8710,20 +8769,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD20849-5D30-41D0-ACDD-783CF1DD4EC1}">
   <dimension ref="A1:U60"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="6.42578125" customWidth="1"/>
-    <col min="4" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" customWidth="1"/>
+    <col min="4" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="6.42578125" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="6.5" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -8750,7 +8809,7 @@
       </c>
       <c r="S1" s="3"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
@@ -8808,7 +8867,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="7"/>
@@ -8829,7 +8888,7 @@
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>0</v>
       </c>
@@ -8878,32 +8937,32 @@
         <f>Data!L1</f>
         <v>1</v>
       </c>
-      <c r="N4" s="34">
-        <v>1</v>
+      <c r="N4" s="46">
+        <v>2</v>
       </c>
       <c r="O4" s="34"/>
       <c r="P4" s="35">
-        <f>SUM(C4:N4)</f>
-        <v>1078</v>
+        <f>SUM(C4:M4)</f>
+        <v>1077</v>
       </c>
       <c r="Q4" s="36">
         <f>P4/Data!A1</f>
-        <v>9.9318223696333155E-2</v>
+        <v>9.9226091763405203E-2</v>
       </c>
       <c r="R4" s="37">
         <f t="shared" ref="R4:R18" si="0">S4-P4</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S4" s="37">
         <f t="shared" ref="S4:S18" si="1">SUM(C4:O4)</f>
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="T4" s="36">
         <f>S4/Data!A1</f>
-        <v>9.9318223696333155E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.9410355629261107E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -8954,31 +9013,31 @@
       </c>
       <c r="N5" s="34">
         <f>SUM($C5:M5)*(CL!M$47-1)</f>
-        <v>1.1835671987770642</v>
+        <v>1.1747088736159865</v>
       </c>
       <c r="O5" s="34"/>
       <c r="P5" s="35">
-        <f>SUM(C5:N5)</f>
-        <v>2013.1835671987772</v>
+        <f t="shared" ref="P5:P9" si="2">SUM(C5:M5)</f>
+        <v>2012</v>
       </c>
       <c r="Q5" s="36">
         <f>P5/Data!A2</f>
-        <v>0.19803104143210479</v>
+        <v>0.19791461735195751</v>
       </c>
       <c r="R5" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.1747088736160549</v>
       </c>
       <c r="S5" s="37">
         <f t="shared" si="1"/>
-        <v>2013.1835671987772</v>
+        <v>2013.1747088736161</v>
       </c>
       <c r="T5" s="36">
         <f>S5/Data!A2</f>
-        <v>0.19803104143210479</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.19803017006429433</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -9027,33 +9086,32 @@
         <f>Data!L3</f>
         <v>4</v>
       </c>
-      <c r="N6" s="34">
-        <f>SUM($C6:M6)*(CL!M$47-1)</f>
-        <v>0.59119534531359319</v>
+      <c r="N6" s="46">
+        <v>1</v>
       </c>
       <c r="O6" s="34"/>
       <c r="P6" s="35">
-        <f>SUM(C6:N6)</f>
-        <v>1005.5911953453136</v>
+        <f t="shared" si="2"/>
+        <v>1005</v>
       </c>
       <c r="Q6" s="36">
         <f>P6/Data!A3</f>
-        <v>9.9899780980062941E-2</v>
+        <v>9.9841049076097754E-2</v>
       </c>
       <c r="R6" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" s="37">
         <f t="shared" si="1"/>
-        <v>1005.5911953453136</v>
+        <v>1006</v>
       </c>
       <c r="T6" s="36">
         <f>S6/Data!A3</f>
-        <v>9.9899780980062941E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.9940393403536665E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>3</v>
       </c>
@@ -9104,31 +9162,31 @@
       </c>
       <c r="N7" s="34">
         <f>SUM($C7:M7)*(CL!M$47-1)</f>
-        <v>1.242392606270954</v>
+        <v>1.2330940064994849</v>
       </c>
       <c r="O7" s="34"/>
       <c r="P7" s="35">
-        <f>SUM(C7:N7)</f>
-        <v>2113.2423926062711</v>
+        <f t="shared" si="2"/>
+        <v>2112</v>
       </c>
       <c r="Q7" s="36">
         <f>P7/Data!A4</f>
-        <v>0.20413856188236776</v>
+        <v>0.20401854714064915</v>
       </c>
       <c r="R7" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2330940064994138</v>
       </c>
       <c r="S7" s="37">
         <f t="shared" si="1"/>
-        <v>2113.2423926062711</v>
+        <v>2113.2330940064994</v>
       </c>
       <c r="T7" s="36">
         <f>S7/Data!A4</f>
-        <v>0.20413856188236776</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.2041376636405042</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -9179,31 +9237,31 @@
       </c>
       <c r="N8" s="34">
         <f>SUM($C8:M8)*(CL!M$47-1)</f>
-        <v>0.58943058308877649</v>
+        <v>0.58501903149265333</v>
       </c>
       <c r="O8" s="34"/>
       <c r="P8" s="35">
-        <f>SUM(C8:N8)</f>
-        <v>1002.5894305830888</v>
+        <f t="shared" si="2"/>
+        <v>1002</v>
       </c>
       <c r="Q8" s="36">
         <f>P8/Data!A5</f>
-        <v>0.10225287410332369</v>
+        <v>0.10219275879653238</v>
       </c>
       <c r="R8" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5850190314926067</v>
       </c>
       <c r="S8" s="37">
         <f t="shared" si="1"/>
-        <v>1002.5894305830888</v>
+        <v>1002.5850190314926</v>
       </c>
       <c r="T8" s="36">
         <f>S8/Data!A5</f>
-        <v>0.10225287410332369</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.10225242417455305</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>5</v>
       </c>
@@ -9254,11 +9312,11 @@
       </c>
       <c r="N9" s="34">
         <f>SUM($C9:M9)*(CL!M$47-1)</f>
-        <v>1.2159211728987036</v>
+        <v>1.2068206967019106</v>
       </c>
       <c r="O9" s="34"/>
       <c r="P9" s="35">
-        <f>SUM(C9:M9)</f>
+        <f t="shared" si="2"/>
         <v>2067</v>
       </c>
       <c r="Q9" s="36">
@@ -9267,18 +9325,18 @@
       </c>
       <c r="R9" s="37">
         <f t="shared" si="0"/>
-        <v>1.2159211728985611</v>
+        <v>1.206820696701925</v>
       </c>
       <c r="S9" s="37">
         <f t="shared" si="1"/>
-        <v>2068.2159211728986</v>
+        <v>2068.2068206967019</v>
       </c>
       <c r="T9" s="36">
         <f>S9/Data!A6</f>
-        <v>0.19938454845974149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.19938367113628669</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>6</v>
       </c>
@@ -9325,11 +9383,11 @@
       </c>
       <c r="M10" s="34">
         <f>SUM($C10:L10)*(CL!L$47-1)</f>
-        <v>0.64650901407739125</v>
+        <v>0.64534310272925666</v>
       </c>
       <c r="N10" s="34">
         <f>SUM($C10:M10)*(CL!M$47-1)</f>
-        <v>0.4909842100610573</v>
+        <v>0.4873087926764591</v>
       </c>
       <c r="O10" s="34"/>
       <c r="P10" s="35">
@@ -9342,18 +9400,18 @@
       </c>
       <c r="R10" s="37">
         <f t="shared" si="0"/>
-        <v>1.1374932241384386</v>
+        <v>1.1326518954057292</v>
       </c>
       <c r="S10" s="37">
         <f t="shared" si="1"/>
-        <v>835.13749322413844</v>
+        <v>835.13265189540573</v>
       </c>
       <c r="T10" s="36">
         <f>S10/Data!A7</f>
-        <v>9.9468496096252787E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.9467919473011646E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>7</v>
       </c>
@@ -9396,15 +9454,15 @@
       </c>
       <c r="L11" s="34">
         <f>SUM($C11:K11)*(CL!K$47-1)</f>
-        <v>3.173012838989584</v>
+        <v>3.1775980387451646</v>
       </c>
       <c r="M11" s="34">
         <f>SUM($C11:L11)*(CL!L$47-1)</f>
-        <v>1.3714464031928812</v>
+        <v>1.3689766911240018</v>
       </c>
       <c r="N11" s="34">
         <f>SUM($C11:M11)*(CL!M$47-1)</f>
-        <v>1.0415299930097026</v>
+        <v>1.0337359704202622</v>
       </c>
       <c r="O11" s="34"/>
       <c r="P11" s="35">
@@ -9417,18 +9475,18 @@
       </c>
       <c r="R11" s="37">
         <f t="shared" si="0"/>
-        <v>5.5859892351920735</v>
+        <v>5.5803107002896013</v>
       </c>
       <c r="S11" s="37">
         <f t="shared" si="1"/>
-        <v>1771.5859892351921</v>
+        <v>1771.5803107002896</v>
       </c>
       <c r="T11" s="36">
         <f>S11/Data!A8</f>
-        <v>0.20509214971465525</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.20509149232464571</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>8</v>
       </c>
@@ -9467,19 +9525,19 @@
       </c>
       <c r="K12" s="34">
         <f>SUM($C12:J12)*(CL!J$47-1)</f>
-        <v>3.4106537201094382</v>
+        <v>3.4266977440645805</v>
       </c>
       <c r="L12" s="34">
         <f>SUM($C12:K12)*(CL!K$47-1)</f>
-        <v>1.4776441467586205</v>
+        <v>1.4798083022441686</v>
       </c>
       <c r="M12" s="34">
         <f>SUM($C12:L12)*(CL!L$47-1)</f>
-        <v>0.63867051698298427</v>
+        <v>0.63753283090017498</v>
       </c>
       <c r="N12" s="34">
         <f>SUM($C12:M12)*(CL!M$47-1)</f>
-        <v>0.48503134904881684</v>
+        <v>0.48141113278142261</v>
       </c>
       <c r="O12" s="34"/>
       <c r="P12" s="35">
@@ -9492,18 +9550,18 @@
       </c>
       <c r="R12" s="37">
         <f t="shared" si="0"/>
-        <v>6.011999732899767</v>
+        <v>6.0254500099903225</v>
       </c>
       <c r="S12" s="37">
         <f t="shared" si="1"/>
-        <v>825.01199973289977</v>
+        <v>825.02545000999032</v>
       </c>
       <c r="T12" s="36">
         <f>S12/Data!A9</f>
-        <v>9.9363121731048984E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.9364741660844316E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>9</v>
       </c>
@@ -9538,23 +9596,23 @@
       </c>
       <c r="J13" s="34">
         <f>SUM($C13:I13)*(CL!I$47-1)</f>
-        <v>18.271615043592995</v>
+        <v>18.417307881262694</v>
       </c>
       <c r="K13" s="34">
         <f>SUM($C13:J13)*(CL!J$47-1)</f>
-        <v>7.9593231306324848</v>
+        <v>7.9973740865478842</v>
       </c>
       <c r="L13" s="34">
         <f>SUM($C13:K13)*(CL!K$47-1)</f>
-        <v>3.4483263917400016</v>
+        <v>3.453640050373493</v>
       </c>
       <c r="M13" s="34">
         <f>SUM($C13:L13)*(CL!L$47-1)</f>
-        <v>1.4904430164527411</v>
+        <v>1.4879014497254368</v>
       </c>
       <c r="N13" s="34">
         <f>SUM($C13:M13)*(CL!M$47-1)</f>
-        <v>1.1319006713593467</v>
+        <v>1.1235379382236093</v>
       </c>
       <c r="O13" s="34"/>
       <c r="P13" s="35">
@@ -9567,18 +9625,18 @@
       </c>
       <c r="R13" s="37">
         <f t="shared" si="0"/>
-        <v>32.301608253777658</v>
+        <v>32.479761406133093</v>
       </c>
       <c r="S13" s="37">
         <f t="shared" si="1"/>
-        <v>1925.3016082537777</v>
+        <v>1925.4797614061331</v>
       </c>
       <c r="T13" s="36">
         <f>S13/Data!A10</f>
-        <v>0.19914166407258768</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.19916009116736999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>10</v>
       </c>
@@ -9609,27 +9667,27 @@
       </c>
       <c r="I14" s="34">
         <f>SUM($C14:H14)*(CL!H$47-1)</f>
-        <v>19.687092924117291</v>
+        <v>19.908651474569137</v>
       </c>
       <c r="J14" s="34">
         <f>SUM($C14:I14)*(CL!I$47-1)</f>
-        <v>8.6839599691488374</v>
+        <v>8.7553590592810693</v>
       </c>
       <c r="K14" s="34">
         <f>SUM($C14:J14)*(CL!J$47-1)</f>
-        <v>3.7828316371064048</v>
+        <v>3.8018521550781674</v>
       </c>
       <c r="L14" s="34">
         <f>SUM($C14:K14)*(CL!K$47-1)</f>
-        <v>1.6388878747163615</v>
+        <v>1.6418175173851948</v>
       </c>
       <c r="M14" s="34">
         <f>SUM($C14:L14)*(CL!L$47-1)</f>
-        <v>0.70836362632932859</v>
+        <v>0.70732984001557031</v>
       </c>
       <c r="N14" s="34">
         <f>SUM($C14:M14)*(CL!M$47-1)</f>
-        <v>0.53795901980673388</v>
+        <v>0.534115959253738</v>
       </c>
       <c r="O14" s="34"/>
       <c r="P14" s="35">
@@ -9642,18 +9700,18 @@
       </c>
       <c r="R14" s="37">
         <f t="shared" si="0"/>
-        <v>35.03909505122499</v>
+        <v>35.349126005583003</v>
       </c>
       <c r="S14" s="37">
         <f t="shared" si="1"/>
-        <v>915.03909505122499</v>
+        <v>915.349126005583</v>
       </c>
       <c r="T14" s="36">
         <f>S14/Data!A11</f>
-        <v>9.8380721970887541E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.8414055048444582E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>11</v>
       </c>
@@ -9684,27 +9742,27 @@
       </c>
       <c r="I15" s="34">
         <f>SUM($C15:H15)*(CL!H$47-1)</f>
-        <v>39.678895954288407</v>
+        <v>40.125442262829075</v>
       </c>
       <c r="J15" s="34">
         <f>SUM($C15:I15)*(CL!I$47-1)</f>
-        <v>17.502327307296525</v>
+        <v>17.646230578313094</v>
       </c>
       <c r="K15" s="34">
         <f>SUM($C15:J15)*(CL!J$47-1)</f>
-        <v>7.6242126513996462</v>
+        <v>7.6625480804295805</v>
       </c>
       <c r="L15" s="34">
         <f>SUM($C15:K15)*(CL!K$47-1)</f>
-        <v>3.3031418966866624</v>
+        <v>3.3090465260338151</v>
       </c>
       <c r="M15" s="34">
         <f>SUM($C15:L15)*(CL!L$47-1)</f>
-        <v>1.4276910631377076</v>
+        <v>1.4256074899184064</v>
       </c>
       <c r="N15" s="34">
         <f>SUM($C15:M15)*(CL!M$47-1)</f>
-        <v>1.0842443857433786</v>
+        <v>1.0764987830575929</v>
       </c>
       <c r="O15" s="34"/>
       <c r="P15" s="35">
@@ -9717,18 +9775,18 @@
       </c>
       <c r="R15" s="37">
         <f t="shared" si="0"/>
-        <v>161.24085295831969</v>
+        <v>161.86571342034881</v>
       </c>
       <c r="S15" s="37">
         <f t="shared" si="1"/>
-        <v>1844.2408529583197</v>
+        <v>1844.8657134203488</v>
       </c>
       <c r="T15" s="36">
         <f>S15/Data!A12</f>
-        <v>0.21918717054413117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.21926143492041228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>12</v>
       </c>
@@ -9759,27 +9817,27 @@
       </c>
       <c r="I16" s="34">
         <f>SUM($C16:H16)*(CL!H$47-1)</f>
-        <v>16.911645198512115</v>
+        <v>17.101968859317729</v>
       </c>
       <c r="J16" s="34">
         <f>SUM($C16:I16)*(CL!I$47-1)</f>
-        <v>7.4597123344919716</v>
+        <v>7.521045721014147</v>
       </c>
       <c r="K16" s="34">
         <f>SUM($C16:J16)*(CL!J$47-1)</f>
-        <v>3.249535456506139</v>
+        <v>3.2658744991809621</v>
       </c>
       <c r="L16" s="34">
         <f>SUM($C16:K16)*(CL!K$47-1)</f>
-        <v>1.4078406783661481</v>
+        <v>1.4103573057607917</v>
       </c>
       <c r="M16" s="34">
         <f>SUM($C16:L16)*(CL!L$47-1)</f>
-        <v>0.60849991241406953</v>
+        <v>0.60761186726607608</v>
       </c>
       <c r="N16" s="34">
         <f>SUM($C16:M16)*(CL!M$47-1)</f>
-        <v>0.46211861290936396</v>
+        <v>0.45881733949133441</v>
       </c>
       <c r="O16" s="34"/>
       <c r="P16" s="35">
@@ -9792,18 +9850,18 @@
       </c>
       <c r="R16" s="37">
         <f t="shared" si="0"/>
-        <v>140.03867914479122</v>
+        <v>140.30500254362255</v>
       </c>
       <c r="S16" s="37">
         <f t="shared" si="1"/>
-        <v>786.03867914479122</v>
+        <v>786.30500254362255</v>
       </c>
       <c r="T16" s="36">
         <f>S16/Data!A13</f>
-        <v>0.10162103156364463</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.10165546251371979</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>13</v>
       </c>
@@ -9834,27 +9892,27 @@
       </c>
       <c r="I17" s="34">
         <f>SUM($C17:H17)*(CL!H$47-1)</f>
-        <v>29.728727855973091</v>
+        <v>30.063294969357209</v>
       </c>
       <c r="J17" s="34">
         <f>SUM($C17:I17)*(CL!I$47-1)</f>
-        <v>13.113316609519966</v>
+        <v>13.221133651268419</v>
       </c>
       <c r="K17" s="34">
         <f>SUM($C17:J17)*(CL!J$47-1)</f>
-        <v>5.7123097197725938</v>
+        <v>5.7410318782264449</v>
       </c>
       <c r="L17" s="34">
         <f>SUM($C17:K17)*(CL!K$47-1)</f>
-        <v>2.4748220472008251</v>
+        <v>2.4792459888133673</v>
       </c>
       <c r="M17" s="34">
         <f>SUM($C17:L17)*(CL!L$47-1)</f>
-        <v>1.0696728842284891</v>
+        <v>1.0681118029606043</v>
       </c>
       <c r="N17" s="34">
         <f>SUM($C17:M17)*(CL!M$47-1)</f>
-        <v>0.81235138977318055</v>
+        <v>0.80654813066558106</v>
       </c>
       <c r="O17" s="34"/>
       <c r="P17" s="35">
@@ -9867,18 +9925,18 @@
       </c>
       <c r="R17" s="37">
         <f t="shared" si="0"/>
-        <v>465.765623762019</v>
+        <v>466.23378967684266</v>
       </c>
       <c r="S17" s="37">
         <f t="shared" si="1"/>
-        <v>1381.765623762019</v>
+        <v>1382.2337896768427</v>
       </c>
       <c r="T17" s="42">
         <f>S17/Data!A14</f>
-        <v>0.16269464544472143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.16274976918366216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>14</v>
       </c>
@@ -9909,27 +9967,27 @@
       </c>
       <c r="I18" s="34">
         <f>SUM($C18:H18)*(CL!H$47-1)</f>
-        <v>9.7018166536606376</v>
+        <v>9.8110009015747313</v>
       </c>
       <c r="J18" s="34">
         <f>SUM($C18:I18)*(CL!I$47-1)</f>
-        <v>4.2794630864570893</v>
+        <v>4.3146486206733945</v>
       </c>
       <c r="K18" s="34">
         <f>SUM($C18:J18)*(CL!J$47-1)</f>
-        <v>1.8641827473630812</v>
+        <v>1.8735560752958018</v>
       </c>
       <c r="L18" s="34">
         <f>SUM($C18:K18)*(CL!K$47-1)</f>
-        <v>0.80764538155491028</v>
+        <v>0.80908911203067491</v>
       </c>
       <c r="M18" s="34">
         <f>SUM($C18:L18)*(CL!L$47-1)</f>
-        <v>0.34908221611279144</v>
+        <v>0.3485727653109994</v>
       </c>
       <c r="N18" s="34">
         <f>SUM($C18:M18)*(CL!M$47-1)</f>
-        <v>0.26510667661624476</v>
+        <v>0.26321281300632565</v>
       </c>
       <c r="O18" s="34"/>
       <c r="P18" s="35">
@@ -9942,18 +10000,18 @@
       </c>
       <c r="R18" s="37">
         <f t="shared" si="0"/>
-        <v>270.93206830162683</v>
+        <v>271.08485182775405</v>
       </c>
       <c r="S18" s="37">
         <f t="shared" si="1"/>
-        <v>450.93206830162683</v>
+        <v>451.08485182775405</v>
       </c>
       <c r="T18" s="42">
         <f>S18/Data!A15</f>
-        <v>5.1855113650141081E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>5.18726830528696E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>15</v>
       </c>
@@ -9984,27 +10042,27 @@
       </c>
       <c r="I19" s="34">
         <f>SUM($C19:H19)*(CL!H$47-1)</f>
-        <v>82.629860671121335</v>
+        <v>83.559777151167239</v>
       </c>
       <c r="J19" s="34">
         <f>SUM($C19:I19)*(CL!I$47-1)</f>
-        <v>36.447961366877962</v>
+        <v>36.747634705771176</v>
       </c>
       <c r="K19" s="34">
         <f>SUM($C19:J19)*(CL!J$47-1)</f>
-        <v>15.877146124174498</v>
+        <v>15.956978263737062</v>
       </c>
       <c r="L19" s="34">
         <f>SUM($C19:K19)*(CL!K$47-1)</f>
-        <v>6.8786731116359059</v>
+        <v>6.8909692879416165</v>
       </c>
       <c r="M19" s="34">
         <f>SUM($C19:L19)*(CL!L$47-1)</f>
-        <v>2.9731148206436919</v>
+        <v>2.9687758550382153</v>
       </c>
       <c r="N19" s="34">
         <f>SUM($C19:M19)*(CL!M$47-1)</f>
-        <v>2.25789958043775</v>
+        <v>2.2417696439728427</v>
       </c>
       <c r="O19" s="34"/>
       <c r="P19" s="35">
@@ -10017,18 +10075,18 @@
       </c>
       <c r="R19" s="37">
         <f>S19-P19</f>
-        <v>3517.5646391848773</v>
+        <v>3518.8658884176143</v>
       </c>
       <c r="S19" s="37">
         <f>SUM(C19:O19)</f>
-        <v>3840.5646391848773</v>
+        <v>3841.8658884176143</v>
       </c>
       <c r="T19" s="42">
         <f>S19/Data!A16</f>
-        <v>0.43782086630014561</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.43796920752594781</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -10049,7 +10107,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -10069,19 +10127,19 @@
       <c r="Q21" s="7"/>
       <c r="R21" s="38">
         <f>SUM(R4:R19)</f>
-        <v>4636.8339700217657</v>
+        <v>4646.1221885118939</v>
       </c>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="39"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
     </row>
-    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
@@ -10101,7 +10159,7 @@
       <c r="S25" s="37"/>
       <c r="T25" s="40"/>
     </row>
-    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
@@ -10121,7 +10179,7 @@
       <c r="S26" s="37"/>
       <c r="T26" s="40"/>
     </row>
-    <row r="27" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
@@ -10141,7 +10199,7 @@
       <c r="S27" s="37"/>
       <c r="T27" s="40"/>
     </row>
-    <row r="28" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
@@ -10161,7 +10219,7 @@
       <c r="S28" s="37"/>
       <c r="T28" s="40"/>
     </row>
-    <row r="29" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
@@ -10181,7 +10239,7 @@
       <c r="S29" s="37"/>
       <c r="T29" s="40"/>
     </row>
-    <row r="30" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
@@ -10201,7 +10259,7 @@
       <c r="S30" s="37"/>
       <c r="T30" s="40"/>
     </row>
-    <row r="31" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
@@ -10221,7 +10279,7 @@
       <c r="S31" s="37"/>
       <c r="T31" s="40"/>
     </row>
-    <row r="32" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
@@ -10241,7 +10299,7 @@
       <c r="S32" s="37"/>
       <c r="T32" s="40"/>
     </row>
-    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
@@ -10261,7 +10319,7 @@
       <c r="S33" s="37"/>
       <c r="T33" s="40"/>
     </row>
-    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
@@ -10281,7 +10339,7 @@
       <c r="S34" s="37"/>
       <c r="T34" s="40"/>
     </row>
-    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
@@ -10301,7 +10359,7 @@
       <c r="S35" s="37"/>
       <c r="T35" s="40"/>
     </row>
-    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
@@ -10321,7 +10379,7 @@
       <c r="S36" s="37"/>
       <c r="T36" s="40"/>
     </row>
-    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
@@ -10341,7 +10399,7 @@
       <c r="S37" s="37"/>
       <c r="T37" s="40"/>
     </row>
-    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
@@ -10361,7 +10419,7 @@
       <c r="S38" s="37"/>
       <c r="T38" s="40"/>
     </row>
-    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
@@ -10381,7 +10439,7 @@
       <c r="S39" s="37"/>
       <c r="T39" s="40"/>
     </row>
-    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
@@ -10401,13 +10459,13 @@
       <c r="S40" s="37"/>
       <c r="T40" s="40"/>
     </row>
-    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="P41" s="7"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="40"/>
       <c r="S41" s="3"/>
     </row>
-    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="39"/>
       <c r="P42" s="7"/>
       <c r="Q42" s="37"/>
@@ -10416,57 +10474,57 @@
       <c r="T42" s="41"/>
       <c r="U42" s="41"/>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" t="str">
-        <f t="shared" ref="C60:O60" si="2">IF(C42&gt;0,C21/C42,"")</f>
+        <f t="shared" ref="C60:O60" si="3">IF(C42&gt;0,C21/C42,"")</f>
         <v/>
       </c>
       <c r="D60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -10491,24 +10549,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E739E852-3E62-41BB-B97E-37D430093FE9}">
-  <dimension ref="A1:R46"/>
+  <dimension ref="A1:AA46"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+    <sheetView tabSelected="1" topLeftCell="F18" workbookViewId="0">
+      <selection activeCell="Z48" sqref="Z48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="4" customWidth="1"/>
-    <col min="3" max="20" width="9.140625" style="4"/>
-    <col min="21" max="21" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="4"/>
-    <col min="23" max="23" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="21.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="4" customWidth="1"/>
+    <col min="3" max="20" width="9.1640625" style="4"/>
+    <col min="21" max="21" width="9.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.1640625" style="4"/>
+    <col min="23" max="23" width="9.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10528,7 +10586,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -10582,7 +10640,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -10598,7 +10656,7 @@
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
     </row>
-    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>0</v>
       </c>
@@ -10665,7 +10723,7 @@
       </c>
       <c r="R4" s="11"/>
     </row>
-    <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -10729,7 +10787,7 @@
       <c r="Q5" s="10"/>
       <c r="R5" s="11"/>
     </row>
-    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -10790,7 +10848,7 @@
       <c r="Q6" s="10"/>
       <c r="R6" s="11"/>
     </row>
-    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>3</v>
       </c>
@@ -10848,7 +10906,7 @@
       <c r="Q7" s="10"/>
       <c r="R7" s="11"/>
     </row>
-    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -10903,7 +10961,7 @@
       <c r="Q8" s="10"/>
       <c r="R8" s="11"/>
     </row>
-    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>5</v>
       </c>
@@ -10955,7 +11013,7 @@
       <c r="Q9" s="10"/>
       <c r="R9" s="11"/>
     </row>
-    <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>6</v>
       </c>
@@ -11004,7 +11062,7 @@
       <c r="Q10" s="10"/>
       <c r="R10" s="11"/>
     </row>
-    <row r="11" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>7</v>
       </c>
@@ -11050,7 +11108,7 @@
       <c r="Q11" s="10"/>
       <c r="R11" s="11"/>
     </row>
-    <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>8</v>
       </c>
@@ -11093,7 +11151,7 @@
       <c r="Q12" s="10"/>
       <c r="R12" s="11"/>
     </row>
-    <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>9</v>
       </c>
@@ -11133,7 +11191,7 @@
       <c r="Q13" s="10"/>
       <c r="R13" s="11"/>
     </row>
-    <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>10</v>
       </c>
@@ -11170,7 +11228,7 @@
       <c r="Q14" s="10"/>
       <c r="R14" s="11"/>
     </row>
-    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>11</v>
       </c>
@@ -11204,7 +11262,7 @@
       <c r="Q15" s="10"/>
       <c r="R15" s="11"/>
     </row>
-    <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>12</v>
       </c>
@@ -11235,7 +11293,7 @@
       <c r="Q16" s="10"/>
       <c r="R16" s="11"/>
     </row>
-    <row r="17" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>13</v>
       </c>
@@ -11263,7 +11321,7 @@
       <c r="Q17" s="10"/>
       <c r="R17" s="11"/>
     </row>
-    <row r="18" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>14</v>
       </c>
@@ -11288,7 +11346,7 @@
       <c r="Q18" s="10"/>
       <c r="R18" s="11"/>
     </row>
-    <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>15</v>
       </c>
@@ -11310,13 +11368,13 @@
       <c r="Q19" s="10"/>
       <c r="R19" s="11"/>
     </row>
-    <row r="20" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" s="44" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A22" s="43" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>42</v>
       </c>
@@ -11383,7 +11441,7 @@
       </c>
       <c r="R24" s="14"/>
     </row>
-    <row r="25" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>43</v>
       </c>
@@ -11446,7 +11504,7 @@
       </c>
       <c r="R25" s="7"/>
     </row>
-    <row r="26" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>44</v>
       </c>
@@ -11505,7 +11563,7 @@
       </c>
       <c r="R26" s="7"/>
     </row>
-    <row r="27" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>45</v>
       </c>
@@ -11560,8 +11618,8 @@
       </c>
       <c r="R27" s="7"/>
     </row>
-    <row r="29" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" s="44" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>10</v>
       </c>
@@ -11593,35 +11651,48 @@
         <v>1.0137760508654186</v>
       </c>
       <c r="I32" s="24" cm="1">
-        <f t="array" ref="I32">EXP(_xlfn.FORECAST.LINEAR(I$2-8,LN($H24:$N24-1),$H$2:$N$2-8))+1</f>
-        <v>1.0046779778569639</v>
+        <f t="array" ref="I32">EXP(_xlfn.FORECAST.LINEAR(I$2-8,LN($H24:$J24-1),$H$2:$J$2-8))+1</f>
+        <v>1.0062423406236709</v>
       </c>
       <c r="J32" s="24" cm="1">
-        <f t="array" ref="J32">EXP(_xlfn.FORECAST.LINEAR(J$2-8,LN($H24:$N24-1),$H$2:$N$2-8))+1</f>
-        <v>1.0027231017775946</v>
+        <f t="array" ref="J32">EXP(_xlfn.FORECAST.LINEAR(J$2-8,LN($H24:$J24-1),$H$2:$J$2-8))+1</f>
+        <v>1.0026126138257705</v>
       </c>
       <c r="K32" s="24" cm="1">
-        <f t="array" ref="K32">EXP(_xlfn.FORECAST.LINEAR(K$2-8,LN($H24:$N24-1),$H$2:$N$2-8))+1</f>
-        <v>1.0015851471550041</v>
+        <f t="array" ref="K32">EXP(_xlfn.FORECAST.LINEAR(K$2-8,LN($H24:$J24-1),$H$2:$J$2-8))+1</f>
+        <v>1.0010934601961199</v>
       </c>
       <c r="L32" s="24" cm="1">
-        <f t="array" ref="L32">EXP(_xlfn.FORECAST.LINEAR(L$2-8,LN($H24:$N24-1),$H$2:$N$2-8))+1</f>
-        <v>1.0009227313953859</v>
+        <f t="array" ref="L32">EXP(_xlfn.FORECAST.LINEAR(L$2-8,LN($H24:$J24-1),$H$2:$J$2-8))+1</f>
+        <v>1.0004576471228563</v>
       </c>
       <c r="M32" s="24" cm="1">
-        <f t="array" ref="M32">EXP(_xlfn.FORECAST.LINEAR(M$2-8,LN($H24:$N24-1),$H$2:$N$2-8))+1</f>
-        <v>1.0005371319787839</v>
+        <f t="array" ref="M32">EXP(_xlfn.FORECAST.LINEAR(M$2-8,LN($H24:$J24-1),$H$2:$J$2-8))+1</f>
+        <v>1.0001915395638561</v>
       </c>
       <c r="N32" s="24" cm="1">
-        <f t="array" ref="N32">EXP(_xlfn.FORECAST.LINEAR(N$2-8,LN($H24:$N24-1),$H$2:$N$2-8))+1</f>
-        <v>1.0003126703654768</v>
+        <f t="array" ref="N32">EXP(_xlfn.FORECAST.LINEAR(N$2-8,LN($H24:$J24-1),$H$2:$J$2-8))+1</f>
+        <v>1.0000801652685876</v>
       </c>
       <c r="O32" s="25" cm="1">
-        <f t="array" ref="O32">EXP(INTERCEPT(LN(H24:N24-1),H$2:N$2-8))*EXP(SLOPE(LN(J24:N24-1),J$2:N$2-8))^(12-8)/(1-EXP(SLOPE(LN(J24:N24-1),J$2:N$2-8)))+1</f>
-        <v>1.0042354678605763</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+        <f t="array" ref="O32">EXP(INTERCEPT(LN(H24:J24-1),H$2:J$2-5))*EXP(SLOPE(LN(H24:J24-1),H$2:J$2-5))^(12-5)/(1-EXP(SLOPE(LN(H24:J24-1),H$2:J$2-5)))+1</f>
+        <v>1.000057701557368</v>
+      </c>
+      <c r="Q32" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="R32" s="47"/>
+      <c r="S32" s="47"/>
+      <c r="T32" s="47"/>
+      <c r="U32" s="47"/>
+      <c r="V32" s="47"/>
+      <c r="W32" s="47"/>
+      <c r="X32" s="47"/>
+      <c r="Y32" s="47"/>
+      <c r="Z32" s="47"/>
+      <c r="AA32" s="47"/>
+    </row>
+    <row r="33" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>12</v>
       </c>
@@ -11677,11 +11748,24 @@
         <v>1.0001569724811699</v>
       </c>
       <c r="O33" s="25" cm="1">
-        <f t="array" ref="O33">EXP(INTERCEPT(LN(H25:K25-1),H$2:K$2-8))*EXP(SLOPE(LN(J25:K25-1),J$2:K$2-8))^(12-8)/(1-EXP(SLOPE(LN(J25:K25-1),J$2:K$2-8)))+1</f>
-        <v>1.0001546937222012</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+        <f t="array" ref="O33">EXP(INTERCEPT(LN(H25:K25-1),H$2:K$2-5))*EXP(SLOPE(LN(H25:K25-1),H$2:K$2-5))^(12-5)/(1-EXP(SLOPE(LN(H25:K25-1),H$2:K$2-5)))+1</f>
+        <v>1.0001134875706477</v>
+      </c>
+      <c r="Q33" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="R33" s="47"/>
+      <c r="S33" s="47"/>
+      <c r="T33" s="47"/>
+      <c r="U33" s="47"/>
+      <c r="V33" s="47"/>
+      <c r="W33" s="47"/>
+      <c r="X33" s="47"/>
+      <c r="Y33" s="47"/>
+      <c r="Z33" s="47"/>
+      <c r="AA33" s="47"/>
+    </row>
+    <row r="34" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
         <v>48</v>
@@ -11735,11 +11819,24 @@
         <v>1.0007693669727284</v>
       </c>
       <c r="O34" s="25" cm="1">
-        <f t="array" ref="O34">EXP(INTERCEPT(LN(H26:L26-1),H$2:L$2-8))*EXP(SLOPE(LN(J26:L26-1),J$2:L$2-8))^(12-8)/(1-EXP(SLOPE(LN(J26:L26-1),J$2:L$2-8)))+1</f>
-        <v>1.0030240234507533</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+        <f t="array" ref="O34">EXP(INTERCEPT(LN(H26:L26-1),H$2:L$2-5))*EXP(SLOPE(LN(H26:L26-1),H$2:L$2-5))^(12-5)/(1-EXP(SLOPE(LN(H26:L26-1),H$2:L$2-5)))+1</f>
+        <v>1.0007999018573626</v>
+      </c>
+      <c r="Q34" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="R34" s="47"/>
+      <c r="S34" s="47"/>
+      <c r="T34" s="47"/>
+      <c r="U34" s="47"/>
+      <c r="V34" s="47"/>
+      <c r="W34" s="47"/>
+      <c r="X34" s="47"/>
+      <c r="Y34" s="47"/>
+      <c r="Z34" s="47"/>
+      <c r="AA34" s="47"/>
+    </row>
+    <row r="35" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
         <v>49</v>
@@ -11769,35 +11866,48 @@
         <v>1.0075619295958278</v>
       </c>
       <c r="I35" s="24" cm="1">
-        <f t="array" ref="I35">EXP(_xlfn.FORECAST.LINEAR(I$2-8,LN($H27:$L27-1),$H$2:$L$2-8))+1</f>
+        <f t="array" ref="I35">EXP(_xlfn.FORECAST.LINEAR(I$2-8,LN($H27:$K27-1),$H$2:$K$2-8))+1</f>
         <v>1.0026837029346951</v>
       </c>
       <c r="J35" s="24" cm="1">
-        <f t="array" ref="J35">EXP(_xlfn.FORECAST.LINEAR(J$2-8,LN($H27:$L27-1),$H$2:$L$2-8))+1</f>
-        <v>1.0014678923151905</v>
+        <f t="array" ref="J35">EXP(_xlfn.FORECAST.LINEAR(J$2-8,LN($H27:$K27-1),$H$2:$K$2-8))+1</f>
+        <v>1.001413335174568</v>
       </c>
       <c r="K35" s="24" cm="1">
-        <f t="array" ref="K35">EXP(_xlfn.FORECAST.LINEAR(K$2-8,LN($H27:$L27-1),$H$2:$L$2-8))+1</f>
-        <v>1.0008028861246672</v>
+        <f t="array" ref="K35">EXP(_xlfn.FORECAST.LINEAR(K$2-8,LN($H27:$K27-1),$H$2:$K$2-8))+1</f>
+        <v>1.000744313496791</v>
       </c>
       <c r="L35" s="24" cm="1">
-        <f t="array" ref="L35">EXP(_xlfn.FORECAST.LINEAR(L$2-8,LN($H27:$L27-1),$H$2:$L$2-8))+1</f>
-        <v>1.00043915083042</v>
+        <f t="array" ref="L35">EXP(_xlfn.FORECAST.LINEAR(L$2-8,LN($H27:$K27-1),$H$2:$K$2-8))+1</f>
+        <v>1.000391982447953</v>
       </c>
       <c r="M35" s="24" cm="1">
-        <f t="array" ref="M35">EXP(_xlfn.FORECAST.LINEAR(M$2-8,LN($H27:$L27-1),$H$2:$L$2-8))+1</f>
-        <v>1.0002402002549722</v>
+        <f t="array" ref="M35">EXP(_xlfn.FORECAST.LINEAR(M$2-8,LN($H27:$K27-1),$H$2:$K$2-8))+1</f>
+        <v>1.0002064321554904</v>
       </c>
       <c r="N35" s="24" cm="1">
-        <f t="array" ref="N35">EXP(_xlfn.FORECAST.LINEAR(N$2-8,LN($H27:$L27-1),$H$2:$L$2-8))+1</f>
-        <v>1.0001313811986499</v>
+        <f t="array" ref="N35">EXP(_xlfn.FORECAST.LINEAR(N$2-8,LN($H27:$K27-1),$H$2:$K$2-8))+1</f>
+        <v>1.0001087146504721</v>
       </c>
       <c r="O35" s="25" cm="1">
-        <f t="array" ref="O35">EXP(INTERCEPT(LN(H27:L27-1),H$2:L$2-8))*EXP(SLOPE(LN(J27:L27-1),J$2:L$2-8))^(12-8)/(1-EXP(SLOPE(LN(J27:L27-1),J$2:L$2-8)))+1</f>
-        <v>1.0002736094862021</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="array" ref="O35">EXP(INTERCEPT(LN(H27:K27-1),H$2:K$2-5))*EXP(SLOPE(LN(H27:K27-1),H$2:K$2-5))^(12-5)/(1-EXP(SLOPE(LN(H27:K27-1),H$2:K$2-5)))+1</f>
+        <v>1.0001209494166381</v>
+      </c>
+      <c r="Q35" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="R35" s="47"/>
+      <c r="S35" s="47"/>
+      <c r="T35" s="47"/>
+      <c r="U35" s="47"/>
+      <c r="V35" s="47"/>
+      <c r="W35" s="47"/>
+      <c r="X35" s="47"/>
+      <c r="Y35" s="47"/>
+      <c r="Z35" s="47"/>
+      <c r="AA35" s="47"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.15">
       <c r="C38" s="4">
         <v>0</v>
       </c>
@@ -11838,7 +11948,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>28</v>
       </c>
@@ -11847,452 +11957,452 @@
       </c>
       <c r="C39" s="15">
         <f>PRODUCT(C32:$O32)</f>
-        <v>11.159750057594891</v>
+        <v>11.112345436937888</v>
       </c>
       <c r="D39" s="15">
         <f>PRODUCT(D32:$O32)</f>
-        <v>2.2511672932909734</v>
+        <v>2.2416047375864863</v>
       </c>
       <c r="E39" s="15">
         <f>PRODUCT(E32:$O32)</f>
-        <v>1.400841185951444</v>
+        <v>1.3948906633431408</v>
       </c>
       <c r="F39" s="15">
         <f>PRODUCT(F32:$O32)</f>
-        <v>1.1565238606291073</v>
+        <v>1.1516111542861376</v>
       </c>
       <c r="G39" s="15">
         <f>PRODUCT(G32:$O32)</f>
-        <v>1.0687027164067204</v>
+        <v>1.0641630585644835</v>
       </c>
       <c r="H39" s="15">
         <f>PRODUCT(H32:$O32)</f>
-        <v>1.0290652083803324</v>
+        <v>1.024693923577104</v>
       </c>
       <c r="I39" s="15">
         <f>PRODUCT(I32:$O32)</f>
-        <v>1.0150813954441535</v>
+        <v>1.0107695113751853</v>
       </c>
       <c r="J39" s="15">
         <f>PRODUCT(J32:$O32)</f>
-        <v>1.0103549772329843</v>
+        <v>1.0044990859246774</v>
       </c>
       <c r="K39" s="15">
         <f>PRODUCT(K32:$O32)</f>
-        <v>1.0076111495206008</v>
+        <v>1.0018815563188543</v>
       </c>
       <c r="L39" s="15">
         <f>PRODUCT(L32:$O32)</f>
-        <v>1.006016465382612</v>
+        <v>1.0007872353122556</v>
       </c>
       <c r="M39" s="15">
         <f>PRODUCT(M32:$O32)</f>
-        <v>1.0050890381719328</v>
+        <v>1.00032943742331</v>
       </c>
       <c r="N39" s="15">
         <f>PRODUCT(N32:$O32)</f>
-        <v>1.0045494625313369</v>
+        <v>1.0001378714516163</v>
       </c>
       <c r="O39" s="15">
         <f>PRODUCT(O32:$O32)</f>
-        <v>1.0042354678605763</v>
+        <v>1.000057701557368</v>
       </c>
       <c r="P39" s="15"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C40" s="45">
         <f>1/C39</f>
-        <v>8.9607741646457295E-2</v>
+        <v>8.9990003071355157E-2</v>
       </c>
       <c r="D40" s="45">
         <f>1/D39-1/C39</f>
-        <v>0.3546062459057977</v>
+        <v>0.35611897556896044</v>
       </c>
       <c r="E40" s="45">
         <f t="shared" ref="E40:O40" si="1">1/E39-1/D39</f>
-        <v>0.26964280794223588</v>
+        <v>0.27079308851044975</v>
       </c>
       <c r="F40" s="45">
         <f t="shared" si="1"/>
-        <v>0.15080327252696446</v>
+        <v>0.15144659053472009</v>
       </c>
       <c r="G40" s="45">
         <f t="shared" si="1"/>
-        <v>7.10538444146257E-2</v>
+        <v>7.1356955990827475E-2</v>
       </c>
       <c r="H40" s="45">
         <f t="shared" si="1"/>
-        <v>3.6041805137853045E-2</v>
+        <v>3.6195557386651922E-2</v>
       </c>
       <c r="I40" s="45">
         <f t="shared" si="1"/>
-        <v>1.3386956194060051E-2</v>
+        <v>1.34440641721848E-2</v>
       </c>
       <c r="J40" s="45">
         <f t="shared" si="1"/>
-        <v>4.6084756138369265E-3</v>
+        <v>6.1758299527436833E-3</v>
       </c>
       <c r="K40" s="45">
         <f t="shared" si="1"/>
-        <v>2.6951931142578101E-3</v>
+        <v>2.6009120987555701E-3</v>
       </c>
       <c r="L40" s="45">
         <f t="shared" si="1"/>
-        <v>1.5731734963021493E-3</v>
+        <v>1.0914066530354205E-3</v>
       </c>
       <c r="M40" s="45">
         <f t="shared" si="1"/>
-        <v>9.1721301503222552E-4</v>
+        <v>4.5728713027981538E-4</v>
       </c>
       <c r="N40" s="45">
         <f t="shared" si="1"/>
-        <v>5.344123340166318E-4</v>
+        <v>1.9147648433648357E-4</v>
       </c>
       <c r="O40" s="45">
         <f t="shared" si="1"/>
-        <v>3.112543255847644E-4</v>
+        <v>8.0154217609096357E-5</v>
       </c>
       <c r="P40" s="45"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B41" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C41" s="15">
         <f>PRODUCT(C33:$O33)</f>
-        <v>27.322840216368206</v>
+        <v>27.32171452141132</v>
       </c>
       <c r="D41" s="15">
         <f>PRODUCT(D33:$O33)</f>
-        <v>3.2977894291651393</v>
+        <v>3.2976535609720856</v>
       </c>
       <c r="E41" s="15">
         <f>PRODUCT(E33:$O33)</f>
-        <v>1.6897581468930554</v>
+        <v>1.6896885292321806</v>
       </c>
       <c r="F41" s="15">
         <f>PRODUCT(F33:$O33)</f>
-        <v>1.2845334494089937</v>
+        <v>1.2844805269157793</v>
       </c>
       <c r="G41" s="15">
         <f>PRODUCT(G33:$O33)</f>
-        <v>1.1182407647436765</v>
+        <v>1.1181946934721876</v>
       </c>
       <c r="H41" s="15">
         <f>PRODUCT(H33:$O33)</f>
-        <v>1.0520021452699557</v>
+        <v>1.0519588030148979</v>
       </c>
       <c r="I41" s="15">
         <f>PRODUCT(I33:$O33)</f>
-        <v>1.0209612137323987</v>
+        <v>1.0209191503568356</v>
       </c>
       <c r="J41" s="15">
         <f>PRODUCT(J33:$O33)</f>
-        <v>1.0087882126900363</v>
+        <v>1.0087466508394161</v>
       </c>
       <c r="K41" s="15">
         <f>PRODUCT(K33:$O33)</f>
-        <v>1.0037060405560716</v>
+        <v>1.0036646880898161</v>
       </c>
       <c r="L41" s="15">
         <f>PRODUCT(L33:$O33)</f>
-        <v>1.0015780348069816</v>
+        <v>1.0015367700140911</v>
       </c>
       <c r="M41" s="15">
         <f>PRODUCT(M33:$O33)</f>
-        <v>1.0006858990262362</v>
+        <v>1.0006446709891419</v>
       </c>
       <c r="N41" s="15">
         <f>PRODUCT(N33:$O33)</f>
-        <v>1.0003116904860285</v>
+        <v>1.000270477866243</v>
       </c>
       <c r="O41" s="15">
         <f>PRODUCT(O33:$O33)</f>
-        <v>1.0001546937222012</v>
+        <v>1.0001134875706477</v>
       </c>
       <c r="P41" s="15"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.15">
       <c r="C42" s="45">
         <f>1/C41</f>
-        <v>3.6599416169075027E-2</v>
+        <v>3.6600924119030889E-2</v>
       </c>
       <c r="D42" s="45">
         <f>1/D41-1/C41</f>
-        <v>0.26663401382380286</v>
+        <v>0.26664499953864379</v>
       </c>
       <c r="E42" s="45">
         <f t="shared" ref="E42:O42" si="2">1/E41-1/D41</f>
-        <v>0.28856723795400668</v>
+        <v>0.28857912735004854</v>
       </c>
       <c r="F42" s="45">
         <f t="shared" si="2"/>
-        <v>0.1866920995712319</v>
+        <v>0.1866997915612354</v>
       </c>
       <c r="G42" s="45">
         <f t="shared" si="2"/>
-        <v>0.11576903327504307</v>
+        <v>0.11577380313005414</v>
       </c>
       <c r="H42" s="45">
         <f t="shared" si="2"/>
-        <v>5.6306602984561471E-2</v>
+        <v>5.6308922899695912E-2</v>
       </c>
       <c r="I42" s="45">
         <f t="shared" si="2"/>
-        <v>2.8900734275262074E-2</v>
+        <v>2.8901925028162911E-2</v>
       </c>
       <c r="J42" s="45">
         <f t="shared" si="2"/>
-        <v>1.1819209114950602E-2</v>
+        <v>1.181969608380784E-2</v>
       </c>
       <c r="K42" s="45">
         <f t="shared" si="2"/>
-        <v>5.0192962990535106E-3</v>
+        <v>5.0195031014680369E-3</v>
       </c>
       <c r="L42" s="45">
         <f t="shared" si="2"/>
-        <v>2.1168079964619668E-3</v>
+        <v>2.1168952120750317E-3</v>
       </c>
       <c r="M42" s="45">
         <f t="shared" si="2"/>
-        <v>8.9011964532370591E-4</v>
+        <v>8.9015631956679275E-4</v>
       </c>
       <c r="N42" s="45">
         <f t="shared" si="2"/>
-        <v>3.7383552588610147E-4</v>
+        <v>3.7385092846153878E-4</v>
       </c>
       <c r="O42" s="45">
         <f t="shared" si="2"/>
-        <v>1.5692356958618703E-4</v>
+        <v>1.5693003506878078E-4</v>
       </c>
       <c r="P42" s="45"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B43" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C43" s="15">
         <f>PRODUCT(C34:$O34)</f>
-        <v>82.079500762148484</v>
+        <v>81.897496357715809</v>
       </c>
       <c r="D43" s="15">
         <f>PRODUCT(D34:$O34)</f>
-        <v>5.7406793687812199</v>
+        <v>5.727949894066434</v>
       </c>
       <c r="E43" s="15">
         <f>PRODUCT(E34:$O34)</f>
-        <v>2.2777534269680322</v>
+        <v>2.2727026999037783</v>
       </c>
       <c r="F43" s="15">
         <f>PRODUCT(F34:$O34)</f>
-        <v>1.4967749069636247</v>
+        <v>1.4934559342239986</v>
       </c>
       <c r="G43" s="15">
         <f>PRODUCT(G34:$O34)</f>
-        <v>1.2158477182265863</v>
+        <v>1.2131516779512206</v>
       </c>
       <c r="H43" s="15">
         <f>PRODUCT(H34:$O34)</f>
-        <v>1.1015656199065365</v>
+        <v>1.0991229905930908</v>
       </c>
       <c r="I43" s="15">
         <f>PRODUCT(I34:$O34)</f>
-        <v>1.0486356720873982</v>
+        <v>1.0463104104911052</v>
       </c>
       <c r="J43" s="15">
         <f>PRODUCT(J34:$O34)</f>
-        <v>1.0257028078402062</v>
+        <v>1.0234283979457448</v>
       </c>
       <c r="K43" s="15">
         <f>PRODUCT(K34:$O34)</f>
-        <v>1.0141449816687749</v>
+        <v>1.0118962002838601</v>
       </c>
       <c r="L43" s="15">
         <f>PRODUCT(L34:$O34)</f>
-        <v>1.0082876486533163</v>
+        <v>1.0060518554127877</v>
       </c>
       <c r="M43" s="15">
         <f>PRODUCT(M34:$O34)</f>
-        <v>1.0053108108062208</v>
+        <v>1.0030816184537874</v>
       </c>
       <c r="N43" s="15">
         <f>PRODUCT(N34:$O34)</f>
-        <v>1.0037957170072496</v>
+        <v>1.0015698842481615</v>
       </c>
       <c r="O43" s="15">
         <f>PRODUCT(O34:$O34)</f>
-        <v>1.0030240234507533</v>
+        <v>1.0007999018573626</v>
       </c>
       <c r="P43" s="15"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.15">
       <c r="C44" s="45">
         <f>1/C43</f>
-        <v>1.2183309970388571E-2</v>
+        <v>1.2210385475425916E-2</v>
       </c>
       <c r="D44" s="45">
         <f>1/D43-1/C43</f>
-        <v>0.16201210067006075</v>
+        <v>0.16237214727959992</v>
       </c>
       <c r="E44" s="45">
         <f t="shared" ref="E44:O44" si="3">1/E43-1/D43</f>
-        <v>0.26483367308751238</v>
+        <v>0.26542222459503939</v>
       </c>
       <c r="F44" s="45">
         <f t="shared" si="3"/>
-        <v>0.22907404610644461</v>
+        <v>0.22958312742378389</v>
       </c>
       <c r="G44" s="45">
         <f t="shared" si="3"/>
-        <v>0.15436829073015423</v>
+        <v>0.15471135016502291</v>
       </c>
       <c r="H44" s="45">
         <f t="shared" si="3"/>
-        <v>8.5327426756805602E-2</v>
+        <v>8.5517053646262831E-2</v>
       </c>
       <c r="I44" s="45">
         <f t="shared" si="3"/>
-        <v>4.5821200725840949E-2</v>
+        <v>4.5923031193430108E-2</v>
       </c>
       <c r="J44" s="45">
         <f t="shared" si="3"/>
-        <v>2.1321223787343246E-2</v>
+        <v>2.1368606879742624E-2</v>
       </c>
       <c r="K44" s="45">
         <f t="shared" si="3"/>
-        <v>1.1111036341841407E-2</v>
+        <v>1.1135728886082275E-2</v>
       </c>
       <c r="L44" s="45">
         <f t="shared" si="3"/>
-        <v>5.7281637312176503E-3</v>
+        <v>5.7408936811521594E-3</v>
       </c>
       <c r="M44" s="45">
         <f t="shared" si="3"/>
-        <v>2.9367729990064095E-3</v>
+        <v>2.9432995186732258E-3</v>
       </c>
       <c r="N44" s="45">
         <f t="shared" si="3"/>
-        <v>1.5013910738541636E-3</v>
+        <v>1.5047276812031329E-3</v>
       </c>
       <c r="O44" s="45">
         <f t="shared" si="3"/>
-        <v>7.6645771614003433E-4</v>
+        <v>7.681610487979551E-4</v>
       </c>
       <c r="P44" s="45"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B45" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C45" s="15">
         <f>PRODUCT(C35:$O35)</f>
-        <v>5.4599958469076109</v>
+        <v>5.4579803386051235</v>
       </c>
       <c r="D45" s="15">
         <f>PRODUCT(D35:$O35)</f>
-        <v>1.6581018315645792</v>
+        <v>1.6574897582037946</v>
       </c>
       <c r="E45" s="15">
         <f>PRODUCT(E35:$O35)</f>
-        <v>1.2145104030553935</v>
+        <v>1.2140620774761346</v>
       </c>
       <c r="F45" s="15">
         <f>PRODUCT(F35:$O35)</f>
-        <v>1.082341034063016</v>
+        <v>1.0819414976162045</v>
       </c>
       <c r="G45" s="15">
         <f>PRODUCT(G35:$O35)</f>
-        <v>1.0349799077333599</v>
+        <v>1.0345978542198717</v>
       </c>
       <c r="H45" s="15">
         <f>PRODUCT(H35:$O35)</f>
-        <v>1.0136595915114737</v>
+        <v>1.0132854082007403</v>
       </c>
       <c r="I45" s="15">
         <f>PRODUCT(I35:$O35)</f>
-        <v>1.0060518978898814</v>
+        <v>1.0056805228907448</v>
       </c>
       <c r="J45" s="15">
         <f>PRODUCT(J35:$O35)</f>
-        <v>1.0033591799141925</v>
+        <v>1.0029887989076502</v>
       </c>
       <c r="K45" s="15">
         <f>PRODUCT(K35:$O35)</f>
-        <v>1.0018885154616688</v>
+        <v>1.0015732402173452</v>
       </c>
       <c r="L45" s="15">
         <f>PRODUCT(L35:$O35)</f>
-        <v>1.0010847583995337</v>
+        <v>1.0008283101980939</v>
       </c>
       <c r="M45" s="15">
         <f>PRODUCT(M35:$O35)</f>
-        <v>1.0006453241744668</v>
+        <v>1.0004361567843369</v>
       </c>
       <c r="N45" s="15">
         <f>PRODUCT(N35:$O35)</f>
-        <v>1.0004050266319942</v>
+        <v>1.0002296772160837</v>
       </c>
       <c r="O45" s="15">
         <f>PRODUCT(O35:$O35)</f>
-        <v>1.0002736094862021</v>
+        <v>1.0001209494166381</v>
       </c>
       <c r="P45" s="15"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.15">
       <c r="C46" s="45">
         <f>1/C45</f>
-        <v>0.18315032246157698</v>
+        <v>0.18321795572014948</v>
       </c>
       <c r="D46" s="45">
         <f>1/D45-1/C45</f>
-        <v>0.41994894500404273</v>
+        <v>0.4201040226211768</v>
       </c>
       <c r="E46" s="45">
         <f t="shared" ref="E46:O46" si="4">1/E45-1/D45</f>
-        <v>0.22027778841159562</v>
+        <v>0.22035913200095558</v>
       </c>
       <c r="F46" s="45">
         <f t="shared" si="4"/>
-        <v>0.10054615180722892</v>
+        <v>0.10058328121979176</v>
       </c>
       <c r="G46" s="45">
         <f t="shared" si="4"/>
-        <v>4.2279123904806593E-2</v>
+        <v>4.2294736625989482E-2</v>
       </c>
       <c r="H46" s="45">
         <f t="shared" si="4"/>
-        <v>2.0322147016919367E-2</v>
+        <v>2.0329651524722103E-2</v>
       </c>
       <c r="I46" s="45">
         <f t="shared" si="4"/>
-        <v>7.4600286517806369E-3</v>
+        <v>7.4627834711008534E-3</v>
       </c>
       <c r="J46" s="45">
         <f t="shared" si="4"/>
-        <v>2.6675591391694953E-3</v>
+        <v>2.6685442082350352E-3</v>
       </c>
       <c r="K46" s="45">
         <f t="shared" si="4"/>
-        <v>1.4629779091829276E-3</v>
+        <v>1.409123587528649E-3</v>
       </c>
       <c r="L46" s="45">
         <f t="shared" si="4"/>
-        <v>8.0137271989544345E-4</v>
+        <v>7.4314435220912411E-4</v>
       </c>
       <c r="M46" s="45">
         <f t="shared" si="4"/>
-        <v>4.3867497405702949E-4</v>
+        <v>3.9165803360952101E-4</v>
       </c>
       <c r="N46" s="45">
         <f t="shared" si="4"/>
-        <v>2.4004534790644794E-4</v>
+        <v>2.0634215795845012E-4</v>
       </c>
       <c r="O46" s="45">
         <f t="shared" si="4"/>
-        <v>1.3132800730919492E-4</v>
+        <v>1.0868968692734349E-4</v>
       </c>
       <c r="P46" s="45"/>
     </row>
@@ -12302,18 +12412,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18DA5D59-91E8-4115-A0FD-0EEDB6DE2D11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18DA5D59-91E8-4115-A0FD-0EEDB6DE2D11}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -12340,7 +12452,7 @@
       </c>
       <c r="S1" s="3"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
@@ -12402,7 +12514,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="7"/>
@@ -12423,7 +12535,7 @@
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <f>'CL quarter'!A4</f>
         <v>0</v>
@@ -12480,9 +12592,8 @@
         <f>Data!M1</f>
         <v>1</v>
       </c>
-      <c r="O4" s="34">
-        <f>SUM($C4:N4)*('CL quarter'!$N$32-1)</f>
-        <v>0.33705865398396329</v>
+      <c r="O4" s="46">
+        <v>1</v>
       </c>
       <c r="P4" s="35">
         <f>SUM(C4:N4)</f>
@@ -12494,18 +12605,18 @@
       </c>
       <c r="R4" s="37">
         <f t="shared" ref="R4:R19" si="1">S4-P4</f>
-        <v>0.33705865398405876</v>
+        <v>1</v>
       </c>
       <c r="S4" s="37">
         <f>SUM(C4:O4)</f>
-        <v>1078.3370586539841</v>
+        <v>1079</v>
       </c>
       <c r="T4" s="36">
         <f>S4/B4</f>
-        <v>9.9349277561634794E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.9410355629261107E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <f>'CL quarter'!A5</f>
         <v>1</v>
@@ -12587,7 +12698,7 @@
         <v>0.19804406704747146</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <f>'CL quarter'!A6</f>
         <v>2</v>
@@ -12644,9 +12755,8 @@
         <f>Data!M3</f>
         <v>0</v>
       </c>
-      <c r="O6" s="34">
-        <f>SUM($C6:N6)*('CL quarter'!$N$34-1)</f>
-        <v>0.77321380759208913</v>
+      <c r="O6" s="46">
+        <v>1</v>
       </c>
       <c r="P6" s="35">
         <f>SUM(C6:N6)</f>
@@ -12658,18 +12768,18 @@
       </c>
       <c r="R6" s="37">
         <f t="shared" si="1"/>
-        <v>0.77321380759212843</v>
+        <v>1</v>
       </c>
       <c r="S6" s="37">
         <f t="shared" si="2"/>
-        <v>1005.7732138075921</v>
+        <v>1006</v>
       </c>
       <c r="T6" s="36">
         <f t="shared" si="3"/>
-        <v>9.9917863481779473E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.9940393403536665E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <f>'CL quarter'!A7</f>
         <v>3</v>
@@ -12728,7 +12838,7 @@
       </c>
       <c r="O7" s="34">
         <f>SUM($C7:N7)*('CL quarter'!$N$35-1)</f>
-        <v>0.27747709154850497</v>
+        <v>0.22960534179713932</v>
       </c>
       <c r="P7" s="35">
         <f>SUM(C7:N7)</f>
@@ -12740,18 +12850,18 @@
       </c>
       <c r="R7" s="37">
         <f t="shared" si="1"/>
-        <v>0.27747709154846234</v>
+        <v>0.22960534179719616</v>
       </c>
       <c r="S7" s="37">
         <f t="shared" si="2"/>
-        <v>2112.2774770915485</v>
+        <v>2112.2296053417972</v>
       </c>
       <c r="T7" s="36">
         <f t="shared" si="3"/>
-        <v>0.20404535134191928</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.20404072694569139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <f>'CL quarter'!A8</f>
         <v>4</v>
@@ -12810,7 +12920,7 @@
       </c>
       <c r="O8" s="34">
         <f>SUM($C8:N8)*('CL quarter'!$N$32-1)</f>
-        <v>0.3132957062077284</v>
+        <v>8.0325599124737135E-2</v>
       </c>
       <c r="P8" s="35">
         <f>SUM(C8:N8)</f>
@@ -12822,18 +12932,18 @@
       </c>
       <c r="R8" s="37">
         <f t="shared" si="1"/>
-        <v>0.31329570620778213</v>
+        <v>8.0325599124762448E-2</v>
       </c>
       <c r="S8" s="37">
         <f t="shared" si="2"/>
-        <v>1002.3132957062078</v>
+        <v>1002.0803255991248</v>
       </c>
       <c r="T8" s="36">
         <f t="shared" si="3"/>
-        <v>0.10222471144377437</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.10220095110648901</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <f>'CL quarter'!A9</f>
         <v>5</v>
@@ -12915,7 +13025,7 @@
         <v>0.19937316413147535</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <f>'CL quarter'!A10</f>
         <v>6</v>
@@ -12997,7 +13107,7 @@
         <v>9.9854291137689941E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <f>'CL quarter'!A11</f>
         <v>7</v>
@@ -13044,19 +13154,19 @@
       </c>
       <c r="L11" s="34">
         <f>SUM($C11:K11)*('CL quarter'!K$35-1)</f>
-        <v>1.4178968961622189</v>
+        <v>1.3144576353329929</v>
       </c>
       <c r="M11" s="34">
         <f>SUM($C11:L11)*('CL quarter'!L$35-1)</f>
-        <v>0.77616303712113688</v>
+        <v>0.69275624740666331</v>
       </c>
       <c r="N11" s="34">
         <f>SUM($C11:M11)*('CL quarter'!M$35-1)</f>
-        <v>0.42472066403626568</v>
+        <v>0.36497354008444799</v>
       </c>
       <c r="O11" s="34">
         <f>SUM($C11:N11)*('CL quarter'!$N$35-1)</f>
-        <v>0.23236325534953015</v>
+        <v>0.19224796426030891</v>
       </c>
       <c r="P11" s="35">
         <f>SUM(C11:K11)</f>
@@ -13068,18 +13178,18 @@
       </c>
       <c r="R11" s="37">
         <f t="shared" si="1"/>
-        <v>2.8511438526691109</v>
+        <v>2.5644353870843588</v>
       </c>
       <c r="S11" s="37">
         <f t="shared" si="2"/>
-        <v>1768.8511438526691</v>
+        <v>1768.5644353870844</v>
       </c>
       <c r="T11" s="36">
         <f t="shared" si="3"/>
-        <v>0.20477554339577092</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.20474235186236217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <f>'CL quarter'!A12</f>
         <v>8</v>
@@ -13122,23 +13232,23 @@
       </c>
       <c r="K12" s="34">
         <f>SUM($C12:J12)*('CL quarter'!J$32-1)</f>
-        <v>2.2302203558499816</v>
+        <v>2.1397307233060339</v>
       </c>
       <c r="L12" s="34">
         <f>SUM($C12:K12)*('CL quarter'!K$32-1)</f>
-        <v>1.30177074740049</v>
+        <v>0.89788361099853875</v>
       </c>
       <c r="M12" s="34">
         <f>SUM($C12:L12)*('CL quarter'!L$32-1)</f>
-        <v>0.75897609190024551</v>
+        <v>0.37620314907978547</v>
       </c>
       <c r="N12" s="34">
         <f>SUM($C12:M12)*('CL quarter'!M$32-1)</f>
-        <v>0.44221590632445146</v>
+        <v>0.15752478390999047</v>
       </c>
       <c r="O12" s="34">
         <f>SUM($C12:N12)*('CL quarter'!$N$32-1)</f>
-        <v>0.2575569554156853</v>
+        <v>6.5941652585289043E-2</v>
       </c>
       <c r="P12" s="35">
         <f>SUM(C12:J12)</f>
@@ -13150,18 +13260,18 @@
       </c>
       <c r="R12" s="37">
         <f t="shared" si="1"/>
-        <v>4.990740056890786</v>
+        <v>3.6372839198794509</v>
       </c>
       <c r="S12" s="37">
         <f t="shared" si="2"/>
-        <v>823.99074005689079</v>
+        <v>822.63728391987945</v>
       </c>
       <c r="T12" s="36">
         <f t="shared" si="3"/>
-        <v>9.9240122854015511E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.9077114768141572E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <f>'CL quarter'!A13</f>
         <v>9</v>
@@ -13243,7 +13353,7 @@
         <v>0.19987387778650234</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <f>'CL quarter'!A14</f>
         <v>10</v>
@@ -13325,7 +13435,7 @@
         <v>0.1039087369575771</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <f>'CL quarter'!A15</f>
         <v>11</v>
@@ -13368,23 +13478,23 @@
       </c>
       <c r="K15" s="34">
         <f>SUM($C15:J15)*('CL quarter'!J$35-1)</f>
-        <v>2.5483190638809572</v>
+        <v>2.4536057118997059</v>
       </c>
       <c r="L15" s="34">
         <f>SUM($C15:K15)*('CL quarter'!K$35-1)</f>
-        <v>1.3958880490021333</v>
+        <v>1.2939838943036324</v>
       </c>
       <c r="M15" s="34">
         <f>SUM($C15:L15)*('CL quarter'!L$35-1)</f>
-        <v>0.76411529676600709</v>
+        <v>0.68196600843309418</v>
       </c>
       <c r="N15" s="34">
         <f>SUM($C15:M15)*('CL quarter'!M$35-1)</f>
-        <v>0.4181280745427664</v>
+        <v>0.35928878194436165</v>
       </c>
       <c r="O15" s="34">
         <f>SUM($C15:N15)*('CL quarter'!$N$35-1)</f>
-        <v>0.2287564716782704</v>
+        <v>0.18925354669378902</v>
       </c>
       <c r="P15" s="35">
         <f>SUM(C15:G15)</f>
@@ -13396,18 +13506,18 @@
       </c>
       <c r="R15" s="37">
         <f t="shared" si="1"/>
-        <v>58.394722599919533</v>
+        <v>58.017613587324149</v>
       </c>
       <c r="S15" s="37">
         <f t="shared" si="2"/>
-        <v>1741.3947225999195</v>
+        <v>1741.0176135873241</v>
       </c>
       <c r="T15" s="36">
         <f t="shared" si="3"/>
-        <v>0.20696395562157352</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.20691913639022155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <f>'CL quarter'!A16</f>
         <v>12</v>
@@ -13446,27 +13556,27 @@
       </c>
       <c r="J16" s="34">
         <f>SUM($C16:I16)*('CL quarter'!I$32-1)</f>
-        <v>3.4430585575101977</v>
+        <v>4.5944519107178774</v>
       </c>
       <c r="K16" s="34">
         <f>SUM($C16:J16)*('CL quarter'!J$32-1)</f>
-        <v>2.0136176240851267</v>
+        <v>1.9349246422221318</v>
       </c>
       <c r="L16" s="34">
         <f>SUM($C16:K16)*('CL quarter'!K$32-1)</f>
-        <v>1.1753405947570934</v>
+        <v>0.81194194477151571</v>
       </c>
       <c r="M16" s="34">
         <f>SUM($C16:L16)*('CL quarter'!L$32-1)</f>
-        <v>0.68526306420834637</v>
+        <v>0.34019455612215938</v>
       </c>
       <c r="N16" s="34">
         <f>SUM($C16:M16)*('CL quarter'!M$32-1)</f>
-        <v>0.399267157745192</v>
+        <v>0.14244717002390925</v>
       </c>
       <c r="O16" s="34">
         <f>SUM($C16:N16)*('CL quarter'!$N$32-1)</f>
-        <v>0.23254259305380351</v>
+        <v>5.9629993225964316E-2</v>
       </c>
       <c r="P16" s="35">
         <f>SUM(C16:F16)</f>
@@ -13478,18 +13588,18 @@
       </c>
       <c r="R16" s="37">
         <f t="shared" si="1"/>
-        <v>97.963380976830194</v>
+        <v>97.89788160255398</v>
       </c>
       <c r="S16" s="37">
         <f t="shared" si="2"/>
-        <v>743.96338097683019</v>
+        <v>743.89788160255398</v>
       </c>
       <c r="T16" s="36">
         <f t="shared" si="3"/>
-        <v>9.6181432576190065E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.6172964654499551E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <f>'CL quarter'!A17</f>
         <v>13</v>
@@ -13571,7 +13681,7 @@
         <v>0.18221818695261624</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <f>'CL quarter'!A18</f>
         <v>14</v>
@@ -13653,7 +13763,7 @@
         <v>0.11846905663592197</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <f>'CL quarter'!A19</f>
         <v>15</v>
@@ -13696,23 +13806,23 @@
       </c>
       <c r="K19" s="34">
         <f>SUM($C19:J19)*('CL quarter'!J$35-1)</f>
-        <v>2.5800766185670687</v>
+        <v>2.4841829338332659</v>
       </c>
       <c r="L19" s="34">
         <f>SUM($C19:K19)*('CL quarter'!K$35-1)</f>
-        <v>1.4132838263520711</v>
+        <v>1.3101097259817549</v>
       </c>
       <c r="M19" s="34">
         <f>SUM($C19:L19)*('CL quarter'!L$35-1)</f>
-        <v>0.77363782228782463</v>
+        <v>0.69046477654806471</v>
       </c>
       <c r="N19" s="34">
         <f>SUM($C19:M19)*('CL quarter'!M$35-1)</f>
-        <v>0.42333885265187315</v>
+        <v>0.36376629549532463</v>
       </c>
       <c r="O19" s="34">
         <f>SUM($C19:N19)*('CL quarter'!$N$35-1)</f>
-        <v>0.23160727096086131</v>
+        <v>0.19161205428565831</v>
       </c>
       <c r="P19" s="35">
         <f>SUM(C19)</f>
@@ -13724,18 +13834,18 @@
       </c>
       <c r="R19" s="37">
         <f t="shared" si="1"/>
-        <v>1440.096258689694</v>
+        <v>1439.7144500850181</v>
       </c>
       <c r="S19" s="37">
         <f t="shared" si="2"/>
-        <v>1763.096258689694</v>
+        <v>1762.7144500850181</v>
       </c>
       <c r="T19" s="36">
         <f t="shared" si="3"/>
-        <v>0.20099136555970062</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.20094783972697425</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -13756,7 +13866,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -13776,13 +13886,14 @@
       <c r="Q21" s="7"/>
       <c r="R21" s="38">
         <f>SUM(R4:R19)</f>
-        <v>3219.4095281446462</v>
+        <v>3217.5538322320922</v>
       </c>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/static/output/Excel/LRcountsxl2-sol3.xlsx
+++ b/static/output/Excel/LRcountsxl2-sol3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bavanzi/Dropbox/Mac (3)/Documents/GitHub/ACTL20004-ACTL90021-Tutorials/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bavanzi/Dropbox/Mac (3)/Documents/GitHub/ACTL20004-ACTL90021-2024/static/output/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17279DF1-FABA-9E40-89FA-B12FB71E5253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04393295-5617-BD44-8CD3-AB0ACB40C715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="800" windowWidth="23880" windowHeight="22480" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4340" yWindow="760" windowWidth="23880" windowHeight="21580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -293,7 +293,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,12 +386,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -5798,8 +5792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18:AB35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="B1:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6301,8 +6295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFCE99A-CC1A-4781-B2C6-ABF038B08394}">
   <dimension ref="A1:R77"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53:H53"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -10551,7 +10545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E739E852-3E62-41BB-B97E-37D430093FE9}">
   <dimension ref="A1:AA46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F18" workbookViewId="0">
+    <sheetView topLeftCell="F18" workbookViewId="0">
       <selection activeCell="Z48" sqref="Z48"/>
     </sheetView>
   </sheetViews>

--- a/static/output/Excel/LRcountsxl2-sol3.xlsx
+++ b/static/output/Excel/LRcountsxl2-sol3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bavanzi/Dropbox/Mac (3)/Documents/GitHub/ACTL20004-ACTL90021-2024/static/output/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bavanzi/Dropbox/Mac (3)/Documents/GitHub/ACTL20004-ACTL90021-Tutorials/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04393295-5617-BD44-8CD3-AB0ACB40C715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC95CDDA-7155-444C-AB01-EBE4A9385AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="760" windowWidth="23880" windowHeight="21580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-47200" yWindow="-420" windowWidth="23880" windowHeight="21580" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -502,7 +502,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -557,6 +557,7 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2838,49 +2839,49 @@
                   <c:v>9.9410355629261107E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19804406704747146</c:v>
+                  <c:v>0.1980665390600343</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>9.9940393403536665E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.20404072694569139</c:v>
+                  <c:v>0.20406540286995145</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10220095110648901</c:v>
+                  <c:v>0.1022068477878233</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.19937316413147535</c:v>
+                  <c:v>0.19939578695636401</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.9854291137689941E-2</c:v>
+                  <c:v>9.993410336574432E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.20474235186236217</c:v>
+                  <c:v>0.20476711263852196</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.9077114768141572E-2</c:v>
+                  <c:v>9.9082831213702816E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.19987387778650234</c:v>
+                  <c:v>0.19989655742724879</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1039087369575771</c:v>
+                  <c:v>0.1039917898511124</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.20691913639022155</c:v>
+                  <c:v>0.20694416041858077</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.6172964654499551E-2</c:v>
+                  <c:v>9.6178513539508945E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.18221818695261624</c:v>
+                  <c:v>0.18223886320637847</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.11846905663592197</c:v>
+                  <c:v>0.11856374740241668</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.20094783972697425</c:v>
+                  <c:v>0.20097214160899332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5792,8 +5793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="B1:C15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18:AB35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6295,8 +6296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFCE99A-CC1A-4781-B2C6-ABF038B08394}">
   <dimension ref="A1:R77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53:H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -10545,8 +10546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E739E852-3E62-41BB-B97E-37D430093FE9}">
   <dimension ref="A1:AA46"/>
   <sheetViews>
-    <sheetView topLeftCell="F18" workbookViewId="0">
-      <selection activeCell="Z48" sqref="Z48"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="O44" sqref="C44:O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -11664,14 +11665,11 @@
         <f t="array" ref="M32">EXP(_xlfn.FORECAST.LINEAR(M$2-8,LN($H24:$J24-1),$H$2:$J$2-8))+1</f>
         <v>1.0001915395638561</v>
       </c>
-      <c r="N32" s="24" cm="1">
-        <f t="array" ref="N32">EXP(_xlfn.FORECAST.LINEAR(N$2-8,LN($H24:$J24-1),$H$2:$J$2-8))+1</f>
-        <v>1.0000801652685876</v>
-      </c>
-      <c r="O32" s="25" cm="1">
-        <f t="array" ref="O32">EXP(INTERCEPT(LN(H24:J24-1),H$2:J$2-5))*EXP(SLOPE(LN(H24:J24-1),H$2:J$2-5))^(12-5)/(1-EXP(SLOPE(LN(H24:J24-1),H$2:J$2-5)))+1</f>
-        <v>1.000057701557368</v>
-      </c>
+      <c r="N32" s="25" cm="1">
+        <f t="array" ref="N32">EXP(INTERCEPT(LN(H24:J24-1),H$2:J$2-5))*EXP(SLOPE(LN(H24:J24-1),H$2:J$2-5))^(11-5)/(1-EXP(SLOPE(LN(H24:J24-1),H$2:J$2-5)))+1</f>
+        <v>1.0001378668259555</v>
+      </c>
+      <c r="O32" s="48"/>
       <c r="Q32" s="47" t="s">
         <v>53</v>
       </c>
@@ -11737,14 +11735,11 @@
         <f t="array" ref="M33">EXP(_xlfn.FORECAST.LINEAR(M$2-8,LN($H25:$K25-1),$H$2:$K$2-8))+1</f>
         <v>1.0003740919393094</v>
       </c>
-      <c r="N33" s="24" cm="1">
-        <f t="array" ref="N33">EXP(_xlfn.FORECAST.LINEAR(N$2-8,LN($H25:$K25-1),$H$2:$K$2-8))+1</f>
-        <v>1.0001569724811699</v>
-      </c>
-      <c r="O33" s="25" cm="1">
-        <f t="array" ref="O33">EXP(INTERCEPT(LN(H25:K25-1),H$2:K$2-5))*EXP(SLOPE(LN(H25:K25-1),H$2:K$2-5))^(12-5)/(1-EXP(SLOPE(LN(H25:K25-1),H$2:K$2-5)))+1</f>
-        <v>1.0001134875706477</v>
-      </c>
+      <c r="N33" s="25" cm="1">
+        <f t="array" ref="N33">EXP(INTERCEPT(LN(H25:K25-1),H$2:K$2-5))*EXP(SLOPE(LN(H25:K25-1),H$2:K$2-5))^(11-5)/(1-EXP(SLOPE(LN(H25:K25-1),H$2:K$2-5)))+1</f>
+        <v>1.0002704600518175</v>
+      </c>
+      <c r="O33" s="48"/>
       <c r="Q33" s="47" t="s">
         <v>53</v>
       </c>
@@ -11808,14 +11803,11 @@
         <f t="array" ref="M34">EXP(_xlfn.FORECAST.LINEAR(M$2-8,LN($H26:$L26-1),$H$2:$L$2-8))+1</f>
         <v>1.0015093646777935</v>
       </c>
-      <c r="N34" s="24" cm="1">
-        <f t="array" ref="N34">EXP(_xlfn.FORECAST.LINEAR(N$2-8,LN($H26:$L26-1),$H$2:$L$2-8))+1</f>
-        <v>1.0007693669727284</v>
-      </c>
-      <c r="O34" s="25" cm="1">
-        <f t="array" ref="O34">EXP(INTERCEPT(LN(H26:L26-1),H$2:L$2-5))*EXP(SLOPE(LN(H26:L26-1),H$2:L$2-5))^(12-5)/(1-EXP(SLOPE(LN(H26:L26-1),H$2:L$2-5)))+1</f>
-        <v>1.0007999018573626</v>
-      </c>
+      <c r="N34" s="25" cm="1">
+        <f t="array" ref="N34">EXP(INTERCEPT(LN(H26:L26-1),H$2:L$2-5))*EXP(SLOPE(LN(H26:L26-1),H$2:L$2-5))^(11-5)/(1-EXP(SLOPE(LN(H26:L26-1),H$2:L$2-5)))+1</f>
+        <v>1.001569268830091</v>
+      </c>
+      <c r="O34" s="48"/>
       <c r="Q34" s="47" t="s">
         <v>53</v>
       </c>
@@ -11879,14 +11871,11 @@
         <f t="array" ref="M35">EXP(_xlfn.FORECAST.LINEAR(M$2-8,LN($H27:$K27-1),$H$2:$K$2-8))+1</f>
         <v>1.0002064321554904</v>
       </c>
-      <c r="N35" s="24" cm="1">
-        <f t="array" ref="N35">EXP(_xlfn.FORECAST.LINEAR(N$2-8,LN($H27:$K27-1),$H$2:$K$2-8))+1</f>
-        <v>1.0001087146504721</v>
-      </c>
-      <c r="O35" s="25" cm="1">
-        <f t="array" ref="O35">EXP(INTERCEPT(LN(H27:K27-1),H$2:K$2-5))*EXP(SLOPE(LN(H27:K27-1),H$2:K$2-5))^(12-5)/(1-EXP(SLOPE(LN(H27:K27-1),H$2:K$2-5)))+1</f>
-        <v>1.0001209494166381</v>
-      </c>
+      <c r="N35" s="25" cm="1">
+        <f t="array" ref="N35">EXP(INTERCEPT(LN(H27:K27-1),H$2:K$2-5))*EXP(SLOPE(LN(H27:K27-1),H$2:K$2-5))^(11-5)/(1-EXP(SLOPE(LN(H27:K27-1),H$2:K$2-5)))+1</f>
+        <v>1.0002296640671104</v>
+      </c>
+      <c r="O35" s="48"/>
       <c r="Q35" s="47" t="s">
         <v>53</v>
       </c>
@@ -11951,55 +11940,54 @@
       </c>
       <c r="C39" s="15">
         <f>PRODUCT(C32:$O32)</f>
-        <v>11.112345436937888</v>
+        <v>11.112345385543033</v>
       </c>
       <c r="D39" s="15">
         <f>PRODUCT(D32:$O32)</f>
-        <v>2.2416047375864863</v>
+        <v>2.2416047272190123</v>
       </c>
       <c r="E39" s="15">
         <f>PRODUCT(E32:$O32)</f>
-        <v>1.3948906633431408</v>
+        <v>1.3948906568917392</v>
       </c>
       <c r="F39" s="15">
         <f>PRODUCT(F32:$O32)</f>
-        <v>1.1516111542861376</v>
+        <v>1.1516111489599095</v>
       </c>
       <c r="G39" s="15">
         <f>PRODUCT(G32:$O32)</f>
-        <v>1.0641630585644835</v>
+        <v>1.0641630536427047</v>
       </c>
       <c r="H39" s="15">
         <f>PRODUCT(H32:$O32)</f>
-        <v>1.024693923577104</v>
+        <v>1.024693918837871</v>
       </c>
       <c r="I39" s="15">
         <f>PRODUCT(I32:$O32)</f>
-        <v>1.0107695113751853</v>
+        <v>1.010769506700353</v>
       </c>
       <c r="J39" s="15">
         <f>PRODUCT(J32:$O32)</f>
-        <v>1.0044990859246774</v>
+        <v>1.0044990812788459</v>
       </c>
       <c r="K39" s="15">
         <f>PRODUCT(K32:$O32)</f>
-        <v>1.0018815563188543</v>
+        <v>1.0018815516851289</v>
       </c>
       <c r="L39" s="15">
         <f>PRODUCT(L32:$O32)</f>
-        <v>1.0007872353122556</v>
+        <v>1.0007872306835912</v>
       </c>
       <c r="M39" s="15">
         <f>PRODUCT(M32:$O32)</f>
-        <v>1.00032943742331</v>
+        <v>1.0003294327967633</v>
       </c>
       <c r="N39" s="15">
         <f>PRODUCT(N32:$O32)</f>
-        <v>1.0001378714516163</v>
+        <v>1.0001378668259555</v>
       </c>
       <c r="O39" s="15">
-        <f>PRODUCT(O32:$O32)</f>
-        <v>1.000057701557368</v>
+        <v>1</v>
       </c>
       <c r="P39" s="15"/>
     </row>
@@ -12009,55 +11997,55 @@
       </c>
       <c r="C40" s="45">
         <f>1/C39</f>
-        <v>8.9990003071355157E-2</v>
+        <v>8.9990003487561004E-2</v>
       </c>
       <c r="D40" s="45">
         <f>1/D39-1/C39</f>
-        <v>0.35611897556896044</v>
+        <v>0.35611897721601893</v>
       </c>
       <c r="E40" s="45">
         <f t="shared" ref="E40:O40" si="1">1/E39-1/D39</f>
-        <v>0.27079308851044975</v>
+        <v>0.27079308976287408</v>
       </c>
       <c r="F40" s="45">
         <f t="shared" si="1"/>
-        <v>0.15144659053472009</v>
+        <v>0.15144659123516391</v>
       </c>
       <c r="G40" s="45">
         <f t="shared" si="1"/>
-        <v>7.1356955990827475E-2</v>
+        <v>7.1356956320855147E-2</v>
       </c>
       <c r="H40" s="45">
         <f t="shared" si="1"/>
-        <v>3.6195557386651922E-2</v>
+        <v>3.6195557554057234E-2</v>
       </c>
       <c r="I40" s="45">
         <f t="shared" si="1"/>
-        <v>1.34440641721848E-2</v>
+        <v>1.3444064234363839E-2</v>
       </c>
       <c r="J40" s="45">
         <f t="shared" si="1"/>
-        <v>6.1758299527436833E-3</v>
+        <v>6.1758299813070572E-3</v>
       </c>
       <c r="K40" s="45">
         <f t="shared" si="1"/>
-        <v>2.6009120987555701E-3</v>
+        <v>2.6009121107849476E-3</v>
       </c>
       <c r="L40" s="45">
         <f t="shared" si="1"/>
-        <v>1.0914066530354205E-3</v>
+        <v>1.0914066580833826E-3</v>
       </c>
       <c r="M40" s="45">
         <f t="shared" si="1"/>
-        <v>4.5728713027981538E-4</v>
+        <v>4.5728713239445717E-4</v>
       </c>
       <c r="N40" s="45">
         <f t="shared" si="1"/>
-        <v>1.9147648433648357E-4</v>
+        <v>1.9147648522210847E-4</v>
       </c>
       <c r="O40" s="45">
-        <f t="shared" si="1"/>
-        <v>8.0154217609096357E-5</v>
+        <f>1/O39-1/N39</f>
+        <v>1.3784782131387452E-4</v>
       </c>
       <c r="P40" s="45"/>
     </row>
@@ -12067,110 +12055,109 @@
       </c>
       <c r="C41" s="15">
         <f>PRODUCT(C33:$O33)</f>
-        <v>27.32171452141132</v>
+        <v>27.321714034822286</v>
       </c>
       <c r="D41" s="15">
         <f>PRODUCT(D33:$O33)</f>
-        <v>3.2976535609720856</v>
+        <v>3.2976535022421669</v>
       </c>
       <c r="E41" s="15">
         <f>PRODUCT(E33:$O33)</f>
-        <v>1.6896885292321806</v>
+        <v>1.6896884991394896</v>
       </c>
       <c r="F41" s="15">
         <f>PRODUCT(F33:$O33)</f>
-        <v>1.2844805269157793</v>
+        <v>1.2844805040396841</v>
       </c>
       <c r="G41" s="15">
         <f>PRODUCT(G33:$O33)</f>
-        <v>1.1181946934721876</v>
+        <v>1.1181946735575781</v>
       </c>
       <c r="H41" s="15">
         <f>PRODUCT(H33:$O33)</f>
-        <v>1.0519588030148979</v>
+        <v>1.0519587842799234</v>
       </c>
       <c r="I41" s="15">
         <f>PRODUCT(I33:$O33)</f>
-        <v>1.0209191503568356</v>
+        <v>1.0209191321746651</v>
       </c>
       <c r="J41" s="15">
         <f>PRODUCT(J33:$O33)</f>
-        <v>1.0087466508394161</v>
+        <v>1.0087466328740333</v>
       </c>
       <c r="K41" s="15">
         <f>PRODUCT(K33:$O33)</f>
-        <v>1.0036646880898161</v>
+        <v>1.003664670214941</v>
       </c>
       <c r="L41" s="15">
         <f>PRODUCT(L33:$O33)</f>
-        <v>1.0015367700140911</v>
+        <v>1.0015367521771132</v>
       </c>
       <c r="M41" s="15">
         <f>PRODUCT(M33:$O33)</f>
-        <v>1.0006446709891419</v>
+        <v>1.0006446531680522</v>
       </c>
       <c r="N41" s="15">
         <f>PRODUCT(N33:$O33)</f>
-        <v>1.000270477866243</v>
+        <v>1.0002704600518175</v>
       </c>
       <c r="O41" s="15">
-        <f>PRODUCT(O33:$O33)</f>
-        <v>1.0001134875706477</v>
+        <v>1</v>
       </c>
       <c r="P41" s="15"/>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.15">
       <c r="C42" s="45">
         <f>1/C41</f>
-        <v>3.6600924119030889E-2</v>
+        <v>3.660092477087902E-2</v>
       </c>
       <c r="D42" s="45">
         <f>1/D41-1/C41</f>
-        <v>0.26664499953864379</v>
+        <v>0.26664500428748689</v>
       </c>
       <c r="E42" s="45">
         <f t="shared" ref="E42:O42" si="2">1/E41-1/D41</f>
-        <v>0.28857912735004854</v>
+        <v>0.28857913248952982</v>
       </c>
       <c r="F42" s="45">
         <f t="shared" si="2"/>
-        <v>0.1866997915612354</v>
+        <v>0.18669979488628574</v>
       </c>
       <c r="G42" s="45">
         <f t="shared" si="2"/>
-        <v>0.11577380313005414</v>
+        <v>0.11577380519194014</v>
       </c>
       <c r="H42" s="45">
         <f t="shared" si="2"/>
-        <v>5.6308922899695912E-2</v>
+        <v>5.6308923902536057E-2</v>
       </c>
       <c r="I42" s="45">
         <f t="shared" si="2"/>
-        <v>2.8901925028162911E-2</v>
+        <v>2.8901925542894946E-2</v>
       </c>
       <c r="J42" s="45">
         <f t="shared" si="2"/>
-        <v>1.181969608380784E-2</v>
+        <v>1.1819696294311788E-2</v>
       </c>
       <c r="K42" s="45">
         <f t="shared" si="2"/>
-        <v>5.0195031014680369E-3</v>
+        <v>5.0195031908635279E-3</v>
       </c>
       <c r="L42" s="45">
         <f t="shared" si="2"/>
-        <v>2.1168952120750317E-3</v>
+        <v>2.1168952497762072E-3</v>
       </c>
       <c r="M42" s="45">
         <f t="shared" si="2"/>
-        <v>8.9015631956679275E-4</v>
+        <v>8.9015633541988937E-4</v>
       </c>
       <c r="N42" s="45">
         <f t="shared" si="2"/>
-        <v>3.7385092846153878E-4</v>
+        <v>3.7385093511965728E-4</v>
       </c>
       <c r="O42" s="45">
         <f t="shared" si="2"/>
-        <v>1.5693003506878078E-4</v>
+        <v>2.7038692295633382E-4</v>
       </c>
       <c r="P42" s="45"/>
     </row>
@@ -12180,110 +12167,109 @@
       </c>
       <c r="C43" s="15">
         <f>PRODUCT(C34:$O34)</f>
-        <v>81.897496357715809</v>
+        <v>81.897446035516651</v>
       </c>
       <c r="D43" s="15">
         <f>PRODUCT(D34:$O34)</f>
-        <v>5.727949894066434</v>
+        <v>5.7279463745078623</v>
       </c>
       <c r="E43" s="15">
         <f>PRODUCT(E34:$O34)</f>
-        <v>2.2727026999037783</v>
+        <v>2.2727013034337644</v>
       </c>
       <c r="F43" s="15">
         <f>PRODUCT(F34:$O34)</f>
-        <v>1.4934559342239986</v>
+        <v>1.4934550165648477</v>
       </c>
       <c r="G43" s="15">
         <f>PRODUCT(G34:$O34)</f>
-        <v>1.2131516779512206</v>
+        <v>1.213150932525987</v>
       </c>
       <c r="H43" s="15">
         <f>PRODUCT(H34:$O34)</f>
-        <v>1.0991229905930908</v>
+        <v>1.0991223152331777</v>
       </c>
       <c r="I43" s="15">
         <f>PRODUCT(I34:$O34)</f>
-        <v>1.0463104104911052</v>
+        <v>1.0463097675820641</v>
       </c>
       <c r="J43" s="15">
         <f>PRODUCT(J34:$O34)</f>
-        <v>1.0234283979457448</v>
+        <v>1.0234277690966351</v>
       </c>
       <c r="K43" s="15">
         <f>PRODUCT(K34:$O34)</f>
-        <v>1.0118962002838601</v>
+        <v>1.0118955785207491</v>
       </c>
       <c r="L43" s="15">
         <f>PRODUCT(L34:$O34)</f>
-        <v>1.0060518554127877</v>
+        <v>1.0060512372407544</v>
       </c>
       <c r="M43" s="15">
         <f>PRODUCT(M34:$O34)</f>
-        <v>1.0030816184537874</v>
+        <v>1.0030810021068266</v>
       </c>
       <c r="N43" s="15">
         <f>PRODUCT(N34:$O34)</f>
-        <v>1.0015698842481615</v>
+        <v>1.001569268830091</v>
       </c>
       <c r="O43" s="15">
-        <f>PRODUCT(O34:$O34)</f>
-        <v>1.0007999018573626</v>
+        <v>1</v>
       </c>
       <c r="P43" s="15"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.15">
       <c r="C44" s="45">
         <f>1/C43</f>
-        <v>1.2210385475425916E-2</v>
+        <v>1.2210392978144004E-2</v>
       </c>
       <c r="D44" s="45">
         <f>1/D43-1/C43</f>
-        <v>0.16237214727959992</v>
+        <v>0.16237224704978725</v>
       </c>
       <c r="E44" s="45">
         <f t="shared" ref="E44:O44" si="3">1/E43-1/D43</f>
-        <v>0.26542222459503939</v>
+        <v>0.26542238768474102</v>
       </c>
       <c r="F44" s="45">
         <f t="shared" si="3"/>
-        <v>0.22958312742378389</v>
+        <v>0.22958326849201544</v>
       </c>
       <c r="G44" s="45">
         <f t="shared" si="3"/>
-        <v>0.15471135016502291</v>
+        <v>0.15471144522800406</v>
       </c>
       <c r="H44" s="45">
         <f t="shared" si="3"/>
-        <v>8.5517053646262831E-2</v>
+        <v>8.5517106192543602E-2</v>
       </c>
       <c r="I44" s="45">
         <f t="shared" si="3"/>
-        <v>4.5923031193430108E-2</v>
+        <v>4.592305941101249E-2</v>
       </c>
       <c r="J44" s="45">
         <f t="shared" si="3"/>
-        <v>2.1368606879742624E-2</v>
+        <v>2.1368620009764805E-2</v>
       </c>
       <c r="K44" s="45">
         <f t="shared" si="3"/>
-        <v>1.1135728886082275E-2</v>
+        <v>1.1135735728473595E-2</v>
       </c>
       <c r="L44" s="45">
         <f t="shared" si="3"/>
-        <v>5.7408936811521594E-3</v>
+        <v>5.74089720866644E-3</v>
       </c>
       <c r="M44" s="45">
         <f t="shared" si="3"/>
-        <v>2.9432995186732258E-3</v>
+        <v>2.9433013271946695E-3</v>
       </c>
       <c r="N44" s="45">
         <f t="shared" si="3"/>
-        <v>1.5047276812031329E-3</v>
+        <v>1.5047286057888742E-3</v>
       </c>
       <c r="O44" s="45">
         <f t="shared" si="3"/>
-        <v>7.681610487979551E-4</v>
+        <v>1.5668100838637233E-3</v>
       </c>
       <c r="P44" s="45"/>
     </row>
@@ -12293,110 +12279,109 @@
       </c>
       <c r="C45" s="15">
         <f>PRODUCT(C35:$O35)</f>
-        <v>5.4579803386051235</v>
+        <v>5.457980266854765</v>
       </c>
       <c r="D45" s="15">
         <f>PRODUCT(D35:$O35)</f>
-        <v>1.6574897582037946</v>
+        <v>1.6574897364145105</v>
       </c>
       <c r="E45" s="15">
         <f>PRODUCT(E35:$O35)</f>
-        <v>1.2140620774761346</v>
+        <v>1.2140620615161304</v>
       </c>
       <c r="F45" s="15">
         <f>PRODUCT(F35:$O35)</f>
-        <v>1.0819414976162045</v>
+        <v>1.0819414833930514</v>
       </c>
       <c r="G45" s="15">
         <f>PRODUCT(G35:$O35)</f>
-        <v>1.0345978542198717</v>
+        <v>1.0345978406190959</v>
       </c>
       <c r="H45" s="15">
         <f>PRODUCT(H35:$O35)</f>
-        <v>1.0132854082007403</v>
+        <v>1.013285394880137</v>
       </c>
       <c r="I45" s="15">
         <f>PRODUCT(I35:$O35)</f>
-        <v>1.0056805228907448</v>
+        <v>1.0056805096701151</v>
       </c>
       <c r="J45" s="15">
         <f>PRODUCT(J35:$O35)</f>
-        <v>1.0029887989076502</v>
+        <v>1.0029887857224056</v>
       </c>
       <c r="K45" s="15">
         <f>PRODUCT(K35:$O35)</f>
-        <v>1.0015732402173452</v>
+        <v>1.0015732270507092</v>
       </c>
       <c r="L45" s="15">
         <f>PRODUCT(L35:$O35)</f>
-        <v>1.0008283101980939</v>
+        <v>1.000828297041251</v>
       </c>
       <c r="M45" s="15">
         <f>PRODUCT(M35:$O35)</f>
-        <v>1.0004361567843369</v>
+        <v>1.0004361436326492</v>
       </c>
       <c r="N45" s="15">
         <f>PRODUCT(N35:$O35)</f>
-        <v>1.0002296772160837</v>
+        <v>1.0002296640671104</v>
       </c>
       <c r="O45" s="15">
-        <f>PRODUCT(O35:$O35)</f>
-        <v>1.0001209494166381</v>
+        <v>1</v>
       </c>
       <c r="P45" s="15"/>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.15">
       <c r="C46" s="45">
         <f>1/C45</f>
-        <v>0.18321795572014948</v>
+        <v>0.18321795812872432</v>
       </c>
       <c r="D46" s="45">
         <f>1/D45-1/C45</f>
-        <v>0.4201040226211768</v>
+        <v>0.42010402814384507</v>
       </c>
       <c r="E46" s="45">
         <f t="shared" ref="E46:O46" si="4">1/E45-1/D45</f>
-        <v>0.22035913200095558</v>
+        <v>0.22035913489778658</v>
       </c>
       <c r="F46" s="45">
         <f t="shared" si="4"/>
-        <v>0.10058328121979176</v>
+        <v>0.10058328254205495</v>
       </c>
       <c r="G46" s="45">
         <f t="shared" si="4"/>
-        <v>4.2294736625989482E-2</v>
+        <v>4.2294737181994169E-2</v>
       </c>
       <c r="H46" s="45">
         <f t="shared" si="4"/>
-        <v>2.0329651524722103E-2</v>
+        <v>2.0329651791974657E-2</v>
       </c>
       <c r="I46" s="45">
         <f t="shared" si="4"/>
-        <v>7.4627834711008534E-3</v>
+        <v>7.462783569206155E-3</v>
       </c>
       <c r="J46" s="45">
         <f t="shared" si="4"/>
-        <v>2.6685442082350352E-3</v>
+        <v>2.6685442433158624E-3</v>
       </c>
       <c r="K46" s="45">
         <f t="shared" si="4"/>
-        <v>1.409123587528649E-3</v>
+        <v>1.4091236060531642E-3</v>
       </c>
       <c r="L46" s="45">
         <f t="shared" si="4"/>
-        <v>7.4314435220912411E-4</v>
+        <v>7.4314436197819855E-4</v>
       </c>
       <c r="M46" s="45">
         <f t="shared" si="4"/>
-        <v>3.9165803360952101E-4</v>
+        <v>3.916580387582913E-4</v>
       </c>
       <c r="N46" s="45">
         <f t="shared" si="4"/>
-        <v>2.0634215795845012E-4</v>
+        <v>2.0634216067083599E-4</v>
       </c>
       <c r="O46" s="45">
         <f t="shared" si="4"/>
-        <v>1.0868968692734349E-4</v>
+        <v>2.2961133363774699E-4</v>
       </c>
       <c r="P46" s="45"/>
     </row>
@@ -12409,8 +12394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18DA5D59-91E8-4115-A0FD-0EEDB6DE2D11}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12669,7 +12654,7 @@
       </c>
       <c r="O5" s="34">
         <f>SUM($C5:N5)*('CL quarter'!$N$33-1)</f>
-        <v>0.31598560459492653</v>
+        <v>0.54443608430867307</v>
       </c>
       <c r="P5" s="35">
         <f>SUM(C5:N5)</f>
@@ -12681,15 +12666,15 @@
       </c>
       <c r="R5" s="37">
         <f t="shared" si="1"/>
-        <v>0.31598560459497094</v>
+        <v>0.54443608430869972</v>
       </c>
       <c r="S5" s="37">
         <f t="shared" ref="S5:S19" si="2">SUM(C5:O5)</f>
-        <v>2013.315985604595</v>
+        <v>2013.5444360843087</v>
       </c>
       <c r="T5" s="36">
         <f t="shared" ref="T5:T19" si="3">S5/B5</f>
-        <v>0.19804406704747146</v>
+        <v>0.1980665390600343</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="16" x14ac:dyDescent="0.2">
@@ -12832,7 +12817,7 @@
       </c>
       <c r="O7" s="34">
         <f>SUM($C7:N7)*('CL quarter'!$N$35-1)</f>
-        <v>0.22960534179713932</v>
+        <v>0.48505050973726327</v>
       </c>
       <c r="P7" s="35">
         <f>SUM(C7:N7)</f>
@@ -12844,15 +12829,15 @@
       </c>
       <c r="R7" s="37">
         <f t="shared" si="1"/>
-        <v>0.22960534179719616</v>
+        <v>0.48505050973744801</v>
       </c>
       <c r="S7" s="37">
         <f t="shared" si="2"/>
-        <v>2112.2296053417972</v>
+        <v>2112.4850505097374</v>
       </c>
       <c r="T7" s="36">
         <f t="shared" si="3"/>
-        <v>0.20404072694569139</v>
+        <v>0.20406540286995145</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="16" x14ac:dyDescent="0.2">
@@ -12914,7 +12899,7 @@
       </c>
       <c r="O8" s="34">
         <f>SUM($C8:N8)*('CL quarter'!$N$32-1)</f>
-        <v>8.0325599124737135E-2</v>
+        <v>0.13814255960742372</v>
       </c>
       <c r="P8" s="35">
         <f>SUM(C8:N8)</f>
@@ -12926,15 +12911,15 @@
       </c>
       <c r="R8" s="37">
         <f t="shared" si="1"/>
-        <v>8.0325599124762448E-2</v>
+        <v>0.13814255960744504</v>
       </c>
       <c r="S8" s="37">
         <f t="shared" si="2"/>
-        <v>1002.0803255991248</v>
+        <v>1002.1381425596074</v>
       </c>
       <c r="T8" s="36">
         <f t="shared" si="3"/>
-        <v>0.10220095110648901</v>
+        <v>0.1022068477878233</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="16" x14ac:dyDescent="0.2">
@@ -12996,7 +12981,7 @@
       </c>
       <c r="O9" s="34">
         <f>SUM($C9:N9)*('CL quarter'!$N$33-1)</f>
-        <v>0.32458349724127022</v>
+        <v>0.55925005981139397</v>
       </c>
       <c r="P9" s="35">
         <f>SUM(C9:M9)</f>
@@ -13008,15 +12993,15 @@
       </c>
       <c r="R9" s="37">
         <f t="shared" si="1"/>
-        <v>1.09783153579383</v>
+        <v>1.3324980983638852</v>
       </c>
       <c r="S9" s="37">
         <f t="shared" si="2"/>
-        <v>2068.0978315357938</v>
+        <v>2068.3324980983639</v>
       </c>
       <c r="T9" s="36">
         <f t="shared" si="3"/>
-        <v>0.19937316413147535</v>
+        <v>0.19939578695636401</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="16" x14ac:dyDescent="0.2">
@@ -13078,7 +13063,7 @@
       </c>
       <c r="O10" s="34">
         <f>SUM($C10:N10)*('CL quarter'!$N$34-1)</f>
-        <v>0.64452341356472265</v>
+        <v>1.3146268803092573</v>
       </c>
       <c r="P10" s="35">
         <f>SUM(C10:L10)</f>
@@ -13090,15 +13075,15 @@
       </c>
       <c r="R10" s="37">
         <f t="shared" si="1"/>
-        <v>4.3766283920447222</v>
+        <v>5.0467318587892578</v>
       </c>
       <c r="S10" s="37">
         <f t="shared" si="2"/>
-        <v>838.37662839204472</v>
+        <v>839.04673185878926</v>
       </c>
       <c r="T10" s="36">
         <f t="shared" si="3"/>
-        <v>9.9854291137689941E-2</v>
+        <v>9.993410336574432E-2</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="16" x14ac:dyDescent="0.2">
@@ -13160,7 +13145,7 @@
       </c>
       <c r="O11" s="34">
         <f>SUM($C11:N11)*('CL quarter'!$N$35-1)</f>
-        <v>0.19224796426030891</v>
+        <v>0.40613154872852275</v>
       </c>
       <c r="P11" s="35">
         <f>SUM(C11:K11)</f>
@@ -13172,15 +13157,15 @@
       </c>
       <c r="R11" s="37">
         <f t="shared" si="1"/>
-        <v>2.5644353870843588</v>
+        <v>2.7783189715526078</v>
       </c>
       <c r="S11" s="37">
         <f t="shared" si="2"/>
-        <v>1768.5644353870844</v>
+        <v>1768.7783189715526</v>
       </c>
       <c r="T11" s="36">
         <f t="shared" si="3"/>
-        <v>0.20474235186236217</v>
+        <v>0.20476711263852196</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="16" x14ac:dyDescent="0.2">
@@ -13242,7 +13227,7 @@
       </c>
       <c r="O12" s="34">
         <f>SUM($C12:N12)*('CL quarter'!$N$32-1)</f>
-        <v>6.5941652585289043E-2</v>
+        <v>0.11340530008035751</v>
       </c>
       <c r="P12" s="35">
         <f>SUM(C12:J12)</f>
@@ -13254,15 +13239,15 @@
       </c>
       <c r="R12" s="37">
         <f t="shared" si="1"/>
-        <v>3.6372839198794509</v>
+        <v>3.6847475673745294</v>
       </c>
       <c r="S12" s="37">
         <f t="shared" si="2"/>
-        <v>822.63728391987945</v>
+        <v>822.68474756737453</v>
       </c>
       <c r="T12" s="36">
         <f t="shared" si="3"/>
-        <v>9.9077114768141572E-2</v>
+        <v>9.9082831213702816E-2</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="16" x14ac:dyDescent="0.2">
@@ -13324,7 +13309,7 @@
       </c>
       <c r="O13" s="34">
         <f>SUM($C13:N13)*('CL quarter'!$N$33-1)</f>
-        <v>0.30328297818259625</v>
+        <v>0.52254974491916006</v>
       </c>
       <c r="P13" s="35">
         <f>SUM(C13:I13)</f>
@@ -13336,15 +13321,15 @@
       </c>
       <c r="R13" s="37">
         <f t="shared" si="1"/>
-        <v>39.380650439904684</v>
+        <v>39.599917206641294</v>
       </c>
       <c r="S13" s="37">
         <f t="shared" si="2"/>
-        <v>1932.3806504399047</v>
+        <v>1932.5999172066413</v>
       </c>
       <c r="T13" s="36">
         <f t="shared" si="3"/>
-        <v>0.19987387778650234</v>
+        <v>0.19989655742724879</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="16" x14ac:dyDescent="0.2">
@@ -13406,7 +13391,7 @@
       </c>
       <c r="O14" s="34">
         <f>SUM($C14:N14)*('CL quarter'!$N$34-1)</f>
-        <v>0.74298705290643663</v>
+        <v>1.5154620156781522</v>
       </c>
       <c r="P14" s="35">
         <f>SUM(C14:H14)</f>
@@ -13418,15 +13403,15 @@
       </c>
       <c r="R14" s="37">
         <f t="shared" si="1"/>
-        <v>86.455162442424694</v>
+        <v>87.227637405196447</v>
       </c>
       <c r="S14" s="37">
         <f t="shared" si="2"/>
-        <v>966.45516244242469</v>
+        <v>967.22763740519645</v>
       </c>
       <c r="T14" s="36">
         <f t="shared" si="3"/>
-        <v>0.1039087369575771</v>
+        <v>0.1039917898511124</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="16" x14ac:dyDescent="0.2">
@@ -13488,7 +13473,7 @@
       </c>
       <c r="O15" s="34">
         <f>SUM($C15:N15)*('CL quarter'!$N$35-1)</f>
-        <v>0.18925354669378902</v>
+        <v>0.39980572130814007</v>
       </c>
       <c r="P15" s="35">
         <f>SUM(C15:G15)</f>
@@ -13500,15 +13485,15 @@
       </c>
       <c r="R15" s="37">
         <f t="shared" si="1"/>
-        <v>58.017613587324149</v>
+        <v>58.228165761938499</v>
       </c>
       <c r="S15" s="37">
         <f t="shared" si="2"/>
-        <v>1741.0176135873241</v>
+        <v>1741.2281657619385</v>
       </c>
       <c r="T15" s="36">
         <f t="shared" si="3"/>
-        <v>0.20691913639022155</v>
+        <v>0.20694416041858077</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="16" x14ac:dyDescent="0.2">
@@ -13570,7 +13555,7 @@
       </c>
       <c r="O16" s="34">
         <f>SUM($C16:N16)*('CL quarter'!$N$32-1)</f>
-        <v>5.9629993225964316E-2</v>
+        <v>0.10255061877367609</v>
       </c>
       <c r="P16" s="35">
         <f>SUM(C16:F16)</f>
@@ -13582,15 +13567,15 @@
       </c>
       <c r="R16" s="37">
         <f t="shared" si="1"/>
-        <v>97.89788160255398</v>
+        <v>97.940802228101688</v>
       </c>
       <c r="S16" s="37">
         <f t="shared" si="2"/>
-        <v>743.89788160255398</v>
+        <v>743.94080222810169</v>
       </c>
       <c r="T16" s="36">
         <f t="shared" si="3"/>
-        <v>9.6172964654499551E-2</v>
+        <v>9.6178513539508945E-2</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="16" x14ac:dyDescent="0.2">
@@ -13652,7 +13637,7 @@
       </c>
       <c r="O17" s="34">
         <f>SUM($C17:N17)*('CL quarter'!$N$33-1)</f>
-        <v>0.24288919821538138</v>
+        <v>0.41849262141791443</v>
       </c>
       <c r="P17" s="35">
         <f>SUM(C17:E17)</f>
@@ -13664,15 +13649,15 @@
       </c>
       <c r="R17" s="37">
         <f t="shared" si="1"/>
-        <v>631.57906178856979</v>
+        <v>631.75466521177236</v>
       </c>
       <c r="S17" s="37">
         <f t="shared" si="2"/>
-        <v>1547.5790617885698</v>
+        <v>1547.7546652117724</v>
       </c>
       <c r="T17" s="36">
         <f t="shared" si="3"/>
-        <v>0.18221818695261624</v>
+        <v>0.18223886320637847</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="16" x14ac:dyDescent="0.2">
@@ -13734,7 +13719,7 @@
       </c>
       <c r="O18" s="34">
         <f>SUM($C18:N18)*('CL quarter'!$N$34-1)</f>
-        <v>0.79199783965580828</v>
+        <v>1.6154287450937292</v>
       </c>
       <c r="P18" s="35">
         <f>SUM(C18:D18)</f>
@@ -13746,15 +13731,15 @@
       </c>
       <c r="R18" s="37">
         <f t="shared" si="1"/>
-        <v>850.20691650597746</v>
+        <v>851.03034741141551</v>
       </c>
       <c r="S18" s="37">
         <f t="shared" si="2"/>
-        <v>1030.2069165059775</v>
+        <v>1031.0303474114155</v>
       </c>
       <c r="T18" s="36">
         <f t="shared" si="3"/>
-        <v>0.11846905663592197</v>
+        <v>0.11856374740241668</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="16" x14ac:dyDescent="0.2">
@@ -13816,7 +13801,7 @@
       </c>
       <c r="O19" s="34">
         <f>SUM($C19:N19)*('CL quarter'!$N$35-1)</f>
-        <v>0.19161205428565831</v>
+        <v>0.40478816335718498</v>
       </c>
       <c r="P19" s="35">
         <f>SUM(C19)</f>
@@ -13828,15 +13813,15 @@
       </c>
       <c r="R19" s="37">
         <f t="shared" si="1"/>
-        <v>1439.7144500850181</v>
+        <v>1439.9276261940895</v>
       </c>
       <c r="S19" s="37">
         <f t="shared" si="2"/>
-        <v>1762.7144500850181</v>
+        <v>1762.9276261940895</v>
       </c>
       <c r="T19" s="36">
         <f t="shared" si="3"/>
-        <v>0.20094783972697425</v>
+        <v>0.20097214160899332</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="16" x14ac:dyDescent="0.2">
@@ -13880,7 +13865,7 @@
       <c r="Q21" s="7"/>
       <c r="R21" s="38">
         <f>SUM(R4:R19)</f>
-        <v>3217.5538322320922</v>
+        <v>3221.7190870688892</v>
       </c>
       <c r="S21" s="3"/>
     </row>
